--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/liv_025000-series-metadata-SOAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75917BA4-DEA0-864C-AE7B-058FD7CB1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C948362-4F5C-F645-AB44-0C2FA8166727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="1475">
   <si>
     <t xml:space="preserve">Creators: Joanne Ruth Davis, Dino Franco Felluga, Adrian S. Wisnicki </t>
   </si>
@@ -2737,9 +2737,6 @@
     <t>Anonymous; [W.J. Davis]; James Lewana</t>
   </si>
   <si>
-    <t>Graham's Town District. Letter from Rev. W.J. Davis, Dated London</t>
-  </si>
-  <si>
     <t>extract of a letter</t>
   </si>
   <si>
@@ -4436,6 +4433,18 @@
   </si>
   <si>
     <t>Metadata for Items from Special Collections, SOAS Library: “BIPOC Voices in the Victorian Periodical Press” (https://onemorevoice.org/bipoc-voices/bv-home.html) (2021-22), CC BY 4.0</t>
+  </si>
+  <si>
+    <t>1850-12</t>
+  </si>
+  <si>
+    <t>December 1851</t>
+  </si>
+  <si>
+    <t>266-68</t>
+  </si>
+  <si>
+    <t>Graham's Town District: [Letter from Rev. W.J. Davis]</t>
   </si>
 </sst>
 </file>
@@ -4911,9 +4920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4942,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -6550,12 +6559,22 @@
       <c r="I27" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="8"/>
+      <c r="J27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="M27" s="8">
+        <v>15</v>
+      </c>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="8" t="s">
+        <v>1473</v>
+      </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -15814,7 +15833,7 @@
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8" t="s">
-        <v>905</v>
+        <v>1474</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>823</v>
@@ -15841,7 +15860,7 @@
         <v>53</v>
       </c>
       <c r="R183" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S183" s="8"/>
       <c r="T183" s="6"/>
@@ -15856,7 +15875,7 @@
     </row>
     <row r="184" spans="1:28" ht="15.75" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>820</v>
@@ -15874,11 +15893,11 @@
         <v>24</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>823</v>
@@ -15905,7 +15924,7 @@
         <v>53</v>
       </c>
       <c r="R184" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S184" s="8"/>
       <c r="T184" s="6"/>
@@ -15920,7 +15939,7 @@
     </row>
     <row r="185" spans="1:28" ht="15.75" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>820</v>
@@ -15938,11 +15957,11 @@
         <v>24</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>823</v>
@@ -15969,7 +15988,7 @@
         <v>53</v>
       </c>
       <c r="R185" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S185" s="8"/>
       <c r="T185" s="20"/>
@@ -15984,7 +16003,7 @@
     </row>
     <row r="186" spans="1:28" ht="15.75" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>820</v>
@@ -16002,11 +16021,11 @@
         <v>24</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>823</v>
@@ -16024,7 +16043,7 @@
         <v>46</v>
       </c>
       <c r="O186" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="P186" s="12">
         <v>44198</v>
@@ -16033,7 +16052,7 @@
         <v>53</v>
       </c>
       <c r="R186" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S186" s="8"/>
       <c r="T186" s="6"/>
@@ -16048,7 +16067,7 @@
     </row>
     <row r="187" spans="1:28" ht="15.75" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>820</v>
@@ -16066,11 +16085,11 @@
         <v>24</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>823</v>
@@ -16088,7 +16107,7 @@
         <v>46</v>
       </c>
       <c r="O187" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P187" s="12">
         <v>44198</v>
@@ -16097,7 +16116,7 @@
         <v>53</v>
       </c>
       <c r="R187" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S187" s="8"/>
       <c r="T187" s="6"/>
@@ -16112,7 +16131,7 @@
     </row>
     <row r="188" spans="1:28" ht="15.75" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>820</v>
@@ -16130,20 +16149,20 @@
         <v>24</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K188" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="L188" s="10" t="s">
         <v>920</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>921</v>
       </c>
       <c r="M188" s="8" t="s">
         <v>899</v>
@@ -16152,7 +16171,7 @@
         <v>47</v>
       </c>
       <c r="O188" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="P188" s="12">
         <v>44198</v>
@@ -16161,10 +16180,10 @@
         <v>875</v>
       </c>
       <c r="R188" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="S188" s="8" t="s">
         <v>923</v>
-      </c>
-      <c r="S188" s="8" t="s">
-        <v>924</v>
       </c>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
@@ -16178,7 +16197,7 @@
     </row>
     <row r="189" spans="1:28" ht="15.75" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>820</v>
@@ -16196,23 +16215,23 @@
         <v>24</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K189" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="L189" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="L189" s="10" t="s">
+      <c r="M189" s="8" t="s">
         <v>929</v>
-      </c>
-      <c r="M189" s="8" t="s">
-        <v>930</v>
       </c>
       <c r="N189" s="8">
         <v>48</v>
@@ -16222,10 +16241,10 @@
       </c>
       <c r="P189" s="8"/>
       <c r="Q189" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="R189" s="8" t="s">
         <v>931</v>
-      </c>
-      <c r="R189" s="8" t="s">
-        <v>932</v>
       </c>
       <c r="S189" s="8"/>
       <c r="T189" s="6"/>
@@ -16240,7 +16259,7 @@
     </row>
     <row r="190" spans="1:28" ht="15.75" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>820</v>
@@ -16258,23 +16277,23 @@
         <v>24</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K190" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="L190" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="L190" s="10" t="s">
+      <c r="M190" s="8" t="s">
         <v>929</v>
-      </c>
-      <c r="M190" s="8" t="s">
-        <v>930</v>
       </c>
       <c r="N190" s="8">
         <v>48</v>
@@ -16286,10 +16305,10 @@
         <v>44198</v>
       </c>
       <c r="Q190" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R190" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S190" s="8"/>
       <c r="T190" s="6"/>
@@ -16304,7 +16323,7 @@
     </row>
     <row r="191" spans="1:28" ht="15.75" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>820</v>
@@ -16316,17 +16335,17 @@
         <v>22</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>823</v>
@@ -16338,21 +16357,21 @@
         <v>236</v>
       </c>
       <c r="M191" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N191" s="8"/>
       <c r="O191" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P191" s="8"/>
       <c r="Q191" s="8" t="s">
         <v>375</v>
       </c>
       <c r="R191" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="S191" s="8" t="s">
         <v>942</v>
-      </c>
-      <c r="S191" s="8" t="s">
-        <v>943</v>
       </c>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
@@ -16366,7 +16385,7 @@
     </row>
     <row r="192" spans="1:28" ht="15.75" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>820</v>
@@ -16378,7 +16397,7 @@
         <v>22</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>22</v>
@@ -16388,30 +16407,30 @@
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K192" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="L192" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="L192" s="10" t="s">
-        <v>947</v>
-      </c>
       <c r="M192" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P192" s="8"/>
       <c r="Q192" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R192" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="S192" s="8" t="s">
         <v>47</v>
@@ -16428,7 +16447,7 @@
     </row>
     <row r="193" spans="1:28" ht="15.75" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>820</v>
@@ -16446,34 +16465,34 @@
         <v>24</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J193" s="8"/>
       <c r="K193" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="L193" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="L193" s="10" t="s">
-        <v>954</v>
-      </c>
       <c r="M193" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N193" s="8"/>
       <c r="O193" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P193" s="12">
         <v>44198</v>
       </c>
       <c r="Q193" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R193" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="S193" s="8"/>
       <c r="T193" s="6"/>
@@ -16488,7 +16507,7 @@
     </row>
     <row r="194" spans="1:28" ht="15.75" customHeight="1">
       <c r="A194" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>820</v>
@@ -16500,7 +16519,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>22</v>
@@ -16510,7 +16529,7 @@
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>823</v>
@@ -16522,18 +16541,18 @@
         <v>809</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N194" s="8"/>
       <c r="O194" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P194" s="8"/>
       <c r="Q194" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R194" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S194" s="8" t="s">
         <v>47</v>
@@ -16550,7 +16569,7 @@
     </row>
     <row r="195" spans="1:28" ht="15.75" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>820</v>
@@ -16572,19 +16591,19 @@
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K195" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="L195" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="L195" s="8" t="s">
-        <v>964</v>
-      </c>
       <c r="M195" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="8">
@@ -16592,10 +16611,10 @@
       </c>
       <c r="P195" s="8"/>
       <c r="Q195" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="R195" s="8" t="s">
         <v>965</v>
-      </c>
-      <c r="R195" s="8" t="s">
-        <v>966</v>
       </c>
       <c r="S195" s="11"/>
       <c r="T195" s="6"/>
@@ -16610,7 +16629,7 @@
     </row>
     <row r="196" spans="1:28" ht="15.75" customHeight="1">
       <c r="A196" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>820</v>
@@ -16622,17 +16641,17 @@
         <v>22</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>823</v>
@@ -16644,21 +16663,21 @@
         <v>256</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P196" s="8"/>
       <c r="Q196" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="R196" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="R196" s="8" t="s">
+      <c r="S196" s="8" t="s">
         <v>972</v>
-      </c>
-      <c r="S196" s="8" t="s">
-        <v>973</v>
       </c>
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
@@ -16672,7 +16691,7 @@
     </row>
     <row r="197" spans="1:28" ht="15.75" customHeight="1">
       <c r="A197" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>820</v>
@@ -16690,11 +16709,11 @@
         <v>24</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>823</v>
@@ -16706,15 +16725,15 @@
         <v>256</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P197" s="8"/>
       <c r="Q197" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R197" s="13" t="s">
         <v>76</v>
@@ -16732,7 +16751,7 @@
     </row>
     <row r="198" spans="1:28" ht="15.75" customHeight="1">
       <c r="A198" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>820</v>
@@ -16744,7 +16763,7 @@
         <v>22</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>22</v>
@@ -16754,30 +16773,30 @@
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K198" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="L198" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="L198" s="10" t="s">
-        <v>981</v>
-      </c>
       <c r="M198" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="P198" s="8"/>
       <c r="Q198" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="S198" s="8" t="s">
         <v>47</v>
@@ -16794,7 +16813,7 @@
     </row>
     <row r="199" spans="1:28" ht="15.75" customHeight="1">
       <c r="A199" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>820</v>
@@ -16806,7 +16825,7 @@
         <v>22</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>22</v>
@@ -16816,30 +16835,30 @@
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K199" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="L199" s="10" t="s">
         <v>986</v>
-      </c>
-      <c r="L199" s="10" t="s">
-        <v>987</v>
       </c>
       <c r="M199" s="8" t="s">
         <v>899</v>
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P199" s="8"/>
       <c r="Q199" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="R199" s="8" t="s">
         <v>989</v>
-      </c>
-      <c r="R199" s="8" t="s">
-        <v>990</v>
       </c>
       <c r="S199" s="8" t="s">
         <v>47</v>
@@ -16856,7 +16875,7 @@
     </row>
     <row r="200" spans="1:28" ht="15.75" customHeight="1">
       <c r="A200" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>820</v>
@@ -16874,27 +16893,27 @@
         <v>24</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K200" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="L200" s="10" t="s">
         <v>986</v>
       </c>
-      <c r="L200" s="10" t="s">
-        <v>987</v>
-      </c>
       <c r="M200" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="P200" s="12">
         <v>44198</v>
@@ -16903,10 +16922,10 @@
         <v>53</v>
       </c>
       <c r="R200" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="S200" s="17" t="s">
         <v>995</v>
-      </c>
-      <c r="S200" s="17" t="s">
-        <v>996</v>
       </c>
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
@@ -16920,7 +16939,7 @@
     </row>
     <row r="201" spans="1:28" ht="15.75" customHeight="1">
       <c r="A201" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>820</v>
@@ -16932,7 +16951,7 @@
         <v>22</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>22</v>
@@ -16942,19 +16961,19 @@
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K201" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="L201" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="L201" s="10" t="s">
+      <c r="M201" s="8" t="s">
         <v>1000</v>
-      </c>
-      <c r="M201" s="8" t="s">
-        <v>1001</v>
       </c>
       <c r="N201" s="8"/>
       <c r="O201" s="21">
@@ -16962,13 +16981,13 @@
       </c>
       <c r="P201" s="8"/>
       <c r="Q201" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R201" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S201" s="8" t="s">
         <v>1002</v>
-      </c>
-      <c r="S201" s="8" t="s">
-        <v>1003</v>
       </c>
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
@@ -16982,7 +17001,7 @@
     </row>
     <row r="202" spans="1:28" ht="15.75" customHeight="1">
       <c r="A202" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>820</v>
@@ -16994,7 +17013,7 @@
         <v>22</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>22</v>
@@ -17004,7 +17023,7 @@
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>823</v>
@@ -17016,21 +17035,21 @@
         <v>263</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P202" s="8"/>
       <c r="Q202" s="8" t="s">
         <v>428</v>
       </c>
       <c r="R202" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S202" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
@@ -17044,7 +17063,7 @@
     </row>
     <row r="203" spans="1:28" ht="15.75" customHeight="1">
       <c r="A203" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>820</v>
@@ -17059,14 +17078,14 @@
         <v>23</v>
       </c>
       <c r="F203" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>1009</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>1010</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>823</v>
@@ -17078,23 +17097,23 @@
         <v>263</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P203" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="P203" s="8" t="s">
+      <c r="Q203" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="Q203" s="8" t="s">
+      <c r="R203" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="S203" s="17" t="s">
         <v>1014</v>
-      </c>
-      <c r="R203" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="S203" s="17" t="s">
-        <v>1015</v>
       </c>
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
@@ -17108,7 +17127,7 @@
     </row>
     <row r="204" spans="1:28" ht="15.75" customHeight="1">
       <c r="A204" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>820</v>
@@ -17120,7 +17139,7 @@
         <v>22</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>22</v>
@@ -17130,33 +17149,33 @@
       </c>
       <c r="H204" s="8"/>
       <c r="I204" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K204" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L204" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="L204" s="10" t="s">
-        <v>1019</v>
-      </c>
       <c r="M204" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P204" s="8"/>
       <c r="Q204" s="8" t="s">
         <v>875</v>
       </c>
       <c r="R204" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S204" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T204" s="6"/>
       <c r="U204" s="6"/>
@@ -17170,7 +17189,7 @@
     </row>
     <row r="205" spans="1:28" ht="15.75" customHeight="1">
       <c r="A205" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>820</v>
@@ -17182,7 +17201,7 @@
         <v>22</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>22</v>
@@ -17192,33 +17211,33 @@
       </c>
       <c r="H205" s="8"/>
       <c r="I205" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K205" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L205" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="L205" s="10" t="s">
-        <v>1025</v>
-      </c>
       <c r="M205" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="P205" s="8"/>
       <c r="Q205" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R205" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="S205" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T205" s="6"/>
       <c r="U205" s="6"/>
@@ -17232,7 +17251,7 @@
     </row>
     <row r="206" spans="1:28" ht="15.75" customHeight="1">
       <c r="A206" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>820</v>
@@ -17244,7 +17263,7 @@
         <v>22</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>22</v>
@@ -17254,7 +17273,7 @@
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>823</v>
@@ -17266,21 +17285,21 @@
         <v>269</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="P206" s="8"/>
       <c r="Q206" s="8" t="s">
         <v>875</v>
       </c>
       <c r="R206" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="S206" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
@@ -17294,7 +17313,7 @@
     </row>
     <row r="207" spans="1:28" ht="15.75" customHeight="1">
       <c r="A207" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>820</v>
@@ -17306,7 +17325,7 @@
         <v>22</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>22</v>
@@ -17316,33 +17335,33 @@
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J207" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K207" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L207" s="10" t="s">
         <v>1034</v>
       </c>
-      <c r="L207" s="10" t="s">
-        <v>1035</v>
-      </c>
       <c r="M207" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="P207" s="8"/>
       <c r="Q207" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R207" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S207" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T207" s="6"/>
       <c r="U207" s="6"/>
@@ -17356,7 +17375,7 @@
     </row>
     <row r="208" spans="1:28" ht="15.75" customHeight="1">
       <c r="A208" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>820</v>
@@ -17368,7 +17387,7 @@
         <v>22</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>22</v>
@@ -17378,7 +17397,7 @@
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J208" s="8" t="s">
         <v>823</v>
@@ -17390,21 +17409,21 @@
         <v>275</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="P208" s="8"/>
       <c r="Q208" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R208" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S208" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
@@ -17418,10 +17437,10 @@
     </row>
     <row r="209" spans="1:28" ht="15.75" customHeight="1">
       <c r="A209" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>1042</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>1043</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>22</v>
@@ -17436,23 +17455,23 @@
         <v>24</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J209" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K209" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L209" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="L209" s="10" t="s">
+      <c r="M209" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="M209" s="8" t="s">
-        <v>1048</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="12">
@@ -17462,10 +17481,10 @@
         <v>44198</v>
       </c>
       <c r="Q209" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R209" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S209" s="8"/>
       <c r="T209" s="6"/>
@@ -17480,10 +17499,10 @@
     </row>
     <row r="210" spans="1:28" ht="15.75" customHeight="1">
       <c r="A210" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>22</v>
@@ -17498,33 +17517,33 @@
         <v>24</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J210" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K210" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L210" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="L210" s="10" t="s">
+      <c r="M210" s="8" t="s">
         <v>1047</v>
-      </c>
-      <c r="M210" s="8" t="s">
-        <v>1048</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="P210" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="P210" s="8" t="s">
-        <v>1054</v>
-      </c>
       <c r="Q210" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R210" s="8"/>
       <c r="S210" s="8"/>
@@ -17540,10 +17559,10 @@
     </row>
     <row r="211" spans="1:28" ht="15.75" customHeight="1">
       <c r="A211" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>22</v>
@@ -17558,11 +17577,11 @@
         <v>24</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>823</v>
@@ -17574,17 +17593,17 @@
         <v>282</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P211" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="P211" s="8" t="s">
-        <v>1059</v>
-      </c>
       <c r="Q211" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R211" s="8"/>
       <c r="S211" s="8"/>
@@ -17600,10 +17619,10 @@
     </row>
     <row r="212" spans="1:28" ht="15.75" customHeight="1">
       <c r="A212" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>22</v>
@@ -17612,7 +17631,7 @@
         <v>22</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>22</v>
@@ -17622,33 +17641,33 @@
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J212" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K212" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L212" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="L212" s="10" t="s">
-        <v>1063</v>
-      </c>
       <c r="M212" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="P212" s="8"/>
       <c r="Q212" s="8" t="s">
         <v>875</v>
       </c>
       <c r="R212" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="S212" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
@@ -17662,10 +17681,10 @@
     </row>
     <row r="213" spans="1:28" ht="15.75" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>22</v>
@@ -17674,7 +17693,7 @@
         <v>22</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>22</v>
@@ -17684,33 +17703,33 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J213" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K213" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L213" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="L213" s="10" t="s">
-        <v>1069</v>
-      </c>
       <c r="M213" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="P213" s="8"/>
       <c r="Q213" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R213" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S213" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
@@ -17724,10 +17743,10 @@
     </row>
     <row r="214" spans="1:28" ht="15.75" customHeight="1">
       <c r="A214" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>22</v>
@@ -17736,7 +17755,7 @@
         <v>22</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>22</v>
@@ -17746,33 +17765,33 @@
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J214" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K214" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L214" s="10" t="s">
         <v>1073</v>
       </c>
-      <c r="L214" s="10" t="s">
-        <v>1074</v>
-      </c>
       <c r="M214" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P214" s="8"/>
       <c r="Q214" s="8" t="s">
         <v>424</v>
       </c>
       <c r="R214" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="S214" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
@@ -17786,10 +17805,10 @@
     </row>
     <row r="215" spans="1:28" ht="15.75" customHeight="1">
       <c r="A215" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>22</v>
@@ -17798,7 +17817,7 @@
         <v>22</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>22</v>
@@ -17808,33 +17827,33 @@
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J215" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K215" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L215" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="L215" s="10" t="s">
-        <v>1080</v>
-      </c>
       <c r="M215" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N215" s="8"/>
       <c r="O215" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="P215" s="8"/>
       <c r="Q215" s="8" t="s">
         <v>128</v>
       </c>
       <c r="R215" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S215" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
@@ -17848,10 +17867,10 @@
     </row>
     <row r="216" spans="1:28" ht="15.75" customHeight="1">
       <c r="A216" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>22</v>
@@ -17866,34 +17885,34 @@
         <v>24</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J216" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K216" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L216" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="L216" s="10" t="s">
-        <v>1080</v>
-      </c>
       <c r="M216" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="P216" s="8"/>
       <c r="Q216" s="8" t="s">
         <v>424</v>
       </c>
       <c r="R216" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S216" s="8"/>
       <c r="T216" s="6"/>
@@ -17908,10 +17927,10 @@
     </row>
     <row r="217" spans="1:28" ht="15.75" customHeight="1">
       <c r="A217" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>22</v>
@@ -17926,34 +17945,34 @@
         <v>24</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J217" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K217" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L217" s="10" t="s">
         <v>1091</v>
       </c>
-      <c r="L217" s="10" t="s">
-        <v>1092</v>
-      </c>
       <c r="M217" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P217" s="8"/>
       <c r="Q217" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R217" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="S217" s="8"/>
       <c r="T217" s="6"/>
@@ -17968,10 +17987,10 @@
     </row>
     <row r="218" spans="1:28" ht="15.75" customHeight="1">
       <c r="A218" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>22</v>
@@ -17986,11 +18005,11 @@
         <v>24</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J218" s="8" t="s">
         <v>823</v>
@@ -18002,21 +18021,21 @@
         <v>289</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N218" s="8"/>
       <c r="O218" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P218" s="8"/>
       <c r="Q218" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R218" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="R218" s="8" t="s">
-        <v>1101</v>
-      </c>
       <c r="S218" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
@@ -18030,10 +18049,10 @@
     </row>
     <row r="219" spans="1:28" ht="15.75" customHeight="1">
       <c r="A219" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>22</v>
@@ -18052,19 +18071,19 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J219" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K219" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L219" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="L219" s="8" t="s">
-        <v>1105</v>
-      </c>
       <c r="M219" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="8">
@@ -18075,7 +18094,7 @@
         <v>428</v>
       </c>
       <c r="R219" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="S219" s="8"/>
       <c r="T219" s="6"/>
@@ -18090,10 +18109,10 @@
     </row>
     <row r="220" spans="1:28" ht="15.75" customHeight="1">
       <c r="A220" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>22</v>
@@ -18112,7 +18131,7 @@
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J220" s="8" t="s">
         <v>823</v>
@@ -18124,7 +18143,7 @@
         <v>306</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N220" s="8"/>
       <c r="O220" s="8">
@@ -18135,10 +18154,10 @@
         <v>428</v>
       </c>
       <c r="R220" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="S220" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
@@ -18152,10 +18171,10 @@
     </row>
     <row r="221" spans="1:28" ht="15.75" customHeight="1">
       <c r="A221" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>22</v>
@@ -18164,7 +18183,7 @@
         <v>22</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>22</v>
@@ -18174,33 +18193,33 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J221" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K221" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L221" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="L221" s="10" t="s">
-        <v>1112</v>
-      </c>
       <c r="M221" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P221" s="8"/>
       <c r="Q221" s="8" t="s">
         <v>424</v>
       </c>
       <c r="R221" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="S221" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
@@ -18214,10 +18233,10 @@
     </row>
     <row r="222" spans="1:28" ht="15.75" customHeight="1">
       <c r="A222" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>22</v>
@@ -18232,23 +18251,23 @@
         <v>24</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J222" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K222" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L222" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="L222" s="10" t="s">
-        <v>1112</v>
-      </c>
       <c r="M222" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="8">
@@ -18256,13 +18275,13 @@
       </c>
       <c r="P222" s="8"/>
       <c r="Q222" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R222" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S222" s="8" t="s">
         <v>1118</v>
-      </c>
-      <c r="S222" s="8" t="s">
-        <v>1119</v>
       </c>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
@@ -18276,10 +18295,10 @@
     </row>
     <row r="223" spans="1:28" ht="15.75" customHeight="1">
       <c r="A223" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>22</v>
@@ -18288,7 +18307,7 @@
         <v>22</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>22</v>
@@ -18298,33 +18317,33 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J223" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K223" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L223" s="10" t="s">
         <v>1122</v>
       </c>
-      <c r="L223" s="10" t="s">
-        <v>1123</v>
-      </c>
       <c r="M223" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="P223" s="8"/>
       <c r="Q223" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R223" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="R223" s="8" t="s">
-        <v>1126</v>
-      </c>
       <c r="S223" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
@@ -18338,10 +18357,10 @@
     </row>
     <row r="224" spans="1:28" ht="15.75" customHeight="1">
       <c r="A224" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>22</v>
@@ -18356,31 +18375,31 @@
         <v>24</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K224" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L224" s="10" t="s">
         <v>1122</v>
       </c>
-      <c r="L224" s="10" t="s">
-        <v>1123</v>
-      </c>
       <c r="M224" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P224" s="8"/>
       <c r="Q224" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R224" s="8"/>
       <c r="S224" s="8"/>
@@ -18396,10 +18415,10 @@
     </row>
     <row r="225" spans="1:28" ht="15.75" customHeight="1">
       <c r="A225" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>22</v>
@@ -18414,23 +18433,23 @@
         <v>24</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J225" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K225" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L225" s="10" t="s">
         <v>1122</v>
       </c>
-      <c r="L225" s="10" t="s">
-        <v>1123</v>
-      </c>
       <c r="M225" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8">
@@ -18438,7 +18457,7 @@
       </c>
       <c r="P225" s="8"/>
       <c r="Q225" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R225" s="8"/>
       <c r="S225" s="8"/>
@@ -18454,10 +18473,10 @@
     </row>
     <row r="226" spans="1:28" ht="15.75" customHeight="1">
       <c r="A226" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>22</v>
@@ -18472,31 +18491,31 @@
         <v>24</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J226" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K226" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L226" s="10" t="s">
         <v>1122</v>
       </c>
-      <c r="L226" s="10" t="s">
-        <v>1123</v>
-      </c>
       <c r="M226" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P226" s="8"/>
       <c r="Q226" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R226" s="8"/>
       <c r="S226" s="8"/>
@@ -18512,10 +18531,10 @@
     </row>
     <row r="227" spans="1:28" ht="15.75" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>22</v>
@@ -18524,7 +18543,7 @@
         <v>22</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>22</v>
@@ -18534,33 +18553,33 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K227" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L227" s="10" t="s">
         <v>1138</v>
       </c>
-      <c r="L227" s="10" t="s">
-        <v>1139</v>
-      </c>
       <c r="M227" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="P227" s="8"/>
       <c r="Q227" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R227" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="R227" s="8" t="s">
-        <v>1141</v>
-      </c>
       <c r="S227" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
@@ -18574,10 +18593,10 @@
     </row>
     <row r="228" spans="1:28" ht="15.75" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>24</v>
@@ -18592,23 +18611,23 @@
         <v>24</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J228" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K228" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L228" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="L228" s="10" t="s">
+      <c r="M228" s="8" t="s">
         <v>1146</v>
-      </c>
-      <c r="M228" s="8" t="s">
-        <v>1147</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="12">
@@ -18616,7 +18635,7 @@
       </c>
       <c r="P228" s="8"/>
       <c r="Q228" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R228" s="8"/>
       <c r="S228" s="8"/>
@@ -18632,10 +18651,10 @@
     </row>
     <row r="229" spans="1:28" ht="15.75" customHeight="1">
       <c r="A229" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>22</v>
@@ -18644,7 +18663,7 @@
         <v>22</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>22</v>
@@ -18654,33 +18673,33 @@
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J229" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K229" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L229" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="L229" s="10" t="s">
-        <v>1152</v>
-      </c>
       <c r="M229" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P229" s="8"/>
       <c r="Q229" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R229" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S229" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
@@ -18694,10 +18713,10 @@
     </row>
     <row r="230" spans="1:28" ht="15.75" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>24</v>
@@ -18712,34 +18731,34 @@
         <v>24</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J230" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K230" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L230" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="L230" s="10" t="s">
-        <v>1159</v>
-      </c>
       <c r="M230" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="P230" s="8"/>
       <c r="Q230" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R230" s="13" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="S230" s="8"/>
       <c r="T230" s="6"/>
@@ -18754,10 +18773,10 @@
     </row>
     <row r="231" spans="1:28" ht="15.75" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>22</v>
@@ -18766,7 +18785,7 @@
         <v>22</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>22</v>
@@ -18776,33 +18795,33 @@
       </c>
       <c r="H231" s="8"/>
       <c r="I231" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J231" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K231" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L231" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="L231" s="10" t="s">
-        <v>1165</v>
-      </c>
       <c r="M231" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N231" s="8"/>
       <c r="O231" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="P231" s="8"/>
       <c r="Q231" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R231" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="S231" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -18816,10 +18835,10 @@
     </row>
     <row r="232" spans="1:28" ht="15.75" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>22</v>
@@ -18838,30 +18857,30 @@
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J232" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K232" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L232" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="L232" s="10" t="s">
-        <v>1165</v>
-      </c>
       <c r="M232" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N232" s="8"/>
       <c r="O232" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="P232" s="8"/>
       <c r="Q232" s="8" t="s">
         <v>128</v>
       </c>
       <c r="R232" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="S232" s="8"/>
       <c r="T232" s="6"/>
@@ -18876,10 +18895,10 @@
     </row>
     <row r="233" spans="1:28" ht="15.75" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>22</v>
@@ -18894,34 +18913,34 @@
         <v>24</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J233" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K233" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L233" s="10" t="s">
         <v>1164</v>
       </c>
-      <c r="L233" s="10" t="s">
-        <v>1165</v>
-      </c>
       <c r="M233" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="P233" s="8"/>
       <c r="Q233" s="8" t="s">
         <v>428</v>
       </c>
       <c r="R233" s="8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="S233" s="8"/>
       <c r="T233" s="6"/>
@@ -18936,10 +18955,10 @@
     </row>
     <row r="234" spans="1:28" ht="15.75" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>22</v>
@@ -18948,7 +18967,7 @@
         <v>22</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>22</v>
@@ -18958,33 +18977,33 @@
       </c>
       <c r="H234" s="8"/>
       <c r="I234" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J234" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K234" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L234" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="L234" s="10" t="s">
-        <v>1179</v>
-      </c>
       <c r="M234" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N234" s="8"/>
       <c r="O234" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P234" s="8"/>
       <c r="Q234" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R234" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="S234" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -18998,10 +19017,10 @@
     </row>
     <row r="235" spans="1:28" ht="15.75" customHeight="1">
       <c r="A235" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>22</v>
@@ -19016,31 +19035,31 @@
         <v>24</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H235" s="8"/>
       <c r="I235" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J235" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K235" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L235" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="L235" s="10" t="s">
-        <v>1179</v>
-      </c>
       <c r="M235" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N235" s="8"/>
       <c r="O235" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="P235" s="8"/>
       <c r="Q235" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="R235" s="8"/>
       <c r="S235" s="8"/>
@@ -19056,10 +19075,10 @@
     </row>
     <row r="236" spans="1:28" ht="15.75" customHeight="1">
       <c r="A236" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>22</v>
@@ -19068,7 +19087,7 @@
         <v>22</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>22</v>
@@ -19078,33 +19097,33 @@
       </c>
       <c r="H236" s="8"/>
       <c r="I236" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J236" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K236" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L236" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="L236" s="10" t="s">
-        <v>1188</v>
-      </c>
       <c r="M236" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N236" s="8"/>
       <c r="O236" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="P236" s="8"/>
       <c r="Q236" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="R236" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="S236" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -19118,10 +19137,10 @@
     </row>
     <row r="237" spans="1:28" ht="15.75" customHeight="1">
       <c r="A237" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>22</v>
@@ -19136,31 +19155,31 @@
         <v>24</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H237" s="8"/>
       <c r="I237" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J237" s="8" t="s">
         <v>823</v>
       </c>
       <c r="K237" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L237" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="L237" s="10" t="s">
-        <v>1188</v>
-      </c>
       <c r="M237" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N237" s="8"/>
       <c r="O237" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="P237" s="8"/>
       <c r="Q237" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R237" s="8"/>
       <c r="S237" s="8"/>
@@ -19176,10 +19195,10 @@
     </row>
     <row r="238" spans="1:28" ht="15.75" customHeight="1">
       <c r="A238" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>22</v>
@@ -19188,7 +19207,7 @@
         <v>22</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>22</v>
@@ -19198,7 +19217,7 @@
       </c>
       <c r="H238" s="8"/>
       <c r="I238" s="8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J238" s="8" t="s">
         <v>823</v>
@@ -19210,21 +19229,21 @@
         <v>312</v>
       </c>
       <c r="M238" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N238" s="8"/>
       <c r="O238" s="8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P238" s="8"/>
       <c r="Q238" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R238" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S238" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -19238,10 +19257,10 @@
     </row>
     <row r="239" spans="1:28" ht="15.75" customHeight="1">
       <c r="A239" s="22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>1199</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>1200</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>22</v>
@@ -19256,20 +19275,20 @@
         <v>24</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J239" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="J239" s="6" t="s">
+      <c r="K239" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="K239" s="9" t="s">
+      <c r="L239" s="9" t="s">
         <v>1204</v>
-      </c>
-      <c r="L239" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="M239" s="23">
         <v>3</v>
@@ -19282,7 +19301,7 @@
       </c>
       <c r="P239" s="6"/>
       <c r="Q239" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="R239" s="6" t="s">
         <v>76</v>
@@ -19300,38 +19319,38 @@
     </row>
     <row r="240" spans="1:28" ht="15.75" customHeight="1">
       <c r="A240" s="22" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" s="6" t="s">
         <v>1207</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F240" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>1208</v>
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K240" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="J240" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K240" s="9" t="s">
+      <c r="L240" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L240" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M240" s="23">
         <v>3</v>
@@ -19344,13 +19363,13 @@
       </c>
       <c r="P240" s="6"/>
       <c r="Q240" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="R240" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="R240" s="6" t="s">
+      <c r="S240" s="8" t="s">
         <v>1213</v>
-      </c>
-      <c r="S240" s="8" t="s">
-        <v>1214</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -19364,38 +19383,38 @@
     </row>
     <row r="241" spans="1:28" ht="15.75" customHeight="1">
       <c r="A241" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G241" s="6" t="s">
         <v>1215</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>1216</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K241" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L241" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L241" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M241" s="23">
         <v>3</v>
@@ -19408,13 +19427,13 @@
       </c>
       <c r="P241" s="6"/>
       <c r="Q241" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="R241" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="R241" s="6" t="s">
+      <c r="S241" s="8" t="s">
         <v>1219</v>
-      </c>
-      <c r="S241" s="8" t="s">
-        <v>1220</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -19428,38 +19447,38 @@
     </row>
     <row r="242" spans="1:28" ht="15.75" customHeight="1">
       <c r="A242" s="22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" s="6" t="s">
         <v>1221</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>1222</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K242" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="J242" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K242" s="9" t="s">
+      <c r="L242" s="9" t="s">
         <v>1224</v>
-      </c>
-      <c r="L242" s="9" t="s">
-        <v>1225</v>
       </c>
       <c r="M242" s="23">
         <v>3</v>
@@ -19468,17 +19487,17 @@
         <v>33</v>
       </c>
       <c r="O242" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="P242" s="6"/>
       <c r="Q242" s="6" t="s">
         <v>875</v>
       </c>
       <c r="R242" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="S242" s="8" t="s">
         <v>1227</v>
-      </c>
-      <c r="S242" s="8" t="s">
-        <v>1228</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -19492,38 +19511,38 @@
     </row>
     <row r="243" spans="1:28" ht="15.75" customHeight="1">
       <c r="A243" s="22" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="6" t="s">
         <v>1229</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>1230</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K243" s="9" t="s">
         <v>1231</v>
       </c>
-      <c r="J243" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K243" s="9" t="s">
+      <c r="L243" s="9" t="s">
         <v>1232</v>
-      </c>
-      <c r="L243" s="9" t="s">
-        <v>1233</v>
       </c>
       <c r="M243" s="23">
         <v>3</v>
@@ -19532,17 +19551,17 @@
         <v>34</v>
       </c>
       <c r="O243" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P243" s="6"/>
       <c r="Q243" s="6" t="s">
         <v>338</v>
       </c>
       <c r="R243" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="S243" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -19556,10 +19575,10 @@
     </row>
     <row r="244" spans="1:28" ht="15.75" customHeight="1">
       <c r="A244" s="22" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>22</v>
@@ -19568,7 +19587,7 @@
         <v>22</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>22</v>
@@ -19578,16 +19597,16 @@
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J244" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K244" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="J244" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K244" s="9" t="s">
+      <c r="L244" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L244" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M244" s="23">
         <v>3</v>
@@ -19600,13 +19619,13 @@
       </c>
       <c r="P244" s="6"/>
       <c r="Q244" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R244" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="R244" s="6" t="s">
-        <v>1241</v>
-      </c>
       <c r="S244" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -19620,10 +19639,10 @@
     </row>
     <row r="245" spans="1:28" ht="15.75" customHeight="1">
       <c r="A245" s="22" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>22</v>
@@ -19632,7 +19651,7 @@
         <v>22</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>22</v>
@@ -19642,16 +19661,16 @@
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K245" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L245" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L245" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M245" s="23">
         <v>3</v>
@@ -19664,13 +19683,13 @@
       </c>
       <c r="P245" s="6"/>
       <c r="Q245" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R245" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="R245" s="6" t="s">
-        <v>1245</v>
-      </c>
       <c r="S245" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -19684,10 +19703,10 @@
     </row>
     <row r="246" spans="1:28" ht="15.75" customHeight="1">
       <c r="A246" s="22" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>22</v>
@@ -19702,20 +19721,20 @@
         <v>24</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J246" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K246" s="9" t="s">
         <v>1248</v>
       </c>
-      <c r="J246" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K246" s="9" t="s">
+      <c r="L246" s="9" t="s">
         <v>1249</v>
-      </c>
-      <c r="L246" s="9" t="s">
-        <v>1250</v>
       </c>
       <c r="M246" s="23">
         <v>3</v>
@@ -19724,11 +19743,11 @@
         <v>36</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="P246" s="6"/>
       <c r="Q246" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="R246" s="6"/>
       <c r="S246" s="8"/>
@@ -19744,10 +19763,10 @@
     </row>
     <row r="247" spans="1:28" ht="15.75" customHeight="1">
       <c r="A247" s="22" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>1253</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>1254</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>22</v>
@@ -19762,20 +19781,20 @@
         <v>24</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K247" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L247" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L247" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M247" s="23">
         <v>3</v>
@@ -19784,11 +19803,11 @@
         <v>35</v>
       </c>
       <c r="O247" s="8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P247" s="6"/>
       <c r="Q247" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="R247" s="6"/>
       <c r="S247" s="8"/>
@@ -19804,10 +19823,10 @@
     </row>
     <row r="248" spans="1:28" ht="15.75" customHeight="1">
       <c r="A248" s="22" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>22</v>
@@ -19822,22 +19841,22 @@
         <v>24</v>
       </c>
       <c r="G248" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H248" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="H248" s="6" t="s">
+      <c r="I248" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="I248" s="6" t="s">
-        <v>1260</v>
-      </c>
       <c r="J248" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K248" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L248" s="9" t="s">
         <v>1249</v>
-      </c>
-      <c r="L248" s="9" t="s">
-        <v>1250</v>
       </c>
       <c r="M248" s="23">
         <v>3</v>
@@ -19846,14 +19865,14 @@
         <v>36</v>
       </c>
       <c r="O248" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="P248" s="6"/>
       <c r="Q248" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R248" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="S248" s="8"/>
       <c r="T248" s="6"/>
@@ -19868,38 +19887,38 @@
     </row>
     <row r="249" spans="1:28" ht="15.75" customHeight="1">
       <c r="A249" s="22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="C249" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>1265</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J249" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="J249" s="6" t="s">
+      <c r="K249" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="K249" s="9" t="s">
+      <c r="L249" s="9" t="s">
         <v>1268</v>
-      </c>
-      <c r="L249" s="9" t="s">
-        <v>1269</v>
       </c>
       <c r="M249" s="23">
         <v>1</v>
@@ -19912,13 +19931,13 @@
       </c>
       <c r="P249" s="6"/>
       <c r="Q249" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R249" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="R249" s="6" t="s">
+      <c r="S249" s="8" t="s">
         <v>1271</v>
-      </c>
-      <c r="S249" s="8" t="s">
-        <v>1272</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -19932,10 +19951,10 @@
     </row>
     <row r="250" spans="1:28" ht="15.75" customHeight="1">
       <c r="A250" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>22</v>
@@ -19950,20 +19969,20 @@
         <v>24</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J250" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="J250" s="6" t="s">
+      <c r="K250" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="K250" s="9" t="s">
+      <c r="L250" s="9" t="s">
         <v>1268</v>
-      </c>
-      <c r="L250" s="9" t="s">
-        <v>1269</v>
       </c>
       <c r="M250" s="23">
         <v>1</v>
@@ -19972,16 +19991,16 @@
         <v>30</v>
       </c>
       <c r="O250" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P250" s="6" t="s">
         <v>1275</v>
-      </c>
-      <c r="P250" s="6" t="s">
-        <v>1276</v>
       </c>
       <c r="Q250" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R250" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="S250" s="8"/>
       <c r="T250" s="6"/>
@@ -19996,10 +20015,10 @@
     </row>
     <row r="251" spans="1:28" ht="15.75" customHeight="1">
       <c r="A251" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>22</v>
@@ -20014,20 +20033,20 @@
         <v>22</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J251" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K251" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="K251" s="9" t="s">
+      <c r="L251" s="9" t="s">
         <v>1268</v>
-      </c>
-      <c r="L251" s="9" t="s">
-        <v>1269</v>
       </c>
       <c r="M251" s="23">
         <v>1</v>
@@ -20045,10 +20064,10 @@
         <v>230</v>
       </c>
       <c r="R251" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="S251" s="8" t="s">
         <v>1281</v>
-      </c>
-      <c r="S251" s="8" t="s">
-        <v>1282</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -20062,38 +20081,38 @@
     </row>
     <row r="252" spans="1:28" ht="15.75" customHeight="1">
       <c r="A252" s="22" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G252" s="6" t="s">
         <v>1283</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>1284</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K252" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L252" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L252" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M252" s="23">
         <v>1</v>
@@ -20102,14 +20121,14 @@
         <v>32</v>
       </c>
       <c r="O252" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P252" s="6" t="s">
         <v>1286</v>
-      </c>
-      <c r="P252" s="6" t="s">
-        <v>1287</v>
       </c>
       <c r="Q252" s="6"/>
       <c r="R252" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="S252" s="8"/>
       <c r="T252" s="6"/>
@@ -20124,38 +20143,38 @@
     </row>
     <row r="253" spans="1:28" ht="15.75" customHeight="1">
       <c r="A253" s="22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G253" s="6" t="s">
         <v>1289</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>1290</v>
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K253" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L253" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L253" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M253" s="23">
         <v>1</v>
@@ -20164,16 +20183,16 @@
         <v>32</v>
       </c>
       <c r="O253" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="P253" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q253" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R253" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S253" s="8"/>
       <c r="T253" s="6"/>
@@ -20188,38 +20207,38 @@
     </row>
     <row r="254" spans="1:28" ht="15.75" customHeight="1">
       <c r="A254" s="22" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>1295</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K254" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L254" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L254" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M254" s="23">
         <v>1</v>
@@ -20228,19 +20247,19 @@
         <v>32</v>
       </c>
       <c r="O254" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="P254" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q254" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R254" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S254" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="S254" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
@@ -20254,10 +20273,10 @@
     </row>
     <row r="255" spans="1:28" ht="15.75" customHeight="1">
       <c r="A255" s="22" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>22</v>
@@ -20272,20 +20291,20 @@
         <v>22</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K255" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L255" s="9" t="s">
         <v>1238</v>
-      </c>
-      <c r="L255" s="9" t="s">
-        <v>1239</v>
       </c>
       <c r="M255" s="23">
         <v>1</v>
@@ -20294,19 +20313,19 @@
         <v>32</v>
       </c>
       <c r="O255" s="8" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="P255" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q255" s="6" t="s">
         <v>128</v>
       </c>
       <c r="R255" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S255" s="8" t="s">
         <v>1304</v>
-      </c>
-      <c r="S255" s="8" t="s">
-        <v>1305</v>
       </c>
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
@@ -20320,10 +20339,10 @@
     </row>
     <row r="256" spans="1:28" ht="15.75" customHeight="1">
       <c r="A256" s="22" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>22</v>
@@ -20338,20 +20357,20 @@
         <v>22</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K256" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="J256" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K256" s="9" t="s">
+      <c r="L256" s="9" t="s">
         <v>1308</v>
-      </c>
-      <c r="L256" s="9" t="s">
-        <v>1309</v>
       </c>
       <c r="M256" s="23">
         <v>1</v>
@@ -20360,19 +20379,19 @@
         <v>33</v>
       </c>
       <c r="O256" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P256" s="6" t="s">
         <v>1310</v>
-      </c>
-      <c r="P256" s="6" t="s">
-        <v>1311</v>
       </c>
       <c r="Q256" s="6" t="s">
         <v>128</v>
       </c>
       <c r="R256" s="6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="S256" s="8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="T256" s="6"/>
       <c r="U256" s="6"/>
@@ -20386,38 +20405,38 @@
     </row>
     <row r="257" spans="1:28" ht="15.75" customHeight="1">
       <c r="A257" s="22" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G257" s="6" t="s">
         <v>1313</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G257" s="6" t="s">
-        <v>1314</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K257" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L257" s="9" t="s">
         <v>1308</v>
-      </c>
-      <c r="L257" s="9" t="s">
-        <v>1309</v>
       </c>
       <c r="M257" s="23">
         <v>1</v>
@@ -20426,17 +20445,17 @@
         <v>33</v>
       </c>
       <c r="O257" s="8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P257" s="6"/>
       <c r="Q257" s="6" t="s">
         <v>128</v>
       </c>
       <c r="R257" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="S257" s="8" t="s">
         <v>1317</v>
-      </c>
-      <c r="S257" s="8" t="s">
-        <v>1318</v>
       </c>
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
@@ -20450,10 +20469,10 @@
     </row>
     <row r="258" spans="1:28" ht="15.75" customHeight="1">
       <c r="A258" s="22" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>22</v>
@@ -20462,26 +20481,26 @@
         <v>22</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K258" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L258" s="9" t="s">
         <v>1308</v>
-      </c>
-      <c r="L258" s="9" t="s">
-        <v>1309</v>
       </c>
       <c r="M258" s="23">
         <v>1</v>
@@ -20497,10 +20516,10 @@
         <v>862</v>
       </c>
       <c r="R258" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="S258" s="8" t="s">
         <v>1321</v>
-      </c>
-      <c r="S258" s="8" t="s">
-        <v>1322</v>
       </c>
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
@@ -20514,10 +20533,10 @@
     </row>
     <row r="259" spans="1:28" ht="15.75" customHeight="1">
       <c r="A259" s="22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>22</v>
@@ -20526,7 +20545,7 @@
         <v>22</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>22</v>
@@ -20536,16 +20555,16 @@
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J259" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="J259" s="6" t="s">
-        <v>1267</v>
-      </c>
       <c r="K259" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L259" s="9" t="s">
         <v>1324</v>
-      </c>
-      <c r="L259" s="9" t="s">
-        <v>1325</v>
       </c>
       <c r="M259" s="23">
         <v>1</v>
@@ -20563,10 +20582,10 @@
         <v>854</v>
       </c>
       <c r="R259" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="S259" s="8" t="s">
         <v>1326</v>
-      </c>
-      <c r="S259" s="8" t="s">
-        <v>1327</v>
       </c>
       <c r="T259" s="6"/>
       <c r="U259" s="6"/>
@@ -20580,10 +20599,10 @@
     </row>
     <row r="260" spans="1:28" ht="15.75" customHeight="1">
       <c r="A260" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>22</v>
@@ -20598,20 +20617,20 @@
         <v>24</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K260" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L260" s="9" t="s">
         <v>1324</v>
-      </c>
-      <c r="L260" s="9" t="s">
-        <v>1325</v>
       </c>
       <c r="M260" s="23">
         <v>1</v>
@@ -20620,13 +20639,13 @@
         <v>34</v>
       </c>
       <c r="O260" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="P260" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q260" s="6" t="s">
         <v>1331</v>
-      </c>
-      <c r="P260" s="6" t="s">
-        <v>1287</v>
-      </c>
-      <c r="Q260" s="6" t="s">
-        <v>1332</v>
       </c>
       <c r="R260" s="6"/>
       <c r="S260" s="8"/>
@@ -20642,10 +20661,10 @@
     </row>
     <row r="261" spans="1:28" ht="15.75" customHeight="1">
       <c r="A261" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>22</v>
@@ -20654,7 +20673,7 @@
         <v>22</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F261" s="6" t="s">
         <v>22</v>
@@ -20664,16 +20683,16 @@
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J261" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K261" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="J261" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K261" s="9" t="s">
+      <c r="L261" s="9" t="s">
         <v>1335</v>
-      </c>
-      <c r="L261" s="9" t="s">
-        <v>1336</v>
       </c>
       <c r="M261" s="23">
         <v>1</v>
@@ -20689,10 +20708,10 @@
       </c>
       <c r="Q261" s="6"/>
       <c r="R261" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="S261" s="8" t="s">
         <v>1337</v>
-      </c>
-      <c r="S261" s="8" t="s">
-        <v>1338</v>
       </c>
       <c r="T261" s="6"/>
       <c r="U261" s="6"/>
@@ -20706,10 +20725,10 @@
     </row>
     <row r="262" spans="1:28" ht="15.75" customHeight="1">
       <c r="A262" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>22</v>
@@ -20718,7 +20737,7 @@
         <v>22</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>22</v>
@@ -20728,16 +20747,16 @@
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J262" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="J262" s="6" t="s">
-        <v>1267</v>
-      </c>
       <c r="K262" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L262" s="9" t="s">
         <v>1335</v>
-      </c>
-      <c r="L262" s="9" t="s">
-        <v>1336</v>
       </c>
       <c r="M262" s="23">
         <v>1</v>
@@ -20755,10 +20774,10 @@
         <v>128</v>
       </c>
       <c r="R262" s="14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S262" s="8" t="s">
         <v>1340</v>
-      </c>
-      <c r="S262" s="8" t="s">
-        <v>1341</v>
       </c>
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
@@ -20772,10 +20791,10 @@
     </row>
     <row r="263" spans="1:28" ht="15.75" customHeight="1">
       <c r="A263" s="22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>22</v>
@@ -20790,20 +20809,20 @@
         <v>24</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K263" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L263" s="9" t="s">
         <v>1335</v>
-      </c>
-      <c r="L263" s="9" t="s">
-        <v>1336</v>
       </c>
       <c r="M263" s="23">
         <v>1</v>
@@ -20812,7 +20831,7 @@
         <v>36</v>
       </c>
       <c r="O263" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
@@ -20830,10 +20849,10 @@
     </row>
     <row r="264" spans="1:28" ht="15.75" customHeight="1">
       <c r="A264" s="22" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>22</v>
@@ -20852,16 +20871,16 @@
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J264" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K264" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="J264" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K264" s="9" t="s">
+      <c r="L264" s="9" t="s">
         <v>1348</v>
-      </c>
-      <c r="L264" s="9" t="s">
-        <v>1349</v>
       </c>
       <c r="M264" s="23">
         <v>2</v>
@@ -20879,10 +20898,10 @@
         <v>128</v>
       </c>
       <c r="R264" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="S264" s="8" t="s">
         <v>1350</v>
-      </c>
-      <c r="S264" s="8" t="s">
-        <v>1351</v>
       </c>
       <c r="T264" s="6"/>
       <c r="U264" s="6"/>
@@ -20896,10 +20915,10 @@
     </row>
     <row r="265" spans="1:28" ht="15.75" customHeight="1">
       <c r="A265" s="22" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>22</v>
@@ -20914,20 +20933,20 @@
         <v>22</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J265" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="J265" s="6" t="s">
-        <v>1267</v>
-      </c>
       <c r="K265" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L265" s="9" t="s">
         <v>1354</v>
-      </c>
-      <c r="L265" s="9" t="s">
-        <v>1355</v>
       </c>
       <c r="M265" s="23">
         <v>2</v>
@@ -20945,7 +20964,7 @@
         <v>128</v>
       </c>
       <c r="R265" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="S265" s="8"/>
       <c r="T265" s="6"/>
@@ -20960,7 +20979,7 @@
     </row>
     <row r="266" spans="1:28" ht="15.75" customHeight="1">
       <c r="A266" s="22" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>820</v>
@@ -20982,19 +21001,19 @@
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="J266" s="6" t="s">
         <v>823</v>
       </c>
       <c r="K266" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L266" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="L266" s="9" t="s">
+      <c r="M266" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="M266" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="N266" s="23">
         <v>37</v>
@@ -21007,10 +21026,10 @@
         <v>53</v>
       </c>
       <c r="R266" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="S266" s="8" t="s">
         <v>1362</v>
-      </c>
-      <c r="S266" s="8" t="s">
-        <v>1363</v>
       </c>
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
@@ -21024,10 +21043,10 @@
     </row>
     <row r="267" spans="1:28" ht="15.75" customHeight="1">
       <c r="A267" s="22" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>22</v>
@@ -21046,19 +21065,19 @@
       </c>
       <c r="H267" s="6"/>
       <c r="I267" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J267" s="6" t="s">
         <v>823</v>
       </c>
       <c r="K267" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L267" s="9" t="s">
         <v>1366</v>
       </c>
-      <c r="L267" s="9" t="s">
-        <v>1367</v>
-      </c>
       <c r="M267" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="N267" s="23">
         <v>42</v>
@@ -21071,10 +21090,10 @@
         <v>828</v>
       </c>
       <c r="R267" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="S267" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
@@ -21088,10 +21107,10 @@
     </row>
     <row r="268" spans="1:28" ht="15.75" customHeight="1">
       <c r="A268" s="22" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>22</v>
@@ -21106,36 +21125,36 @@
         <v>24</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H268" s="6"/>
       <c r="I268" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J268" s="6" t="s">
         <v>823</v>
       </c>
       <c r="K268" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L268" s="9" t="s">
         <v>1372</v>
       </c>
-      <c r="L268" s="9" t="s">
-        <v>1373</v>
-      </c>
       <c r="M268" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="N268" s="23">
         <v>48</v>
       </c>
       <c r="O268" s="8" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="P268" s="6"/>
       <c r="Q268" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R268" s="14" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="S268" s="8"/>
       <c r="T268" s="6"/>
@@ -21150,10 +21169,10 @@
     </row>
     <row r="269" spans="1:28" ht="15.75" customHeight="1">
       <c r="A269" s="22" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>24</v>
@@ -21168,23 +21187,23 @@
         <v>24</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H269" s="6"/>
       <c r="I269" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J269" s="6" t="s">
         <v>823</v>
       </c>
       <c r="K269" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L269" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="L269" s="9" t="s">
-        <v>1380</v>
-      </c>
       <c r="M269" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="N269" s="23">
         <v>49</v>
@@ -21197,7 +21216,7 @@
         <v>338</v>
       </c>
       <c r="R269" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S269" s="8"/>
       <c r="T269" s="6"/>
@@ -21212,35 +21231,35 @@
     </row>
     <row r="270" spans="1:28" ht="15.75" customHeight="1">
       <c r="A270" s="22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>1382</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="C270" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G270" s="6" t="s">
         <v>1383</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F270" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" s="6" t="s">
-        <v>1384</v>
       </c>
       <c r="H270" s="6"/>
       <c r="I270" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J270" s="6" t="s">
         <v>1385</v>
       </c>
-      <c r="J270" s="6" t="s">
+      <c r="K270" s="9" t="s">
         <v>1386</v>
-      </c>
-      <c r="K270" s="9" t="s">
-        <v>1387</v>
       </c>
       <c r="L270" s="8">
         <v>1902</v>
@@ -21250,17 +21269,17 @@
       </c>
       <c r="N270" s="6"/>
       <c r="O270" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="P270" s="6"/>
       <c r="Q270" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R270" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="S270" s="8" t="s">
         <v>1389</v>
-      </c>
-      <c r="S270" s="8" t="s">
-        <v>1390</v>
       </c>
       <c r="T270" s="6"/>
       <c r="U270" s="6"/>
@@ -21274,35 +21293,35 @@
     </row>
     <row r="271" spans="1:28" ht="15.75" customHeight="1">
       <c r="A271" s="22" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G271" s="6" t="s">
         <v>1391</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F271" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>1392</v>
       </c>
       <c r="H271" s="6"/>
       <c r="I271" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J271" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="J271" s="6" t="s">
-        <v>1394</v>
-      </c>
       <c r="K271" s="9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L271" s="8">
         <v>1902</v>
@@ -21312,17 +21331,17 @@
       </c>
       <c r="N271" s="6"/>
       <c r="O271" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="P271" s="6"/>
       <c r="Q271" s="6" t="s">
         <v>230</v>
       </c>
       <c r="R271" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="S271" s="8" t="s">
         <v>1396</v>
-      </c>
-      <c r="S271" s="8" t="s">
-        <v>1397</v>
       </c>
       <c r="T271" s="6"/>
       <c r="U271" s="6"/>
@@ -21336,10 +21355,10 @@
     </row>
     <row r="272" spans="1:28" ht="15.75" customHeight="1">
       <c r="A272" s="22" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>22</v>
@@ -21348,7 +21367,7 @@
         <v>22</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>22</v>
@@ -21358,13 +21377,13 @@
       </c>
       <c r="H272" s="6"/>
       <c r="I272" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J272" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K272" s="9" t="s">
         <v>1386</v>
-      </c>
-      <c r="K272" s="9" t="s">
-        <v>1387</v>
       </c>
       <c r="L272" s="8">
         <v>1902</v>
@@ -21374,17 +21393,17 @@
       </c>
       <c r="N272" s="6"/>
       <c r="O272" s="8" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="P272" s="6"/>
       <c r="Q272" s="6" t="s">
         <v>128</v>
       </c>
       <c r="R272" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="S272" s="8" t="s">
         <v>1401</v>
-      </c>
-      <c r="S272" s="8" t="s">
-        <v>1402</v>
       </c>
       <c r="T272" s="6"/>
       <c r="U272" s="6"/>
@@ -21398,10 +21417,10 @@
     </row>
     <row r="273" spans="1:28" ht="15.75" customHeight="1">
       <c r="A273" s="22" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B273" s="8" t="s">
         <v>1403</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>1404</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>22</v>
@@ -21416,17 +21435,17 @@
         <v>24</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H273" s="8"/>
       <c r="I273" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J273" s="8" t="s">
         <v>1406</v>
       </c>
-      <c r="J273" s="8" t="s">
+      <c r="K273" s="9" t="s">
         <v>1407</v>
-      </c>
-      <c r="K273" s="9" t="s">
-        <v>1408</v>
       </c>
       <c r="L273" s="8">
         <v>1816</v>
@@ -21441,7 +21460,7 @@
         <v>53</v>
       </c>
       <c r="R273" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="S273" s="8"/>
       <c r="T273" s="6"/>
@@ -21456,10 +21475,10 @@
     </row>
     <row r="274" spans="1:28" ht="15.75" customHeight="1">
       <c r="A274" s="22" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>1410</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>1411</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>22</v>
@@ -21474,20 +21493,20 @@
         <v>24</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H274" s="8"/>
       <c r="I274" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J274" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="J274" s="8" t="s">
+      <c r="K274" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="K274" s="9" t="s">
+      <c r="L274" s="9" t="s">
         <v>1415</v>
-      </c>
-      <c r="L274" s="9" t="s">
-        <v>1416</v>
       </c>
       <c r="M274" s="8"/>
       <c r="N274" s="8"/>
@@ -21510,10 +21529,10 @@
     </row>
     <row r="275" spans="1:28" ht="15.75" customHeight="1">
       <c r="A275" s="22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>22</v>
@@ -21528,20 +21547,20 @@
         <v>24</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H275" s="8"/>
       <c r="I275" s="24" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J275" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="J275" s="8" t="s">
+      <c r="K275" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="K275" s="9" t="s">
+      <c r="L275" s="25" t="s">
         <v>1420</v>
-      </c>
-      <c r="L275" s="25" t="s">
-        <v>1421</v>
       </c>
       <c r="M275" s="8"/>
       <c r="N275" s="8"/>
@@ -21568,10 +21587,10 @@
     </row>
     <row r="276" spans="1:28" ht="15.75" customHeight="1">
       <c r="A276" s="22" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>1422</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>1423</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>22</v>
@@ -21586,23 +21605,23 @@
         <v>24</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H276" s="8"/>
       <c r="I276" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J276" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K276" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="K276" s="9" t="s">
+      <c r="L276" s="25" t="s">
         <v>1425</v>
       </c>
-      <c r="L276" s="25" t="s">
+      <c r="M276" s="8" t="s">
         <v>1426</v>
-      </c>
-      <c r="M276" s="8" t="s">
-        <v>1427</v>
       </c>
       <c r="N276" s="8"/>
       <c r="O276" s="8"/>
@@ -21624,10 +21643,10 @@
     </row>
     <row r="277" spans="1:28" ht="15.75" customHeight="1">
       <c r="A277" s="22" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>22</v>
@@ -21642,23 +21661,23 @@
         <v>24</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H277" s="8"/>
       <c r="I277" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J277" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K277" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="K277" s="9" t="s">
+      <c r="L277" s="25" t="s">
         <v>1430</v>
       </c>
-      <c r="L277" s="25" t="s">
-        <v>1431</v>
-      </c>
       <c r="M277" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N277" s="8"/>
       <c r="O277" s="8"/>
@@ -21680,10 +21699,10 @@
     </row>
     <row r="278" spans="1:28" ht="15.75" customHeight="1">
       <c r="A278" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>22</v>
@@ -21698,20 +21717,20 @@
         <v>24</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H278" s="8"/>
       <c r="I278" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J278" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K278" s="26" t="s">
         <v>1433</v>
       </c>
-      <c r="K278" s="26" t="s">
+      <c r="L278" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="L278" s="9" t="s">
-        <v>1435</v>
       </c>
       <c r="M278" s="8"/>
       <c r="N278" s="8"/>
@@ -21734,10 +21753,10 @@
     </row>
     <row r="279" spans="1:28" ht="15.75" customHeight="1">
       <c r="A279" s="22" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>1436</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>1437</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>22</v>
@@ -21752,20 +21771,20 @@
         <v>24</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H279" s="8"/>
       <c r="I279" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J279" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K279" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="K279" s="9" t="s">
+      <c r="L279" s="25" t="s">
         <v>1439</v>
-      </c>
-      <c r="L279" s="25" t="s">
-        <v>1440</v>
       </c>
       <c r="M279" s="8"/>
       <c r="N279" s="8"/>
@@ -21788,10 +21807,10 @@
     </row>
     <row r="280" spans="1:28" ht="15.75" customHeight="1">
       <c r="A280" s="22" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>22</v>
@@ -21806,20 +21825,20 @@
         <v>24</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H280" s="8"/>
       <c r="I280" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J280" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K280" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="K280" s="9" t="s">
+      <c r="L280" s="8" t="s">
         <v>1444</v>
-      </c>
-      <c r="L280" s="8" t="s">
-        <v>1445</v>
       </c>
       <c r="M280" s="11"/>
       <c r="N280" s="8"/>
@@ -21842,10 +21861,10 @@
     </row>
     <row r="281" spans="1:28" ht="15.75" customHeight="1">
       <c r="A281" s="22" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>22</v>
@@ -21860,20 +21879,20 @@
         <v>24</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H281" s="8"/>
       <c r="I281" s="24" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J281" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K281" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="K281" s="9" t="s">
+      <c r="L281" s="25" t="s">
         <v>1448</v>
-      </c>
-      <c r="L281" s="25" t="s">
-        <v>1449</v>
       </c>
       <c r="M281" s="8"/>
       <c r="N281" s="8"/>
@@ -21896,10 +21915,10 @@
     </row>
     <row r="282" spans="1:28" ht="15.75" customHeight="1">
       <c r="A282" s="22" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>22</v>
@@ -21914,20 +21933,20 @@
         <v>24</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H282" s="8"/>
       <c r="I282" s="8" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="J282" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K282" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="K282" s="9" t="s">
+      <c r="L282" s="25" t="s">
         <v>1452</v>
-      </c>
-      <c r="L282" s="25" t="s">
-        <v>1453</v>
       </c>
       <c r="M282" s="8"/>
       <c r="N282" s="8"/>
@@ -21950,10 +21969,10 @@
     </row>
     <row r="283" spans="1:28" ht="15.75" customHeight="1">
       <c r="A283" s="22" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>22</v>
@@ -21968,23 +21987,23 @@
         <v>24</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H283" s="8"/>
       <c r="I283" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J283" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="J283" s="8" t="s">
+      <c r="K283" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="K283" s="9" t="s">
+      <c r="L283" s="25" t="s">
         <v>1457</v>
       </c>
-      <c r="L283" s="25" t="s">
-        <v>1458</v>
-      </c>
       <c r="M283" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N283" s="8"/>
       <c r="O283" s="8"/>
@@ -22006,10 +22025,10 @@
     </row>
     <row r="284" spans="1:28" ht="15.75" customHeight="1">
       <c r="A284" s="22" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B284" s="8" t="s">
         <v>1459</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>1460</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>22</v>
@@ -22024,23 +22043,23 @@
         <v>24</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H284" s="8"/>
       <c r="I284" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J284" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="J284" s="8" t="s">
+      <c r="K284" s="9" t="s">
         <v>1463</v>
       </c>
-      <c r="K284" s="9" t="s">
+      <c r="L284" s="8" t="s">
         <v>1464</v>
       </c>
-      <c r="L284" s="8" t="s">
-        <v>1465</v>
-      </c>
       <c r="M284" s="8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="N284" s="8"/>
       <c r="O284" s="8"/>
@@ -22062,10 +22081,10 @@
     </row>
     <row r="285" spans="1:28" ht="15.75" customHeight="1">
       <c r="A285" s="22" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>22</v>
@@ -22080,20 +22099,20 @@
         <v>24</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H285" s="8"/>
       <c r="I285" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J285" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="J285" s="8" t="s">
+      <c r="K285" s="9" t="s">
         <v>1468</v>
       </c>
-      <c r="K285" s="9" t="s">
+      <c r="L285" s="25" t="s">
         <v>1469</v>
-      </c>
-      <c r="L285" s="25" t="s">
-        <v>1470</v>
       </c>
       <c r="M285" s="8"/>
       <c r="N285" s="8"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2514CB96-2F60-F64D-A3D7-420A2513C93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94B8D6-922F-EE49-BA9D-0AC7C9CC55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="1476">
   <si>
     <t xml:space="preserve">Creators: Joanne Ruth Davis, Dino Franco Felluga, Adrian S. Wisnicki </t>
   </si>
@@ -4934,7 +4934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -6463,7 +6463,9 @@
       <c r="O25" s="8">
         <v>206</v>
       </c>
-      <c r="P25" s="8"/>
+      <c r="P25" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q25" s="8" t="s">
         <v>131</v>
       </c>
@@ -6527,7 +6529,9 @@
       <c r="O26" s="8">
         <v>206</v>
       </c>
-      <c r="P26" s="8"/>
+      <c r="P26" s="33" t="s">
+        <v>1475</v>
+      </c>
       <c r="Q26" s="8" t="s">
         <v>131</v>
       </c>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B661D50-78B8-194A-BDB6-E3B1130433CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869929BA-D253-D941-8E0A-7DA1C00C2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3415,9 +3415,6 @@
     <t>J.M. Dwane</t>
   </si>
   <si>
-    <t>Graham's Town District. Letter from the Rev. J.M. Dwane, Dated Port Elizabeth, February 5th, 1877</t>
-  </si>
-  <si>
     <t>1877-05</t>
   </si>
   <si>
@@ -4424,6 +4421,9 @@
   </si>
   <si>
     <t>James Dwane</t>
+  </si>
+  <si>
+    <t>South Africa. Graham Town's District</t>
   </si>
 </sst>
 </file>
@@ -4923,9 +4923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4954,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>42</v>
@@ -5540,7 +5540,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>42</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>111</v>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="13" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>111</v>
@@ -6325,7 +6325,7 @@
         <v>133</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>125</v>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="13" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>111</v>
@@ -6521,7 +6521,7 @@
         <v>206</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>131</v>
@@ -6570,17 +6570,17 @@
         <v>111</v>
       </c>
       <c r="K27" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>1444</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>1445</v>
       </c>
       <c r="M27" s="8">
         <v>15</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="8"/>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="33" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>187</v>
@@ -6810,7 +6810,7 @@
         <v>194</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>187</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>187</v>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>187</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>187</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="33" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>187</v>
@@ -9606,13 +9606,13 @@
         <v>24</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>453</v>
       </c>
       <c r="I79" s="33" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>454</v>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="33" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>640</v>
@@ -15805,7 +15805,7 @@
         <v>53</v>
       </c>
       <c r="R182" s="33" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="S182" s="8"/>
       <c r="T182" s="6"/>
@@ -15838,10 +15838,10 @@
         <v>24</v>
       </c>
       <c r="G183" s="33" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H183" s="33" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>891</v>
@@ -15871,7 +15871,7 @@
         <v>53</v>
       </c>
       <c r="R183" s="33" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="S183" s="8"/>
       <c r="T183" s="6"/>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>807</v>
@@ -18489,31 +18489,31 @@
         <v>1130</v>
       </c>
       <c r="H226" s="8"/>
-      <c r="I226" s="8" t="s">
-        <v>1131</v>
+      <c r="I226" s="33" t="s">
+        <v>1467</v>
       </c>
       <c r="J226" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K226" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L226" s="10" t="s">
         <v>1132</v>
-      </c>
-      <c r="L226" s="10" t="s">
-        <v>1133</v>
       </c>
       <c r="M226" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="P226" s="8"/>
       <c r="Q226" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R226" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="S226" s="8"/>
       <c r="T226" s="6"/>
@@ -18528,7 +18528,7 @@
     </row>
     <row r="227" spans="1:28" ht="15.75" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>1018</v>
@@ -18550,16 +18550,16 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K227" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L227" s="10" t="s">
         <v>1138</v>
-      </c>
-      <c r="L227" s="10" t="s">
-        <v>1139</v>
       </c>
       <c r="M227" s="8" t="s">
         <v>1121</v>
@@ -18573,7 +18573,7 @@
         <v>53</v>
       </c>
       <c r="R227" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S227" s="8" t="s">
         <v>978</v>
@@ -18590,7 +18590,7 @@
     </row>
     <row r="228" spans="1:28" ht="15.75" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>1018</v>
@@ -18612,30 +18612,30 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J228" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K228" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L228" s="10" t="s">
         <v>1138</v>
-      </c>
-      <c r="L228" s="10" t="s">
-        <v>1139</v>
       </c>
       <c r="M228" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P228" s="8"/>
       <c r="Q228" s="8" t="s">
         <v>125</v>
       </c>
       <c r="R228" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S228" s="8"/>
       <c r="T228" s="6"/>
@@ -18650,7 +18650,7 @@
     </row>
     <row r="229" spans="1:28" ht="15.75" customHeight="1">
       <c r="A229" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>1018</v>
@@ -18668,34 +18668,34 @@
         <v>24</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J229" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K229" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L229" s="10" t="s">
         <v>1138</v>
-      </c>
-      <c r="L229" s="10" t="s">
-        <v>1139</v>
       </c>
       <c r="M229" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P229" s="8"/>
       <c r="Q229" s="8" t="s">
         <v>418</v>
       </c>
       <c r="R229" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S229" s="8"/>
       <c r="T229" s="6"/>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="230" spans="1:28" ht="15.75" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>1018</v>
@@ -18732,16 +18732,16 @@
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J230" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K230" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L230" s="10" t="s">
         <v>1151</v>
-      </c>
-      <c r="L230" s="10" t="s">
-        <v>1152</v>
       </c>
       <c r="M230" s="8" t="s">
         <v>1121</v>
@@ -18755,7 +18755,7 @@
         <v>53</v>
       </c>
       <c r="R230" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="S230" s="8" t="s">
         <v>978</v>
@@ -18772,7 +18772,7 @@
     </row>
     <row r="231" spans="1:28" ht="15.75" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>1018</v>
@@ -18790,27 +18790,27 @@
         <v>24</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H231" s="8"/>
       <c r="I231" s="8" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J231" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K231" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L231" s="10" t="s">
         <v>1151</v>
-      </c>
-      <c r="L231" s="10" t="s">
-        <v>1152</v>
       </c>
       <c r="M231" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="N231" s="8"/>
       <c r="O231" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="P231" s="8"/>
       <c r="Q231" s="8" t="s">
@@ -18830,7 +18830,7 @@
     </row>
     <row r="232" spans="1:28" ht="15.75" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>1018</v>
@@ -18852,16 +18852,16 @@
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J232" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K232" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L232" s="10" t="s">
         <v>1159</v>
-      </c>
-      <c r="L232" s="10" t="s">
-        <v>1160</v>
       </c>
       <c r="M232" s="8" t="s">
         <v>1121</v>
@@ -18872,10 +18872,10 @@
       </c>
       <c r="P232" s="8"/>
       <c r="Q232" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R232" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="S232" s="8" t="s">
         <v>978</v>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="233" spans="1:28" ht="15.75" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>1018</v>
@@ -18910,31 +18910,31 @@
         <v>24</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J233" s="8" t="s">
         <v>807</v>
       </c>
       <c r="K233" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L233" s="10" t="s">
         <v>1159</v>
-      </c>
-      <c r="L233" s="10" t="s">
-        <v>1160</v>
       </c>
       <c r="M233" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="P233" s="8"/>
       <c r="Q233" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R233" s="8"/>
       <c r="S233" s="8"/>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="234" spans="1:28" ht="15.75" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>1018</v>
@@ -18972,7 +18972,7 @@
       </c>
       <c r="H234" s="8"/>
       <c r="I234" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J234" s="8" t="s">
         <v>807</v>
@@ -18988,14 +18988,14 @@
       </c>
       <c r="N234" s="8"/>
       <c r="O234" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="P234" s="8"/>
       <c r="Q234" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R234" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="S234" s="8" t="s">
         <v>978</v>
@@ -19012,10 +19012,10 @@
     </row>
     <row r="235" spans="1:28" ht="15.75" customHeight="1">
       <c r="A235" s="21" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>1171</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>1172</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>22</v>
@@ -19030,20 +19030,20 @@
         <v>24</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J235" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="J235" s="6" t="s">
+      <c r="K235" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="K235" s="9" t="s">
+      <c r="L235" s="9" t="s">
         <v>1176</v>
-      </c>
-      <c r="L235" s="9" t="s">
-        <v>1177</v>
       </c>
       <c r="M235" s="22">
         <v>3</v>
@@ -19056,7 +19056,7 @@
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R235" s="6" t="s">
         <v>75</v>
@@ -19074,10 +19074,10 @@
     </row>
     <row r="236" spans="1:28" ht="15.75" customHeight="1">
       <c r="A236" s="21" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>22</v>
@@ -19092,20 +19092,20 @@
         <v>22</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J236" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K236" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="J236" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K236" s="9" t="s">
+      <c r="L236" s="9" t="s">
         <v>1182</v>
-      </c>
-      <c r="L236" s="9" t="s">
-        <v>1183</v>
       </c>
       <c r="M236" s="22">
         <v>3</v>
@@ -19118,13 +19118,13 @@
       </c>
       <c r="P236" s="6"/>
       <c r="Q236" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R236" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="R236" s="6" t="s">
+      <c r="S236" s="8" t="s">
         <v>1185</v>
-      </c>
-      <c r="S236" s="8" t="s">
-        <v>1186</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -19138,10 +19138,10 @@
     </row>
     <row r="237" spans="1:28" ht="15.75" customHeight="1">
       <c r="A237" s="21" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>22</v>
@@ -19156,20 +19156,20 @@
         <v>22</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K237" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L237" s="9" t="s">
         <v>1182</v>
-      </c>
-      <c r="L237" s="9" t="s">
-        <v>1183</v>
       </c>
       <c r="M237" s="22">
         <v>3</v>
@@ -19182,13 +19182,13 @@
       </c>
       <c r="P237" s="6"/>
       <c r="Q237" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="R237" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="R237" s="6" t="s">
+      <c r="S237" s="8" t="s">
         <v>1191</v>
-      </c>
-      <c r="S237" s="8" t="s">
-        <v>1192</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -19202,10 +19202,10 @@
     </row>
     <row r="238" spans="1:28" ht="15.75" customHeight="1">
       <c r="A238" s="21" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>22</v>
@@ -19220,20 +19220,20 @@
         <v>22</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K238" s="9" t="s">
         <v>1195</v>
       </c>
-      <c r="J238" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K238" s="9" t="s">
+      <c r="L238" s="9" t="s">
         <v>1196</v>
-      </c>
-      <c r="L238" s="9" t="s">
-        <v>1197</v>
       </c>
       <c r="M238" s="22">
         <v>3</v>
@@ -19242,17 +19242,17 @@
         <v>33</v>
       </c>
       <c r="O238" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="6" t="s">
         <v>859</v>
       </c>
       <c r="R238" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S238" s="8" t="s">
         <v>1199</v>
-      </c>
-      <c r="S238" s="8" t="s">
-        <v>1200</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -19266,10 +19266,10 @@
     </row>
     <row r="239" spans="1:28" ht="15.75" customHeight="1">
       <c r="A239" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>22</v>
@@ -19284,20 +19284,20 @@
         <v>22</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K239" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="J239" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K239" s="9" t="s">
+      <c r="L239" s="9" t="s">
         <v>1204</v>
-      </c>
-      <c r="L239" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="M239" s="22">
         <v>3</v>
@@ -19306,14 +19306,14 @@
         <v>34</v>
       </c>
       <c r="O239" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P239" s="6"/>
       <c r="Q239" s="6" t="s">
         <v>328</v>
       </c>
       <c r="R239" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="S239" s="8" t="s">
         <v>899</v>
@@ -19330,10 +19330,10 @@
     </row>
     <row r="240" spans="1:28" ht="15.75" customHeight="1">
       <c r="A240" s="21" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>22</v>
@@ -19352,16 +19352,16 @@
       </c>
       <c r="H240" s="6"/>
       <c r="I240" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K240" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="J240" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K240" s="9" t="s">
+      <c r="L240" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L240" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M240" s="22">
         <v>3</v>
@@ -19374,10 +19374,10 @@
       </c>
       <c r="P240" s="6"/>
       <c r="Q240" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="R240" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="R240" s="6" t="s">
-        <v>1213</v>
       </c>
       <c r="S240" s="8" t="s">
         <v>978</v>
@@ -19394,10 +19394,10 @@
     </row>
     <row r="241" spans="1:28" ht="15.75" customHeight="1">
       <c r="A241" s="21" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>22</v>
@@ -19416,16 +19416,16 @@
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K241" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L241" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L241" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M241" s="22">
         <v>3</v>
@@ -19438,10 +19438,10 @@
       </c>
       <c r="P241" s="6"/>
       <c r="Q241" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="R241" s="6" t="s">
         <v>1216</v>
-      </c>
-      <c r="R241" s="6" t="s">
-        <v>1217</v>
       </c>
       <c r="S241" s="8" t="s">
         <v>978</v>
@@ -19458,10 +19458,10 @@
     </row>
     <row r="242" spans="1:28" ht="15.75" customHeight="1">
       <c r="A242" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>22</v>
@@ -19476,20 +19476,20 @@
         <v>24</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K242" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="J242" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K242" s="9" t="s">
+      <c r="L242" s="9" t="s">
         <v>1221</v>
-      </c>
-      <c r="L242" s="9" t="s">
-        <v>1222</v>
       </c>
       <c r="M242" s="22">
         <v>3</v>
@@ -19498,11 +19498,11 @@
         <v>36</v>
       </c>
       <c r="O242" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P242" s="6"/>
       <c r="Q242" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R242" s="6"/>
       <c r="S242" s="8"/>
@@ -19518,10 +19518,10 @@
     </row>
     <row r="243" spans="1:28" ht="15.75" customHeight="1">
       <c r="A243" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>1225</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>1226</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>22</v>
@@ -19536,20 +19536,20 @@
         <v>24</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K243" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L243" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L243" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M243" s="22">
         <v>3</v>
@@ -19558,11 +19558,11 @@
         <v>35</v>
       </c>
       <c r="O243" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P243" s="6"/>
       <c r="Q243" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R243" s="6"/>
       <c r="S243" s="8"/>
@@ -19578,10 +19578,10 @@
     </row>
     <row r="244" spans="1:28" ht="15.75" customHeight="1">
       <c r="A244" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>22</v>
@@ -19596,22 +19596,22 @@
         <v>24</v>
       </c>
       <c r="G244" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H244" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="H244" s="6" t="s">
+      <c r="I244" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="I244" s="6" t="s">
-        <v>1232</v>
-      </c>
       <c r="J244" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K244" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L244" s="9" t="s">
         <v>1221</v>
-      </c>
-      <c r="L244" s="9" t="s">
-        <v>1222</v>
       </c>
       <c r="M244" s="22">
         <v>3</v>
@@ -19620,14 +19620,14 @@
         <v>36</v>
       </c>
       <c r="O244" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P244" s="6"/>
       <c r="Q244" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R244" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="S244" s="8"/>
       <c r="T244" s="6"/>
@@ -19642,10 +19642,10 @@
     </row>
     <row r="245" spans="1:28" ht="15.75" customHeight="1">
       <c r="A245" s="21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>1235</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>1236</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>22</v>
@@ -19660,20 +19660,20 @@
         <v>22</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J245" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="J245" s="6" t="s">
+      <c r="K245" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="K245" s="9" t="s">
+      <c r="L245" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="L245" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="M245" s="22">
         <v>1</v>
@@ -19686,13 +19686,13 @@
       </c>
       <c r="P245" s="6"/>
       <c r="Q245" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R245" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="R245" s="6" t="s">
+      <c r="S245" s="8" t="s">
         <v>1243</v>
-      </c>
-      <c r="S245" s="8" t="s">
-        <v>1244</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
@@ -19706,10 +19706,10 @@
     </row>
     <row r="246" spans="1:28" ht="15.75" customHeight="1">
       <c r="A246" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>22</v>
@@ -19724,20 +19724,20 @@
         <v>24</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J246" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="J246" s="6" t="s">
+      <c r="K246" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="K246" s="9" t="s">
+      <c r="L246" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="L246" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="M246" s="22">
         <v>1</v>
@@ -19746,16 +19746,16 @@
         <v>30</v>
       </c>
       <c r="O246" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P246" s="6" t="s">
         <v>1247</v>
-      </c>
-      <c r="P246" s="6" t="s">
-        <v>1248</v>
       </c>
       <c r="Q246" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="S246" s="8"/>
       <c r="T246" s="6"/>
@@ -19770,10 +19770,10 @@
     </row>
     <row r="247" spans="1:28" ht="15.75" customHeight="1">
       <c r="A247" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>22</v>
@@ -19788,20 +19788,20 @@
         <v>22</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J247" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K247" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="K247" s="9" t="s">
+      <c r="L247" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="L247" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="M247" s="22">
         <v>1</v>
@@ -19819,10 +19819,10 @@
         <v>223</v>
       </c>
       <c r="R247" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S247" s="8" t="s">
         <v>1253</v>
-      </c>
-      <c r="S247" s="8" t="s">
-        <v>1254</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -19836,10 +19836,10 @@
     </row>
     <row r="248" spans="1:28" ht="15.75" customHeight="1">
       <c r="A248" s="21" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>22</v>
@@ -19854,20 +19854,20 @@
         <v>22</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K248" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L248" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L248" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M248" s="22">
         <v>1</v>
@@ -19876,14 +19876,14 @@
         <v>32</v>
       </c>
       <c r="O248" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="P248" s="6" t="s">
         <v>1258</v>
-      </c>
-      <c r="P248" s="6" t="s">
-        <v>1259</v>
       </c>
       <c r="Q248" s="6"/>
       <c r="R248" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="S248" s="8"/>
       <c r="T248" s="6"/>
@@ -19898,10 +19898,10 @@
     </row>
     <row r="249" spans="1:28" ht="15.75" customHeight="1">
       <c r="A249" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>22</v>
@@ -19916,20 +19916,20 @@
         <v>22</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K249" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L249" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L249" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M249" s="22">
         <v>1</v>
@@ -19938,16 +19938,16 @@
         <v>32</v>
       </c>
       <c r="O249" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P249" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q249" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R249" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="S249" s="8"/>
       <c r="T249" s="6"/>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="250" spans="1:28" ht="15.75" customHeight="1">
       <c r="A250" s="21" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>22</v>
@@ -19980,20 +19980,20 @@
         <v>22</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K250" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L250" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L250" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M250" s="22">
         <v>1</v>
@@ -20002,19 +20002,19 @@
         <v>32</v>
       </c>
       <c r="O250" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q250" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R250" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="S250" s="8" t="s">
         <v>1270</v>
-      </c>
-      <c r="S250" s="8" t="s">
-        <v>1271</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -20028,10 +20028,10 @@
     </row>
     <row r="251" spans="1:28" ht="15.75" customHeight="1">
       <c r="A251" s="21" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>22</v>
@@ -20046,20 +20046,20 @@
         <v>22</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K251" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L251" s="9" t="s">
         <v>1210</v>
-      </c>
-      <c r="L251" s="9" t="s">
-        <v>1211</v>
       </c>
       <c r="M251" s="22">
         <v>1</v>
@@ -20068,19 +20068,19 @@
         <v>32</v>
       </c>
       <c r="O251" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q251" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R251" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="S251" s="8" t="s">
         <v>1276</v>
-      </c>
-      <c r="S251" s="8" t="s">
-        <v>1277</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -20094,10 +20094,10 @@
     </row>
     <row r="252" spans="1:28" ht="15.75" customHeight="1">
       <c r="A252" s="21" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>22</v>
@@ -20112,20 +20112,20 @@
         <v>22</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J252" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K252" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="J252" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K252" s="9" t="s">
+      <c r="L252" s="9" t="s">
         <v>1280</v>
-      </c>
-      <c r="L252" s="9" t="s">
-        <v>1281</v>
       </c>
       <c r="M252" s="22">
         <v>1</v>
@@ -20134,19 +20134,19 @@
         <v>33</v>
       </c>
       <c r="O252" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P252" s="6" t="s">
         <v>1282</v>
-      </c>
-      <c r="P252" s="6" t="s">
-        <v>1283</v>
       </c>
       <c r="Q252" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R252" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="S252" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
@@ -20160,10 +20160,10 @@
     </row>
     <row r="253" spans="1:28" ht="15.75" customHeight="1">
       <c r="A253" s="21" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>22</v>
@@ -20178,20 +20178,20 @@
         <v>22</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K253" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L253" s="9" t="s">
         <v>1280</v>
-      </c>
-      <c r="L253" s="9" t="s">
-        <v>1281</v>
       </c>
       <c r="M253" s="22">
         <v>1</v>
@@ -20200,17 +20200,17 @@
         <v>33</v>
       </c>
       <c r="O253" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="P253" s="6"/>
       <c r="Q253" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R253" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="S253" s="8" t="s">
         <v>1289</v>
-      </c>
-      <c r="S253" s="8" t="s">
-        <v>1290</v>
       </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
@@ -20224,10 +20224,10 @@
     </row>
     <row r="254" spans="1:28" ht="15.75" customHeight="1">
       <c r="A254" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>22</v>
@@ -20242,20 +20242,20 @@
         <v>22</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K254" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L254" s="9" t="s">
         <v>1280</v>
-      </c>
-      <c r="L254" s="9" t="s">
-        <v>1281</v>
       </c>
       <c r="M254" s="22">
         <v>1</v>
@@ -20271,10 +20271,10 @@
         <v>846</v>
       </c>
       <c r="R254" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="S254" s="8" t="s">
         <v>1293</v>
-      </c>
-      <c r="S254" s="8" t="s">
-        <v>1294</v>
       </c>
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
@@ -20288,10 +20288,10 @@
     </row>
     <row r="255" spans="1:28" ht="15.75" customHeight="1">
       <c r="A255" s="21" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>22</v>
@@ -20310,16 +20310,16 @@
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J255" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="J255" s="6" t="s">
-        <v>1239</v>
-      </c>
       <c r="K255" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L255" s="9" t="s">
         <v>1296</v>
-      </c>
-      <c r="L255" s="9" t="s">
-        <v>1297</v>
       </c>
       <c r="M255" s="22">
         <v>1</v>
@@ -20337,10 +20337,10 @@
         <v>838</v>
       </c>
       <c r="R255" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S255" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="S255" s="8" t="s">
-        <v>1299</v>
       </c>
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
@@ -20354,10 +20354,10 @@
     </row>
     <row r="256" spans="1:28" ht="15.75" customHeight="1">
       <c r="A256" s="21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>22</v>
@@ -20372,20 +20372,20 @@
         <v>24</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K256" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L256" s="9" t="s">
         <v>1296</v>
-      </c>
-      <c r="L256" s="9" t="s">
-        <v>1297</v>
       </c>
       <c r="M256" s="22">
         <v>1</v>
@@ -20394,13 +20394,13 @@
         <v>34</v>
       </c>
       <c r="O256" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="P256" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q256" s="6" t="s">
         <v>1303</v>
-      </c>
-      <c r="P256" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="Q256" s="6" t="s">
-        <v>1304</v>
       </c>
       <c r="R256" s="6"/>
       <c r="S256" s="8"/>
@@ -20416,10 +20416,10 @@
     </row>
     <row r="257" spans="1:28" ht="15.75" customHeight="1">
       <c r="A257" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>22</v>
@@ -20438,16 +20438,16 @@
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J257" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K257" s="9" t="s">
         <v>1306</v>
       </c>
-      <c r="J257" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K257" s="9" t="s">
+      <c r="L257" s="9" t="s">
         <v>1307</v>
-      </c>
-      <c r="L257" s="9" t="s">
-        <v>1308</v>
       </c>
       <c r="M257" s="22">
         <v>1</v>
@@ -20463,10 +20463,10 @@
       </c>
       <c r="Q257" s="6"/>
       <c r="R257" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S257" s="8" t="s">
         <v>1309</v>
-      </c>
-      <c r="S257" s="8" t="s">
-        <v>1310</v>
       </c>
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
@@ -20480,10 +20480,10 @@
     </row>
     <row r="258" spans="1:28" ht="15.75" customHeight="1">
       <c r="A258" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>22</v>
@@ -20502,16 +20502,16 @@
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J258" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="J258" s="6" t="s">
-        <v>1239</v>
-      </c>
       <c r="K258" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L258" s="9" t="s">
         <v>1307</v>
-      </c>
-      <c r="L258" s="9" t="s">
-        <v>1308</v>
       </c>
       <c r="M258" s="22">
         <v>1</v>
@@ -20529,10 +20529,10 @@
         <v>125</v>
       </c>
       <c r="R258" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="S258" s="8" t="s">
         <v>1312</v>
-      </c>
-      <c r="S258" s="8" t="s">
-        <v>1313</v>
       </c>
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
@@ -20546,10 +20546,10 @@
     </row>
     <row r="259" spans="1:28" ht="15.75" customHeight="1">
       <c r="A259" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>22</v>
@@ -20564,20 +20564,20 @@
         <v>24</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K259" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L259" s="9" t="s">
         <v>1307</v>
-      </c>
-      <c r="L259" s="9" t="s">
-        <v>1308</v>
       </c>
       <c r="M259" s="22">
         <v>1</v>
@@ -20586,7 +20586,7 @@
         <v>36</v>
       </c>
       <c r="O259" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
@@ -20604,10 +20604,10 @@
     </row>
     <row r="260" spans="1:28" ht="15.75" customHeight="1">
       <c r="A260" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>22</v>
@@ -20626,16 +20626,16 @@
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J260" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K260" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="J260" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K260" s="9" t="s">
+      <c r="L260" s="9" t="s">
         <v>1320</v>
-      </c>
-      <c r="L260" s="9" t="s">
-        <v>1321</v>
       </c>
       <c r="M260" s="22">
         <v>2</v>
@@ -20653,10 +20653,10 @@
         <v>125</v>
       </c>
       <c r="R260" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="S260" s="8" t="s">
         <v>1322</v>
-      </c>
-      <c r="S260" s="8" t="s">
-        <v>1323</v>
       </c>
       <c r="T260" s="6"/>
       <c r="U260" s="6"/>
@@ -20670,10 +20670,10 @@
     </row>
     <row r="261" spans="1:28" ht="15.75" customHeight="1">
       <c r="A261" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>22</v>
@@ -20688,20 +20688,20 @@
         <v>22</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J261" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="J261" s="6" t="s">
-        <v>1239</v>
-      </c>
       <c r="K261" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L261" s="9" t="s">
         <v>1326</v>
-      </c>
-      <c r="L261" s="9" t="s">
-        <v>1327</v>
       </c>
       <c r="M261" s="22">
         <v>2</v>
@@ -20719,7 +20719,7 @@
         <v>125</v>
       </c>
       <c r="R261" s="6" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="S261" s="8"/>
       <c r="T261" s="6"/>
@@ -20734,7 +20734,7 @@
     </row>
     <row r="262" spans="1:28" ht="15.75" customHeight="1">
       <c r="A262" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>804</v>
@@ -20756,19 +20756,19 @@
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J262" s="6" t="s">
         <v>807</v>
       </c>
       <c r="K262" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L262" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="L262" s="9" t="s">
+      <c r="M262" s="6" t="s">
         <v>1332</v>
-      </c>
-      <c r="M262" s="6" t="s">
-        <v>1333</v>
       </c>
       <c r="N262" s="22">
         <v>37</v>
@@ -20781,10 +20781,10 @@
         <v>53</v>
       </c>
       <c r="R262" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S262" s="8" t="s">
         <v>1334</v>
-      </c>
-      <c r="S262" s="8" t="s">
-        <v>1335</v>
       </c>
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
@@ -20798,7 +20798,7 @@
     </row>
     <row r="263" spans="1:28" ht="15.75" customHeight="1">
       <c r="A263" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>1018</v>
@@ -20820,19 +20820,19 @@
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J263" s="6" t="s">
         <v>807</v>
       </c>
       <c r="K263" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L263" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="L263" s="9" t="s">
-        <v>1339</v>
-      </c>
       <c r="M263" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N263" s="22">
         <v>42</v>
@@ -20845,10 +20845,10 @@
         <v>812</v>
       </c>
       <c r="R263" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="S263" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="T263" s="6"/>
       <c r="U263" s="6"/>
@@ -20862,7 +20862,7 @@
     </row>
     <row r="264" spans="1:28" ht="15.75" customHeight="1">
       <c r="A264" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>1018</v>
@@ -20880,36 +20880,36 @@
         <v>24</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J264" s="6" t="s">
         <v>807</v>
       </c>
       <c r="K264" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L264" s="9" t="s">
         <v>1344</v>
       </c>
-      <c r="L264" s="9" t="s">
-        <v>1345</v>
-      </c>
       <c r="M264" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N264" s="22">
         <v>48</v>
       </c>
       <c r="O264" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="P264" s="6"/>
       <c r="Q264" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R264" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="S264" s="8"/>
       <c r="T264" s="6"/>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="265" spans="1:28" ht="15.75" customHeight="1">
       <c r="A265" s="21" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>1018</v>
@@ -20942,23 +20942,23 @@
         <v>24</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H265" s="6"/>
       <c r="I265" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="J265" s="6" t="s">
         <v>807</v>
       </c>
       <c r="K265" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L265" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="L265" s="9" t="s">
-        <v>1352</v>
-      </c>
       <c r="M265" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="N265" s="22">
         <v>49</v>
@@ -20971,7 +20971,7 @@
         <v>328</v>
       </c>
       <c r="R265" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="S265" s="8"/>
       <c r="T265" s="6"/>
@@ -20986,10 +20986,10 @@
     </row>
     <row r="266" spans="1:28" ht="15.75" customHeight="1">
       <c r="A266" s="21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>1355</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>22</v>
@@ -21004,17 +21004,17 @@
         <v>22</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H266" s="6"/>
       <c r="I266" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J266" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="J266" s="6" t="s">
+      <c r="K266" s="9" t="s">
         <v>1358</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>1359</v>
       </c>
       <c r="L266" s="8">
         <v>1902</v>
@@ -21024,17 +21024,17 @@
       </c>
       <c r="N266" s="6"/>
       <c r="O266" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="P266" s="6"/>
       <c r="Q266" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R266" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S266" s="8" t="s">
         <v>1361</v>
-      </c>
-      <c r="S266" s="8" t="s">
-        <v>1362</v>
       </c>
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
@@ -21048,10 +21048,10 @@
     </row>
     <row r="267" spans="1:28" ht="15.75" customHeight="1">
       <c r="A267" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>22</v>
@@ -21066,17 +21066,17 @@
         <v>22</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H267" s="6"/>
       <c r="I267" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J267" s="6" t="s">
         <v>1365</v>
       </c>
-      <c r="J267" s="6" t="s">
-        <v>1366</v>
-      </c>
       <c r="K267" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="L267" s="8">
         <v>1902</v>
@@ -21086,17 +21086,17 @@
       </c>
       <c r="N267" s="6"/>
       <c r="O267" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="P267" s="6"/>
       <c r="Q267" s="6" t="s">
         <v>223</v>
       </c>
       <c r="R267" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="S267" s="8" t="s">
         <v>1368</v>
-      </c>
-      <c r="S267" s="8" t="s">
-        <v>1369</v>
       </c>
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
@@ -21110,10 +21110,10 @@
     </row>
     <row r="268" spans="1:28" ht="15.75" customHeight="1">
       <c r="A268" s="21" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>22</v>
@@ -21132,13 +21132,13 @@
       </c>
       <c r="H268" s="6"/>
       <c r="I268" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J268" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K268" s="9" t="s">
         <v>1358</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>1359</v>
       </c>
       <c r="L268" s="8">
         <v>1902</v>
@@ -21148,17 +21148,17 @@
       </c>
       <c r="N268" s="6"/>
       <c r="O268" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="P268" s="6"/>
       <c r="Q268" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R268" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="S268" s="8" t="s">
         <v>1373</v>
-      </c>
-      <c r="S268" s="8" t="s">
-        <v>1374</v>
       </c>
       <c r="T268" s="6"/>
       <c r="U268" s="6"/>
@@ -21172,10 +21172,10 @@
     </row>
     <row r="269" spans="1:28" ht="15.75" customHeight="1">
       <c r="A269" s="21" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B269" s="8" t="s">
         <v>1375</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>1376</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>22</v>
@@ -21190,17 +21190,17 @@
         <v>24</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H269" s="8"/>
       <c r="I269" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J269" s="8" t="s">
         <v>1378</v>
       </c>
-      <c r="J269" s="8" t="s">
+      <c r="K269" s="9" t="s">
         <v>1379</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>1380</v>
       </c>
       <c r="L269" s="8">
         <v>1816</v>
@@ -21215,7 +21215,7 @@
         <v>53</v>
       </c>
       <c r="R269" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S269" s="8"/>
       <c r="T269" s="6"/>
@@ -21230,10 +21230,10 @@
     </row>
     <row r="270" spans="1:28" ht="15.75" customHeight="1">
       <c r="A270" s="21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>1382</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>1383</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>22</v>
@@ -21248,20 +21248,20 @@
         <v>24</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H270" s="8"/>
       <c r="I270" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J270" s="8" t="s">
         <v>1385</v>
       </c>
-      <c r="J270" s="8" t="s">
+      <c r="K270" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="K270" s="9" t="s">
+      <c r="L270" s="9" t="s">
         <v>1387</v>
-      </c>
-      <c r="L270" s="9" t="s">
-        <v>1388</v>
       </c>
       <c r="M270" s="8"/>
       <c r="N270" s="8"/>
@@ -21284,10 +21284,10 @@
     </row>
     <row r="271" spans="1:28" ht="15.75" customHeight="1">
       <c r="A271" s="21" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>22</v>
@@ -21302,20 +21302,20 @@
         <v>24</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H271" s="8"/>
       <c r="I271" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J271" s="8" t="s">
         <v>1390</v>
       </c>
-      <c r="J271" s="8" t="s">
+      <c r="K271" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="K271" s="9" t="s">
+      <c r="L271" s="24" t="s">
         <v>1392</v>
-      </c>
-      <c r="L271" s="24" t="s">
-        <v>1393</v>
       </c>
       <c r="M271" s="8"/>
       <c r="N271" s="8"/>
@@ -21342,10 +21342,10 @@
     </row>
     <row r="272" spans="1:28" ht="15.75" customHeight="1">
       <c r="A272" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>1394</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>1395</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>22</v>
@@ -21360,23 +21360,23 @@
         <v>24</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H272" s="8"/>
       <c r="I272" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J272" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K272" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="K272" s="9" t="s">
+      <c r="L272" s="24" t="s">
         <v>1397</v>
       </c>
-      <c r="L272" s="24" t="s">
+      <c r="M272" s="8" t="s">
         <v>1398</v>
-      </c>
-      <c r="M272" s="8" t="s">
-        <v>1399</v>
       </c>
       <c r="N272" s="8"/>
       <c r="O272" s="8"/>
@@ -21398,10 +21398,10 @@
     </row>
     <row r="273" spans="1:28" ht="15.75" customHeight="1">
       <c r="A273" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>22</v>
@@ -21416,23 +21416,23 @@
         <v>24</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H273" s="8"/>
       <c r="I273" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J273" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K273" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="K273" s="9" t="s">
+      <c r="L273" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="L273" s="24" t="s">
-        <v>1403</v>
-      </c>
       <c r="M273" s="8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="N273" s="8"/>
       <c r="O273" s="8"/>
@@ -21454,10 +21454,10 @@
     </row>
     <row r="274" spans="1:28" ht="15.75" customHeight="1">
       <c r="A274" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>22</v>
@@ -21472,20 +21472,20 @@
         <v>24</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H274" s="8"/>
       <c r="I274" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J274" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K274" s="25" t="s">
         <v>1405</v>
       </c>
-      <c r="K274" s="25" t="s">
+      <c r="L274" s="9" t="s">
         <v>1406</v>
-      </c>
-      <c r="L274" s="9" t="s">
-        <v>1407</v>
       </c>
       <c r="M274" s="8"/>
       <c r="N274" s="8"/>
@@ -21508,10 +21508,10 @@
     </row>
     <row r="275" spans="1:28" ht="15.75" customHeight="1">
       <c r="A275" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>1408</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>1409</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>22</v>
@@ -21526,20 +21526,20 @@
         <v>24</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H275" s="8"/>
       <c r="I275" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J275" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K275" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="K275" s="9" t="s">
+      <c r="L275" s="24" t="s">
         <v>1411</v>
-      </c>
-      <c r="L275" s="24" t="s">
-        <v>1412</v>
       </c>
       <c r="M275" s="8"/>
       <c r="N275" s="8"/>
@@ -21562,10 +21562,10 @@
     </row>
     <row r="276" spans="1:28" ht="15.75" customHeight="1">
       <c r="A276" s="21" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>22</v>
@@ -21580,20 +21580,20 @@
         <v>24</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H276" s="8"/>
       <c r="I276" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J276" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K276" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="K276" s="9" t="s">
+      <c r="L276" s="8" t="s">
         <v>1416</v>
-      </c>
-      <c r="L276" s="8" t="s">
-        <v>1417</v>
       </c>
       <c r="M276" s="11"/>
       <c r="N276" s="8"/>
@@ -21616,10 +21616,10 @@
     </row>
     <row r="277" spans="1:28" ht="15.75" customHeight="1">
       <c r="A277" s="21" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>22</v>
@@ -21634,20 +21634,20 @@
         <v>24</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H277" s="8"/>
       <c r="I277" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J277" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K277" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="K277" s="9" t="s">
+      <c r="L277" s="24" t="s">
         <v>1420</v>
-      </c>
-      <c r="L277" s="24" t="s">
-        <v>1421</v>
       </c>
       <c r="M277" s="8"/>
       <c r="N277" s="8"/>
@@ -21670,10 +21670,10 @@
     </row>
     <row r="278" spans="1:28" ht="15.75" customHeight="1">
       <c r="A278" s="21" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>22</v>
@@ -21688,20 +21688,20 @@
         <v>24</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H278" s="8"/>
       <c r="I278" s="8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="J278" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K278" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="K278" s="9" t="s">
+      <c r="L278" s="24" t="s">
         <v>1424</v>
-      </c>
-      <c r="L278" s="24" t="s">
-        <v>1425</v>
       </c>
       <c r="M278" s="8"/>
       <c r="N278" s="8"/>
@@ -21724,10 +21724,10 @@
     </row>
     <row r="279" spans="1:28" ht="15.75" customHeight="1">
       <c r="A279" s="21" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>22</v>
@@ -21742,23 +21742,23 @@
         <v>24</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H279" s="8"/>
       <c r="I279" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J279" s="8" t="s">
         <v>1427</v>
       </c>
-      <c r="J279" s="8" t="s">
+      <c r="K279" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="K279" s="9" t="s">
+      <c r="L279" s="24" t="s">
         <v>1429</v>
       </c>
-      <c r="L279" s="24" t="s">
-        <v>1430</v>
-      </c>
       <c r="M279" s="8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="N279" s="8"/>
       <c r="O279" s="8"/>
@@ -21780,10 +21780,10 @@
     </row>
     <row r="280" spans="1:28" ht="15.75" customHeight="1">
       <c r="A280" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>1431</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>1432</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>22</v>
@@ -21798,23 +21798,23 @@
         <v>24</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H280" s="8"/>
       <c r="I280" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J280" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="J280" s="8" t="s">
+      <c r="K280" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="K280" s="9" t="s">
+      <c r="L280" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="L280" s="8" t="s">
-        <v>1437</v>
-      </c>
       <c r="M280" s="8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="N280" s="8"/>
       <c r="O280" s="8"/>
@@ -21836,10 +21836,10 @@
     </row>
     <row r="281" spans="1:28" ht="15.75" customHeight="1">
       <c r="A281" s="21" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>22</v>
@@ -21854,20 +21854,20 @@
         <v>24</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H281" s="8"/>
       <c r="I281" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J281" s="8" t="s">
         <v>1439</v>
       </c>
-      <c r="J281" s="8" t="s">
+      <c r="K281" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="K281" s="9" t="s">
+      <c r="L281" s="24" t="s">
         <v>1441</v>
-      </c>
-      <c r="L281" s="24" t="s">
-        <v>1442</v>
       </c>
       <c r="M281" s="8"/>
       <c r="N281" s="8"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12693D8-F7B9-B34D-856F-3A9AF244B162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3DBFB-1AF9-284D-8C5F-A3A972FDE297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Archival items" sheetId="1" r:id="rId1"/>
@@ -4180,9 +4180,6 @@
     <t>Letter of a Bastard Hottentot; Letter of Another Bastard Hottentot</t>
   </si>
   <si>
-    <t>The Autobiography of Poonapun [...]; Autobiography of Authautchee [...]</t>
-  </si>
-  <si>
     <t>Anoymous; Poonapun; Authautchee</t>
   </si>
   <si>
@@ -4196,6 +4193,9 @@
   </si>
   <si>
     <t>letters from students</t>
+  </si>
+  <si>
+    <t>The Autobiography of Poonapun; Autobiography of Authautchee</t>
   </si>
 </sst>
 </file>
@@ -4678,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q3" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -4701,7 +4701,7 @@
     <col min="14" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" customWidth="1"/>
     <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="17" max="17" width="21" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="60.83203125" customWidth="1"/>
     <col min="19" max="19" width="53" customWidth="1"/>
     <col min="20" max="28" width="10.5" customWidth="1"/>
@@ -5991,7 +5991,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
@@ -6022,7 +6022,7 @@
         <v>125</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
@@ -6055,13 +6055,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>111</v>
@@ -6079,7 +6079,7 @@
         <v>167</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="P23" s="12">
         <v>44198</v>
@@ -6088,7 +6088,7 @@
         <v>131</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B3DBFB-1AF9-284D-8C5F-A3A972FDE297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EC157-D844-9D42-A801-622B3E24AD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Archival items" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="1388">
   <si>
     <t xml:space="preserve">Creators: Joanne Ruth Davis, Dino Franco Felluga, Adrian S. Wisnicki </t>
   </si>
@@ -1900,21 +1900,12 @@
     <t>93-94</t>
   </si>
   <si>
-    <t>liv_025154</t>
-  </si>
-  <si>
     <t>The Eighty Fourth Report of the London Missionary Society for the Year ending May 1st, 1878</t>
   </si>
   <si>
     <t>1878</t>
   </si>
   <si>
-    <t>reported speech</t>
-  </si>
-  <si>
-    <t>DF: J.D. Hepburn [I do not see mention of this translator]</t>
-  </si>
-  <si>
     <t>liv_025155</t>
   </si>
   <si>
@@ -4157,9 +4148,6 @@
   </si>
   <si>
     <t>Anonymous; [South African Missionary Society]; Jan; Karolus</t>
-  </si>
-  <si>
-    <t>The Eighty Fourth Report of the London Missionary Society (Excerpt)</t>
   </si>
   <si>
     <t>[Letter from Rev. W.J. Davis] extract of a letter</t>
@@ -4676,11 +4664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB974"/>
+  <dimension ref="A1:AB973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4709,7 +4697,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -5175,7 +5163,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>42</v>
@@ -5295,7 +5283,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -5483,7 +5471,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>42</v>
@@ -5991,11 +5979,11 @@
         <v>24</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>111</v>
@@ -6022,7 +6010,7 @@
         <v>125</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
@@ -6055,13 +6043,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>111</v>
@@ -6079,7 +6067,7 @@
         <v>167</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="P23" s="12">
         <v>44198</v>
@@ -6088,7 +6076,7 @@
         <v>131</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>
@@ -6131,17 +6119,17 @@
         <v>111</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="M24" s="8">
         <v>15</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="8" t="s">
@@ -6313,7 +6301,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="23" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>175</v>
@@ -6373,7 +6361,7 @@
         <v>182</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>175</v>
@@ -6603,7 +6591,7 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>175</v>
@@ -6661,7 +6649,7 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>175</v>
@@ -7007,7 +6995,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>175</v>
@@ -7417,7 +7405,7 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="23" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>175</v>
@@ -9169,13 +9157,13 @@
         <v>24</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>440</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>441</v>
@@ -12869,16 +12857,16 @@
     </row>
     <row r="140" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>23</v>
@@ -12887,36 +12875,34 @@
         <v>24</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>314</v>
+        <v>629</v>
       </c>
       <c r="H140" s="8"/>
-      <c r="I140" s="23" t="s">
-        <v>1379</v>
+      <c r="I140" s="8" t="s">
+        <v>630</v>
       </c>
       <c r="J140" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="K140" s="9" t="s">
         <v>627</v>
-      </c>
-      <c r="K140" s="9" t="s">
-        <v>628</v>
       </c>
       <c r="L140" s="8">
         <v>1878</v>
       </c>
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
-      <c r="O140" s="8">
-        <v>35</v>
+      <c r="O140" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="P140" s="8"/>
       <c r="Q140" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="R140" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="S140" s="8" t="s">
-        <v>630</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="S140" s="8"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
@@ -12929,7 +12915,7 @@
     </row>
     <row r="141" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>356</v>
@@ -12947,32 +12933,32 @@
         <v>24</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L141" s="8">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
-      <c r="O141" s="8" t="s">
-        <v>634</v>
+      <c r="O141" s="8">
+        <v>23</v>
       </c>
       <c r="P141" s="8"/>
       <c r="Q141" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R141" s="13" t="s">
-        <v>635</v>
+        <v>372</v>
+      </c>
+      <c r="R141" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="S141" s="8"/>
       <c r="T141" s="6"/>
@@ -12987,10 +12973,10 @@
     </row>
     <row r="142" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>22</v>
@@ -13005,32 +12991,38 @@
         <v>24</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="H142" s="8"/>
+        <v>640</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>641</v>
+      </c>
       <c r="I142" s="8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>639</v>
+        <v>27</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="L142" s="8">
-        <v>1879</v>
-      </c>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8">
-        <v>23</v>
+        <v>643</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="N142" s="8">
+        <v>6</v>
+      </c>
+      <c r="O142" s="8" t="s">
+        <v>646</v>
       </c>
       <c r="P142" s="8"/>
       <c r="Q142" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="R142" s="8" t="s">
-        <v>641</v>
+        <v>211</v>
+      </c>
+      <c r="R142" s="13" t="s">
+        <v>647</v>
       </c>
       <c r="S142" s="8"/>
       <c r="T142" s="6"/>
@@ -13045,7 +13037,7 @@
     </row>
     <row r="143" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>21</v>
@@ -13063,40 +13055,40 @@
         <v>24</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>644</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="H143" s="8"/>
       <c r="I143" s="8" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N143" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="R143" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="S143" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="R143" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="S143" s="8" t="s">
+        <v>655</v>
+      </c>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
@@ -13109,7 +13101,7 @@
     </row>
     <row r="144" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>21</v>
@@ -13127,39 +13119,39 @@
         <v>24</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="M144" s="8" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="N144" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="P144" s="8"/>
       <c r="Q144" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R144" s="8" t="s">
-        <v>657</v>
+        <v>663</v>
+      </c>
+      <c r="R144" s="13" t="s">
+        <v>664</v>
       </c>
       <c r="S144" s="8" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
@@ -13173,7 +13165,7 @@
     </row>
     <row r="145" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>21</v>
@@ -13191,39 +13183,39 @@
         <v>24</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N145" s="8">
         <v>3</v>
       </c>
-      <c r="O145" s="8" t="s">
-        <v>665</v>
+      <c r="O145" s="8">
+        <v>53</v>
       </c>
       <c r="P145" s="8"/>
       <c r="Q145" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="R145" s="13" t="s">
-        <v>667</v>
+        <v>31</v>
+      </c>
+      <c r="R145" s="8" t="s">
+        <v>669</v>
       </c>
       <c r="S145" s="8" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
@@ -13237,7 +13229,7 @@
     </row>
     <row r="146" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>21</v>
@@ -13255,39 +13247,39 @@
         <v>24</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="M146" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N146" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O146" s="8">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P146" s="8"/>
       <c r="Q146" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R146" s="8" t="s">
-        <v>672</v>
+        <v>218</v>
+      </c>
+      <c r="R146" s="13" t="s">
+        <v>675</v>
       </c>
       <c r="S146" s="8" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
@@ -13301,7 +13293,7 @@
     </row>
     <row r="147" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>21</v>
@@ -13319,39 +13311,39 @@
         <v>24</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J147" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="M147" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N147" s="8">
-        <v>4</v>
-      </c>
-      <c r="O147" s="8">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="O147" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="P147" s="8"/>
       <c r="Q147" s="8" t="s">
-        <v>218</v>
+        <v>682</v>
       </c>
       <c r="R147" s="13" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="S147" s="8" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
@@ -13365,7 +13357,7 @@
     </row>
     <row r="148" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>21</v>
@@ -13383,40 +13375,38 @@
         <v>24</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="H148" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>686</v>
+      </c>
       <c r="I148" s="8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M148" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N148" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>475</v>
+        <v>690</v>
       </c>
       <c r="P148" s="8"/>
       <c r="Q148" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="R148" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="S148" s="8" t="s">
-        <v>687</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
@@ -13429,7 +13419,7 @@
     </row>
     <row r="149" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>21</v>
@@ -13447,38 +13437,42 @@
         <v>24</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>181</v>
+        <v>692</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N149" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="P149" s="8"/>
       <c r="Q149" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="R149" s="8"/>
-      <c r="S149" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="R149" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="S149" s="8" t="s">
+        <v>699</v>
+      </c>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
@@ -13491,7 +13485,7 @@
     </row>
     <row r="150" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>21</v>
@@ -13509,41 +13503,39 @@
         <v>24</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="J150" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M150" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N150" s="8">
         <v>12</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="P150" s="8"/>
       <c r="Q150" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R150" s="8" t="s">
-        <v>701</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="R150" s="8"/>
       <c r="S150" s="8" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
@@ -13557,7 +13549,7 @@
     </row>
     <row r="151" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>21</v>
@@ -13575,39 +13567,39 @@
         <v>24</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J151" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="N151" s="8">
-        <v>12</v>
-      </c>
-      <c r="O151" s="8" t="s">
-        <v>707</v>
+        <v>2</v>
+      </c>
+      <c r="O151" s="8">
+        <v>23</v>
       </c>
       <c r="P151" s="8"/>
       <c r="Q151" s="8" t="s">
-        <v>125</v>
+        <v>713</v>
       </c>
       <c r="R151" s="8"/>
       <c r="S151" s="8" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
@@ -13621,7 +13613,7 @@
     </row>
     <row r="152" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>21</v>
@@ -13639,40 +13631,38 @@
         <v>24</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>711</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="H152" s="8"/>
       <c r="I152" s="8" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M152" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N152" s="8">
         <v>2</v>
       </c>
-      <c r="O152" s="8">
-        <v>23</v>
+      <c r="O152" s="8" t="s">
+        <v>718</v>
       </c>
       <c r="P152" s="8"/>
       <c r="Q152" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="R152" s="8"/>
-      <c r="S152" s="8" t="s">
-        <v>717</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="R152" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="S152" s="8"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
@@ -13685,7 +13675,7 @@
     </row>
     <row r="153" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>21</v>
@@ -13703,37 +13693,37 @@
         <v>24</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="H153" s="8"/>
+        <v>721</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>722</v>
+      </c>
       <c r="I153" s="8" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="J153" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N153" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="P153" s="8"/>
       <c r="Q153" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="R153" s="8" t="s">
-        <v>722</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="R153" s="8"/>
       <c r="S153" s="8"/>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
@@ -13747,7 +13737,7 @@
     </row>
     <row r="154" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>21</v>
@@ -13765,37 +13755,37 @@
         <v>24</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>725</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="H154" s="8"/>
       <c r="I154" s="8" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="J154" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N154" s="8">
         <v>5</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
       <c r="P154" s="8"/>
       <c r="Q154" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="R154" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="R154" s="8" t="s">
+        <v>719</v>
+      </c>
       <c r="S154" s="8"/>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
@@ -13809,7 +13799,7 @@
     </row>
     <row r="155" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>21</v>
@@ -13827,36 +13817,38 @@
         <v>24</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="H155" s="8"/>
+        <v>731</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>732</v>
+      </c>
       <c r="I155" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J155" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N155" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="P155" s="8"/>
       <c r="Q155" s="8" t="s">
-        <v>218</v>
+        <v>737</v>
       </c>
       <c r="R155" s="8" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="S155" s="8"/>
       <c r="T155" s="6"/>
@@ -13871,7 +13863,7 @@
     </row>
     <row r="156" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>21</v>
@@ -13889,38 +13881,38 @@
         <v>24</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>737</v>
+        <v>208</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>738</v>
+        <v>209</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N156" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O156" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P156" s="8"/>
       <c r="Q156" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="R156" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="S156" s="8"/>
       <c r="T156" s="6"/>
@@ -13935,7 +13927,7 @@
     </row>
     <row r="157" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>21</v>
@@ -13953,38 +13945,38 @@
         <v>24</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J157" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>208</v>
+        <v>745</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>209</v>
+        <v>746</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N157" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="P157" s="8"/>
       <c r="Q157" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="R157" s="8" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="S157" s="8"/>
       <c r="T157" s="6"/>
@@ -13999,7 +13991,7 @@
     </row>
     <row r="158" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>21</v>
@@ -14017,39 +14009,37 @@
         <v>24</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="J158" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N158" s="8">
         <v>8</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="P158" s="8"/>
       <c r="Q158" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="R158" s="8" t="s">
-        <v>751</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="R158" s="8"/>
       <c r="S158" s="8"/>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
@@ -14063,7 +14053,7 @@
     </row>
     <row r="159" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>21</v>
@@ -14081,10 +14071,10 @@
         <v>24</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>755</v>
@@ -14093,25 +14083,27 @@
         <v>27</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="M159" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N159" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="P159" s="8"/>
       <c r="Q159" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="R159" s="8"/>
+        <v>737</v>
+      </c>
+      <c r="R159" s="8" t="s">
+        <v>759</v>
+      </c>
       <c r="S159" s="8"/>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
@@ -14125,7 +14117,7 @@
     </row>
     <row r="160" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>21</v>
@@ -14143,38 +14135,38 @@
         <v>24</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="J160" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="L160" s="10" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N160" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="P160" s="8"/>
       <c r="Q160" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="R160" s="8" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="S160" s="8"/>
       <c r="T160" s="6"/>
@@ -14189,7 +14181,7 @@
     </row>
     <row r="161" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>21</v>
@@ -14207,39 +14199,37 @@
         <v>24</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="J161" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="M161" s="8" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N161" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="P161" s="8"/>
       <c r="Q161" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="R161" s="8" t="s">
-        <v>768</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="R161" s="8"/>
       <c r="S161" s="8"/>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
@@ -14253,7 +14243,7 @@
     </row>
     <row r="162" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>21</v>
@@ -14271,37 +14261,37 @@
         <v>24</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="H162" s="8" t="s">
-        <v>771</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>715</v>
+        <v>778</v>
       </c>
       <c r="N162" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>775</v>
+        <v>547</v>
       </c>
       <c r="P162" s="8"/>
       <c r="Q162" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="R162" s="8"/>
+        <v>779</v>
+      </c>
+      <c r="R162" s="8" t="s">
+        <v>780</v>
+      </c>
       <c r="S162" s="8"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
@@ -14315,7 +14305,7 @@
     </row>
     <row r="163" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>21</v>
@@ -14333,38 +14323,40 @@
         <v>24</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>27</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>779</v>
+        <v>235</v>
       </c>
       <c r="L163" s="10" t="s">
-        <v>780</v>
+        <v>236</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="N163" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>547</v>
+        <v>784</v>
       </c>
       <c r="P163" s="8"/>
       <c r="Q163" s="8" t="s">
-        <v>782</v>
+        <v>125</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="S163" s="8"/>
+        <v>785</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>786</v>
+      </c>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -14377,10 +14369,10 @@
     </row>
     <row r="164" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>21</v>
+        <v>788</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>22</v>
@@ -14395,39 +14387,39 @@
         <v>24</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>27</v>
+        <v>791</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>235</v>
+        <v>792</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>236</v>
+        <v>793</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="N164" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="P164" s="8"/>
       <c r="Q164" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="R164" s="8" t="s">
-        <v>788</v>
+        <v>796</v>
+      </c>
+      <c r="R164" s="18" t="s">
+        <v>797</v>
       </c>
       <c r="S164" s="8" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
@@ -14441,10 +14433,10 @@
     </row>
     <row r="165" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>22</v>
@@ -14456,42 +14448,42 @@
         <v>23</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="L165" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="J165" s="8" t="s">
+      <c r="M165" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="K165" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="L165" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="M165" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="N165" s="8">
         <v>14</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="P165" s="8"/>
       <c r="Q165" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="R165" s="18" t="s">
-        <v>800</v>
+        <v>53</v>
+      </c>
+      <c r="R165" s="13" t="s">
+        <v>803</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
@@ -14505,10 +14497,10 @@
     </row>
     <row r="166" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>22</v>
@@ -14523,39 +14515,39 @@
         <v>22</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="H166" s="8"/>
       <c r="I166" s="8" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J166" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="M166" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="K166" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="L166" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="M166" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="N166" s="8">
         <v>14</v>
       </c>
-      <c r="O166" s="8" t="s">
-        <v>805</v>
+      <c r="O166" s="8">
+        <v>32</v>
       </c>
       <c r="P166" s="8"/>
       <c r="Q166" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R166" s="13" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="S166" s="8" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
@@ -14569,10 +14561,10 @@
     </row>
     <row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>22</v>
@@ -14587,39 +14579,39 @@
         <v>22</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J167" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L167" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="M167" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="K167" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="L167" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="M167" s="8" t="s">
-        <v>797</v>
-      </c>
       <c r="N167" s="8">
-        <v>14</v>
-      </c>
-      <c r="O167" s="8">
-        <v>32</v>
+        <v>199</v>
+      </c>
+      <c r="O167" s="12">
+        <v>44200</v>
       </c>
       <c r="P167" s="8"/>
       <c r="Q167" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R167" s="13" t="s">
-        <v>811</v>
+        <v>538</v>
+      </c>
+      <c r="R167" s="8" t="s">
+        <v>815</v>
       </c>
       <c r="S167" s="8" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
@@ -14633,10 +14625,10 @@
     </row>
     <row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>22</v>
@@ -14648,43 +14640,39 @@
         <v>23</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J168" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L168" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="M168" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="K168" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="L168" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="M168" s="8" t="s">
-        <v>797</v>
-      </c>
       <c r="N168" s="8">
-        <v>199</v>
-      </c>
-      <c r="O168" s="12">
-        <v>44200</v>
+        <v>15</v>
+      </c>
+      <c r="O168" s="8" t="s">
+        <v>819</v>
       </c>
       <c r="P168" s="8"/>
       <c r="Q168" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="R168" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="S168" s="8" t="s">
-        <v>807</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="R168" s="8"/>
+      <c r="S168" s="8"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
@@ -14697,10 +14685,10 @@
     </row>
     <row r="169" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>22</v>
@@ -14712,38 +14700,40 @@
         <v>23</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="J169" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L169" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="M169" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="K169" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="L169" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="M169" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="N169" s="8">
         <v>15</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>822</v>
+        <v>606</v>
       </c>
       <c r="P169" s="8"/>
       <c r="Q169" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="R169" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="R169" s="8"/>
       <c r="S169" s="8"/>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
@@ -14760,7 +14750,7 @@
         <v>824</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>22</v>
@@ -14772,39 +14762,39 @@
         <v>23</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="J170" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="L170" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="M170" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="K170" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="L170" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="M170" s="8" t="s">
-        <v>797</v>
-      </c>
       <c r="N170" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>606</v>
+        <v>829</v>
       </c>
       <c r="P170" s="8"/>
       <c r="Q170" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="R170" s="13" t="s">
-        <v>826</v>
+        <v>830</v>
+      </c>
+      <c r="R170" s="19" t="s">
+        <v>831</v>
       </c>
       <c r="S170" s="8"/>
       <c r="T170" s="6"/>
@@ -14819,10 +14809,10 @@
     </row>
     <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>22</v>
@@ -14837,36 +14827,36 @@
         <v>24</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="J171" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="L171" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="M171" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="K171" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="L171" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="M171" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="N171" s="8">
         <v>20</v>
       </c>
-      <c r="O171" s="8" t="s">
-        <v>832</v>
+      <c r="O171" s="8">
+        <v>124</v>
       </c>
       <c r="P171" s="8"/>
       <c r="Q171" s="8" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="R171" s="19" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="S171" s="8"/>
       <c r="T171" s="6"/>
@@ -14884,7 +14874,7 @@
         <v>835</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>22</v>
@@ -14906,30 +14896,26 @@
         <v>837</v>
       </c>
       <c r="J172" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K172" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L172" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M172" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="K172" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="L172" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="M172" s="8" t="s">
-        <v>797</v>
-      </c>
       <c r="N172" s="8">
-        <v>20</v>
-      </c>
-      <c r="O172" s="8">
-        <v>124</v>
+        <v>201</v>
+      </c>
+      <c r="O172" s="12">
+        <v>44259</v>
       </c>
       <c r="P172" s="8"/>
-      <c r="Q172" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="R172" s="19" t="s">
-        <v>834</v>
-      </c>
+      <c r="Q172" s="8"/>
+      <c r="R172" s="8"/>
       <c r="S172" s="8"/>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
@@ -14946,7 +14932,7 @@
         <v>838</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>22</v>
@@ -14958,7 +14944,7 @@
         <v>23</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>839</v>
@@ -14968,27 +14954,31 @@
         <v>840</v>
       </c>
       <c r="J173" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="M173" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="K173" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="L173" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="M173" s="8" t="s">
-        <v>797</v>
-      </c>
       <c r="N173" s="8">
-        <v>201</v>
-      </c>
-      <c r="O173" s="12">
-        <v>44259</v>
+        <v>202</v>
+      </c>
+      <c r="O173" s="8">
+        <v>2</v>
       </c>
       <c r="P173" s="8"/>
-      <c r="Q173" s="8"/>
+      <c r="Q173" s="8" t="s">
+        <v>843</v>
+      </c>
       <c r="R173" s="8"/>
-      <c r="S173" s="8"/>
+      <c r="S173" s="8" t="s">
+        <v>844</v>
+      </c>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
@@ -15001,10 +14991,10 @@
     </row>
     <row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>22</v>
@@ -15019,37 +15009,39 @@
         <v>22</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>842</v>
+        <v>240</v>
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="L174" s="10" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="L174" s="8" t="s">
+        <v>848</v>
       </c>
       <c r="M174" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="N174" s="8">
-        <v>202</v>
-      </c>
-      <c r="O174" s="8">
-        <v>2</v>
+        <v>849</v>
+      </c>
+      <c r="N174" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="O174" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="P174" s="8"/>
       <c r="Q174" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="R174" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="R174" s="13" t="s">
+        <v>851</v>
+      </c>
       <c r="S174" s="8" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
@@ -15063,10 +15055,10 @@
     </row>
     <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>22</v>
@@ -15081,39 +15073,39 @@
         <v>22</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>240</v>
+        <v>854</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="M175" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="J175" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="K175" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="L175" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="M175" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="N175" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="O175" s="8" t="s">
-        <v>420</v>
+      <c r="N175" s="8">
+        <v>34</v>
+      </c>
+      <c r="O175" s="8">
+        <v>179</v>
       </c>
       <c r="P175" s="8"/>
       <c r="Q175" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R175" s="13" t="s">
-        <v>854</v>
+        <v>256</v>
+      </c>
+      <c r="R175" s="8" t="s">
+        <v>858</v>
       </c>
       <c r="S175" s="8" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
@@ -15127,10 +15119,10 @@
     </row>
     <row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>22</v>
@@ -15142,43 +15134,39 @@
         <v>23</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>859</v>
+        <v>695</v>
       </c>
       <c r="L176" s="10" t="s">
-        <v>860</v>
+        <v>696</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N176" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O176" s="8">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="P176" s="8"/>
       <c r="Q176" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R176" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="S176" s="8" t="s">
-        <v>862</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="R176" s="8"/>
+      <c r="S176" s="8"/>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
@@ -15194,7 +15182,7 @@
         <v>863</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>22</v>
@@ -15211,34 +15199,42 @@
       <c r="G177" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="H177" s="8"/>
+      <c r="H177" s="8" t="s">
+        <v>865</v>
+      </c>
       <c r="I177" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="M177" s="8" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="N177" s="8">
-        <v>36</v>
-      </c>
-      <c r="O177" s="8">
-        <v>210</v>
-      </c>
-      <c r="P177" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="P177" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q177" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="R177" s="8"/>
-      <c r="S177" s="8"/>
+        <v>663</v>
+      </c>
+      <c r="R177" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="S177" s="8" t="s">
+        <v>870</v>
+      </c>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
@@ -15251,16 +15247,16 @@
     </row>
     <row r="178" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>23</v>
@@ -15269,44 +15265,40 @@
         <v>24</v>
       </c>
       <c r="G178" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="H178" s="8"/>
+      <c r="I178" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="M178" s="8" t="s">
         <v>867</v>
-      </c>
-      <c r="H178" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="J178" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="K178" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="L178" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="M178" s="8" t="s">
-        <v>870</v>
       </c>
       <c r="N178" s="8">
         <v>44</v>
       </c>
-      <c r="O178" s="8" t="s">
-        <v>871</v>
+      <c r="O178" s="8">
+        <v>142</v>
       </c>
       <c r="P178" s="12">
         <v>44198</v>
       </c>
       <c r="Q178" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="R178" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="S178" s="8" t="s">
-        <v>873</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="R178" s="23" t="s">
+        <v>1376</v>
+      </c>
+      <c r="S178" s="8"/>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
@@ -15322,7 +15314,7 @@
         <v>874</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>24</v>
@@ -15336,30 +15328,32 @@
       <c r="F179" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G179" s="8" t="s">
+      <c r="G179" s="23" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I179" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="H179" s="8"/>
-      <c r="I179" s="23" t="s">
-        <v>878</v>
-      </c>
       <c r="J179" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="M179" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="N179" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O179" s="8">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="P179" s="12">
         <v>44198</v>
@@ -15368,7 +15362,7 @@
         <v>53</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="S179" s="8"/>
       <c r="T179" s="6"/>
@@ -15383,16 +15377,16 @@
     </row>
     <row r="180" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>23</v>
@@ -15400,43 +15394,43 @@
       <c r="F180" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G180" s="23" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H180" s="23" t="s">
-        <v>1383</v>
-      </c>
+      <c r="G180" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="H180" s="8"/>
       <c r="I180" s="8" t="s">
         <v>878</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>773</v>
+        <v>879</v>
       </c>
       <c r="L180" s="10" t="s">
-        <v>774</v>
+        <v>880</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="N180" s="8">
-        <v>46</v>
-      </c>
-      <c r="O180" s="8">
-        <v>170</v>
+        <v>47</v>
+      </c>
+      <c r="O180" s="8" t="s">
+        <v>881</v>
       </c>
       <c r="P180" s="12">
         <v>44198</v>
       </c>
       <c r="Q180" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R180" s="23" t="s">
-        <v>1382</v>
-      </c>
-      <c r="S180" s="8"/>
+        <v>843</v>
+      </c>
+      <c r="R180" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="S180" s="8" t="s">
+        <v>883</v>
+      </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
@@ -15449,10 +15443,10 @@
     </row>
     <row r="181" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>22</v>
@@ -15467,42 +15461,38 @@
         <v>24</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="M181" s="8" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="N181" s="8">
-        <v>47</v>
-      </c>
-      <c r="O181" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="P181" s="12">
-        <v>44198</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O181" s="12">
+        <v>44259</v>
+      </c>
+      <c r="P181" s="8"/>
       <c r="Q181" s="8" t="s">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="R181" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="S181" s="8" t="s">
-        <v>886</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="S181" s="8"/>
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
@@ -15515,13 +15505,13 @@
     </row>
     <row r="182" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>22</v>
@@ -15533,36 +15523,38 @@
         <v>24</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K182" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="M182" s="8" t="s">
         <v>889</v>
-      </c>
-      <c r="J182" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="K182" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="L182" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="M182" s="8" t="s">
-        <v>892</v>
       </c>
       <c r="N182" s="8">
         <v>48</v>
       </c>
       <c r="O182" s="12">
-        <v>44259</v>
-      </c>
-      <c r="P182" s="8"/>
+        <v>44543</v>
+      </c>
+      <c r="P182" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q182" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="R182" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="R182" s="13" t="s">
+        <v>873</v>
       </c>
       <c r="S182" s="8"/>
       <c r="T182" s="6"/>
@@ -15577,58 +15569,56 @@
     </row>
     <row r="183" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>890</v>
+        <v>215</v>
       </c>
       <c r="L183" s="10" t="s">
-        <v>891</v>
+        <v>216</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="N183" s="8">
-        <v>48</v>
-      </c>
-      <c r="O183" s="12">
-        <v>44543</v>
-      </c>
-      <c r="P183" s="12">
-        <v>44198</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="N183" s="8"/>
+      <c r="O183" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="P183" s="8"/>
       <c r="Q183" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="R183" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="S183" s="8"/>
+        <v>352</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="S183" s="8" t="s">
+        <v>902</v>
+      </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
@@ -15641,10 +15631,10 @@
     </row>
     <row r="184" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>22</v>
@@ -15653,43 +15643,43 @@
         <v>22</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>901</v>
+        <v>40</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>215</v>
+        <v>905</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>216</v>
+        <v>906</v>
       </c>
       <c r="M184" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N184" s="8"/>
       <c r="O184" s="8" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="8" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="R184" s="8" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="S184" s="8" t="s">
-        <v>905</v>
+        <v>47</v>
       </c>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
@@ -15703,10 +15693,10 @@
     </row>
     <row r="185" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>22</v>
@@ -15715,44 +15705,42 @@
         <v>22</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>40</v>
+        <v>910</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="J185" s="8" t="s">
-        <v>794</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="J185" s="8"/>
       <c r="K185" s="9" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="M185" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N185" s="8"/>
       <c r="O185" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="P185" s="8"/>
+        <v>914</v>
+      </c>
+      <c r="P185" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q185" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R185" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="S185" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="R185" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="S185" s="8"/>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
@@ -15765,10 +15753,10 @@
     </row>
     <row r="186" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>22</v>
@@ -15777,42 +15765,44 @@
         <v>22</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>913</v>
+        <v>240</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="J186" s="8"/>
+        <v>917</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>791</v>
+      </c>
       <c r="K186" s="9" t="s">
-        <v>915</v>
+        <v>776</v>
       </c>
       <c r="L186" s="10" t="s">
-        <v>916</v>
+        <v>777</v>
       </c>
       <c r="M186" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N186" s="8"/>
       <c r="O186" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="P186" s="12">
-        <v>44198</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="P186" s="8"/>
       <c r="Q186" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="R186" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="S186" s="8"/>
+        <v>890</v>
+      </c>
+      <c r="R186" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="S186" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
@@ -15825,10 +15815,10 @@
     </row>
     <row r="187" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>22</v>
@@ -15837,44 +15827,42 @@
         <v>22</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>900</v>
+        <v>346</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>780</v>
+        <v>922</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>923</v>
       </c>
       <c r="M187" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N187" s="8"/>
-      <c r="O187" s="8" t="s">
-        <v>921</v>
+      <c r="O187" s="8">
+        <v>121</v>
       </c>
       <c r="P187" s="8"/>
       <c r="Q187" s="8" t="s">
-        <v>893</v>
+        <v>924</v>
       </c>
       <c r="R187" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="S187" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="S187" s="11"/>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
@@ -15887,10 +15875,10 @@
     </row>
     <row r="188" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>22</v>
@@ -15899,42 +15887,44 @@
         <v>22</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>346</v>
+        <v>897</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>40</v>
+        <v>927</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="L188" s="8" t="s">
-        <v>926</v>
+        <v>235</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="M188" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N188" s="8"/>
-      <c r="O188" s="8">
-        <v>121</v>
+      <c r="O188" s="8" t="s">
+        <v>929</v>
       </c>
       <c r="P188" s="8"/>
       <c r="Q188" s="8" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="R188" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="S188" s="11"/>
+        <v>931</v>
+      </c>
+      <c r="S188" s="8" t="s">
+        <v>932</v>
+      </c>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
@@ -15947,32 +15937,32 @@
     </row>
     <row r="189" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K189" s="9" t="s">
         <v>235</v>
@@ -15981,22 +15971,20 @@
         <v>236</v>
       </c>
       <c r="M189" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N189" s="8"/>
       <c r="O189" s="8" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="P189" s="8"/>
       <c r="Q189" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="R189" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="S189" s="8" t="s">
-        <v>935</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="R189" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S189" s="8"/>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
@@ -16009,54 +15997,56 @@
     </row>
     <row r="190" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>937</v>
+        <v>40</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
         <v>938</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>235</v>
+        <v>939</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>236</v>
+        <v>940</v>
       </c>
       <c r="M190" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N190" s="8"/>
       <c r="O190" s="8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="P190" s="8"/>
       <c r="Q190" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="R190" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="S190" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="R190" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="S190" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
@@ -16069,10 +16059,10 @@
     </row>
     <row r="191" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>22</v>
@@ -16081,7 +16071,7 @@
         <v>22</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>22</v>
@@ -16091,30 +16081,30 @@
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="M191" s="8" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="N191" s="8"/>
       <c r="O191" s="8" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="P191" s="8"/>
       <c r="Q191" s="8" t="s">
-        <v>53</v>
+        <v>948</v>
       </c>
       <c r="R191" s="8" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="S191" s="8" t="s">
         <v>47</v>
@@ -16131,10 +16121,10 @@
     </row>
     <row r="192" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>22</v>
@@ -16143,43 +16133,45 @@
         <v>22</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>40</v>
+        <v>951</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M192" s="8" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="P192" s="8"/>
+        <v>953</v>
+      </c>
+      <c r="P192" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q192" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="R192" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="S192" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="R192" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="S192" s="17" t="s">
+        <v>955</v>
       </c>
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
@@ -16193,10 +16185,10 @@
     </row>
     <row r="193" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>22</v>
@@ -16205,45 +16197,43 @@
         <v>22</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>954</v>
+        <v>40</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="L193" s="10" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="M193" s="8" t="s">
-        <v>892</v>
+        <v>960</v>
       </c>
       <c r="N193" s="8"/>
-      <c r="O193" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="P193" s="12">
-        <v>44198</v>
-      </c>
+      <c r="O193" s="20">
+        <v>44199</v>
+      </c>
+      <c r="P193" s="8"/>
       <c r="Q193" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R193" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="S193" s="17" t="s">
-        <v>958</v>
+        <v>890</v>
+      </c>
+      <c r="R193" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="S193" s="8" t="s">
+        <v>962</v>
       </c>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
@@ -16257,10 +16247,10 @@
     </row>
     <row r="194" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>22</v>
@@ -16269,7 +16259,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>22</v>
@@ -16279,33 +16269,33 @@
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L194" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M194" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="J194" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="K194" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="L194" s="10" t="s">
-        <v>962</v>
-      </c>
-      <c r="M194" s="8" t="s">
-        <v>963</v>
-      </c>
       <c r="N194" s="8"/>
-      <c r="O194" s="20">
-        <v>44199</v>
+      <c r="O194" s="8" t="s">
+        <v>965</v>
       </c>
       <c r="P194" s="8"/>
       <c r="Q194" s="8" t="s">
-        <v>893</v>
+        <v>405</v>
       </c>
       <c r="R194" s="8" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="S194" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
@@ -16319,32 +16309,32 @@
     </row>
     <row r="195" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>22</v>
+        <v>968</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>40</v>
+        <v>969</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K195" s="9" t="s">
         <v>242</v>
@@ -16353,21 +16343,23 @@
         <v>243</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="P195" s="8"/>
+        <v>971</v>
+      </c>
+      <c r="P195" s="8" t="s">
+        <v>972</v>
+      </c>
       <c r="Q195" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="R195" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="S195" s="8" t="s">
-        <v>965</v>
+        <v>973</v>
+      </c>
+      <c r="R195" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="S195" s="17" t="s">
+        <v>974</v>
       </c>
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
@@ -16381,57 +16373,55 @@
     </row>
     <row r="196" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>971</v>
+        <v>22</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>972</v>
+        <v>40</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>242</v>
+        <v>977</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>243</v>
+        <v>978</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="P196" s="8" t="s">
-        <v>975</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="P196" s="8"/>
       <c r="Q196" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="R196" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="S196" s="17" t="s">
-        <v>977</v>
+        <v>843</v>
+      </c>
+      <c r="R196" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="S196" s="8" t="s">
+        <v>962</v>
       </c>
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
@@ -16445,10 +16435,10 @@
     </row>
     <row r="197" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>22</v>
@@ -16457,7 +16447,7 @@
         <v>22</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>22</v>
@@ -16467,33 +16457,33 @@
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="8" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="P197" s="8"/>
       <c r="Q197" s="8" t="s">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="R197" s="8" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S197" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
@@ -16507,10 +16497,10 @@
     </row>
     <row r="198" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>22</v>
@@ -16519,7 +16509,7 @@
         <v>22</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>22</v>
@@ -16529,33 +16519,33 @@
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>986</v>
+        <v>248</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>987</v>
+        <v>249</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="P198" s="8"/>
       <c r="Q198" s="8" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="R198" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S198" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
@@ -16569,10 +16559,10 @@
     </row>
     <row r="199" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>22</v>
@@ -16581,7 +16571,7 @@
         <v>22</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>22</v>
@@ -16591,33 +16581,33 @@
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>248</v>
+        <v>993</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>249</v>
+        <v>994</v>
       </c>
       <c r="M199" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="8" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="P199" s="8"/>
       <c r="Q199" s="8" t="s">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="R199" s="8" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="S199" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
@@ -16631,10 +16621,10 @@
     </row>
     <row r="200" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>22</v>
@@ -16643,7 +16633,7 @@
         <v>22</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>22</v>
@@ -16653,33 +16643,33 @@
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>996</v>
+        <v>253</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>997</v>
+        <v>254</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="P200" s="8"/>
       <c r="Q200" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="R200" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="S200" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
@@ -16693,10 +16683,10 @@
     </row>
     <row r="201" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>791</v>
+        <v>1002</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>22</v>
@@ -16705,44 +16695,44 @@
         <v>22</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>40</v>
+        <v>1003</v>
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>253</v>
+        <v>1005</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>254</v>
+        <v>1006</v>
       </c>
       <c r="M201" s="8" t="s">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="N201" s="8"/>
-      <c r="O201" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P201" s="8"/>
+      <c r="O201" s="12">
+        <v>44450</v>
+      </c>
+      <c r="P201" s="12">
+        <v>44198</v>
+      </c>
       <c r="Q201" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="R201" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="S201" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="R201" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S201" s="8"/>
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
@@ -16755,10 +16745,10 @@
     </row>
     <row r="202" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>22</v>
@@ -16773,37 +16763,35 @@
         <v>24</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L202" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M202" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="J202" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="K202" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L202" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M202" s="8" t="s">
-        <v>1010</v>
-      </c>
       <c r="N202" s="8"/>
-      <c r="O202" s="12">
-        <v>44450</v>
-      </c>
-      <c r="P202" s="12">
-        <v>44198</v>
+      <c r="O202" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P202" s="8" t="s">
+        <v>1013</v>
       </c>
       <c r="Q202" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="R202" s="13" t="s">
-        <v>1011</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="R202" s="8"/>
       <c r="S202" s="8"/>
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
@@ -16817,10 +16805,10 @@
     </row>
     <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>22</v>
@@ -16835,33 +16823,33 @@
         <v>24</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K203" s="9" t="s">
-        <v>1008</v>
+        <v>260</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>1009</v>
+        <v>261</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="P203" s="8" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="Q203" s="8" t="s">
-        <v>893</v>
+        <v>973</v>
       </c>
       <c r="R203" s="8"/>
       <c r="S203" s="8"/>
@@ -16877,10 +16865,10 @@
     </row>
     <row r="204" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>22</v>
@@ -16889,42 +16877,44 @@
         <v>22</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>1018</v>
+        <v>40</v>
       </c>
       <c r="H204" s="8"/>
       <c r="I204" s="8" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>260</v>
+        <v>1021</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>261</v>
+        <v>1022</v>
       </c>
       <c r="M204" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="P204" s="8" t="s">
-        <v>1021</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="P204" s="8"/>
       <c r="Q204" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="R204" s="8"/>
-      <c r="S204" s="8"/>
+        <v>843</v>
+      </c>
+      <c r="R204" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S204" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T204" s="6"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
@@ -16937,10 +16927,10 @@
     </row>
     <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>22</v>
@@ -16949,7 +16939,7 @@
         <v>22</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>22</v>
@@ -16959,33 +16949,33 @@
       </c>
       <c r="H205" s="8"/>
       <c r="I205" s="8" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8" t="s">
-        <v>1026</v>
+        <v>985</v>
       </c>
       <c r="P205" s="8"/>
       <c r="Q205" s="8" t="s">
-        <v>846</v>
+        <v>53</v>
       </c>
       <c r="R205" s="8" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="S205" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T205" s="6"/>
       <c r="U205" s="6"/>
@@ -16999,10 +16989,10 @@
     </row>
     <row r="206" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>22</v>
@@ -17011,7 +17001,7 @@
         <v>22</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>22</v>
@@ -17021,33 +17011,33 @@
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="8" t="s">
-        <v>988</v>
+        <v>1034</v>
       </c>
       <c r="P206" s="8"/>
       <c r="Q206" s="8" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="R206" s="8" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="S206" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
@@ -17061,10 +17051,10 @@
     </row>
     <row r="207" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>22</v>
@@ -17073,7 +17063,7 @@
         <v>22</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>22</v>
@@ -17083,33 +17073,33 @@
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="P207" s="8"/>
       <c r="Q207" s="8" t="s">
-        <v>401</v>
+        <v>125</v>
       </c>
       <c r="R207" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="S207" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T207" s="6"/>
       <c r="U207" s="6"/>
@@ -17123,10 +17113,10 @@
     </row>
     <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>22</v>
@@ -17135,44 +17125,42 @@
         <v>22</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>40</v>
+        <v>1043</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="P208" s="8"/>
       <c r="Q208" s="8" t="s">
-        <v>125</v>
+        <v>401</v>
       </c>
       <c r="R208" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S208" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="S208" s="8"/>
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
@@ -17185,10 +17173,10 @@
     </row>
     <row r="209" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>22</v>
@@ -17203,34 +17191,34 @@
         <v>24</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="J209" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="P209" s="8"/>
       <c r="Q209" s="8" t="s">
-        <v>401</v>
+        <v>890</v>
       </c>
       <c r="R209" s="8" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="S209" s="8"/>
       <c r="T209" s="6"/>
@@ -17245,10 +17233,10 @@
     </row>
     <row r="210" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>22</v>
@@ -17263,36 +17251,38 @@
         <v>24</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>1053</v>
+        <v>267</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>1054</v>
+        <v>268</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>1010</v>
+        <v>1057</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="P210" s="8"/>
       <c r="Q210" s="8" t="s">
-        <v>893</v>
+        <v>1059</v>
       </c>
       <c r="R210" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="S210" s="8"/>
+        <v>1060</v>
+      </c>
+      <c r="S210" s="8" t="s">
+        <v>883</v>
+      </c>
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
@@ -17305,10 +17295,10 @@
     </row>
     <row r="211" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>22</v>
@@ -17317,44 +17307,42 @@
         <v>22</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>1058</v>
+        <v>40</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L211" s="10" t="s">
-        <v>268</v>
+        <v>1063</v>
+      </c>
+      <c r="L211" s="8" t="s">
+        <v>1064</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N211" s="8"/>
-      <c r="O211" s="8" t="s">
-        <v>1061</v>
+      <c r="O211" s="8">
+        <v>133</v>
       </c>
       <c r="P211" s="8"/>
       <c r="Q211" s="8" t="s">
-        <v>1062</v>
+        <v>405</v>
       </c>
       <c r="R211" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="S211" s="8" t="s">
-        <v>886</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="S211" s="8"/>
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
@@ -17367,10 +17355,10 @@
     </row>
     <row r="212" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>22</v>
@@ -17379,42 +17367,44 @@
         <v>22</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="L212" s="8" t="s">
-        <v>1067</v>
+        <v>284</v>
+      </c>
+      <c r="L212" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="P212" s="8"/>
       <c r="Q212" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="R212" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="S212" s="8"/>
+      <c r="R212" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S212" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
@@ -17427,10 +17417,10 @@
     </row>
     <row r="213" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>22</v>
@@ -17439,7 +17429,7 @@
         <v>22</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>22</v>
@@ -17449,33 +17439,33 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>284</v>
+        <v>1070</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>285</v>
+        <v>1071</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N213" s="8"/>
-      <c r="O213" s="8">
-        <v>183</v>
+      <c r="O213" s="8" t="s">
+        <v>1072</v>
       </c>
       <c r="P213" s="8"/>
       <c r="Q213" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="R213" s="13" t="s">
-        <v>1070</v>
+        <v>401</v>
+      </c>
+      <c r="R213" s="8" t="s">
+        <v>1073</v>
       </c>
       <c r="S213" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
@@ -17489,10 +17479,10 @@
     </row>
     <row r="214" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>22</v>
@@ -17501,43 +17491,43 @@
         <v>22</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>240</v>
+        <v>1075</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N214" s="8"/>
-      <c r="O214" s="8" t="s">
-        <v>1075</v>
+      <c r="O214" s="8">
+        <v>221</v>
       </c>
       <c r="P214" s="8"/>
       <c r="Q214" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R214" s="8" t="s">
-        <v>1076</v>
+        <v>973</v>
+      </c>
+      <c r="R214" s="13" t="s">
+        <v>1077</v>
       </c>
       <c r="S214" s="8" t="s">
-        <v>965</v>
+        <v>1078</v>
       </c>
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
@@ -17551,10 +17541,10 @@
     </row>
     <row r="215" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>22</v>
@@ -17563,43 +17553,43 @@
         <v>22</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>1078</v>
+        <v>240</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="J215" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="M215" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N215" s="8"/>
-      <c r="O215" s="8">
-        <v>221</v>
+      <c r="O215" s="8" t="s">
+        <v>1083</v>
       </c>
       <c r="P215" s="8"/>
       <c r="Q215" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="R215" s="13" t="s">
-        <v>1080</v>
+        <v>1084</v>
+      </c>
+      <c r="R215" s="8" t="s">
+        <v>1085</v>
       </c>
       <c r="S215" s="8" t="s">
-        <v>1081</v>
+        <v>962</v>
       </c>
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
@@ -17613,10 +17603,10 @@
     </row>
     <row r="216" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>22</v>
@@ -17625,44 +17615,40 @@
         <v>22</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>240</v>
+        <v>1087</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="8" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="P216" s="8"/>
       <c r="Q216" s="8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R216" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="S216" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="R216" s="8"/>
+      <c r="S216" s="8"/>
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
@@ -17675,10 +17661,10 @@
     </row>
     <row r="217" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>22</v>
@@ -17693,31 +17679,31 @@
         <v>24</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="L217" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N217" s="8"/>
-      <c r="O217" s="8" t="s">
-        <v>1092</v>
+      <c r="O217" s="8">
+        <v>245</v>
       </c>
       <c r="P217" s="8"/>
       <c r="Q217" s="8" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="R217" s="8"/>
       <c r="S217" s="8"/>
@@ -17733,10 +17719,10 @@
     </row>
     <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>22</v>
@@ -17751,31 +17737,31 @@
         <v>24</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N218" s="8"/>
-      <c r="O218" s="8">
-        <v>245</v>
+      <c r="O218" s="8" t="s">
+        <v>1094</v>
       </c>
       <c r="P218" s="8"/>
       <c r="Q218" s="8" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="R218" s="8"/>
       <c r="S218" s="8"/>
@@ -17794,7 +17780,7 @@
         <v>1095</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>22</v>
@@ -17803,40 +17789,44 @@
         <v>22</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>1096</v>
+        <v>240</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="M219" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="8" t="s">
-        <v>1097</v>
+        <v>1040</v>
       </c>
       <c r="P219" s="8"/>
       <c r="Q219" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="R219" s="8"/>
-      <c r="S219" s="8"/>
+        <v>1099</v>
+      </c>
+      <c r="R219" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S219" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
@@ -17849,56 +17839,52 @@
     </row>
     <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D220" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>240</v>
+        <v>1102</v>
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8" t="s">
-        <v>1099</v>
+        <v>1371</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>1060</v>
+        <v>1105</v>
       </c>
       <c r="N220" s="8"/>
-      <c r="O220" s="8" t="s">
-        <v>1043</v>
+      <c r="O220" s="12">
+        <v>44545</v>
       </c>
       <c r="P220" s="8"/>
       <c r="Q220" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="R220" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S220" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>1106</v>
+      </c>
+      <c r="R220" s="8"/>
+      <c r="S220" s="8"/>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
@@ -17911,52 +17897,56 @@
     </row>
     <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D221" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>1105</v>
+        <v>240</v>
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8" t="s">
-        <v>1374</v>
+        <v>1108</v>
       </c>
       <c r="J221" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N221" s="8"/>
-      <c r="O221" s="12">
-        <v>44545</v>
+      <c r="O221" s="8" t="s">
+        <v>1111</v>
       </c>
       <c r="P221" s="8"/>
       <c r="Q221" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="R221" s="8"/>
-      <c r="S221" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="R221" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S221" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
@@ -17969,56 +17959,54 @@
     </row>
     <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>240</v>
+        <v>1114</v>
       </c>
       <c r="H222" s="8"/>
-      <c r="I222" s="8" t="s">
-        <v>1111</v>
+      <c r="I222" s="23" t="s">
+        <v>1380</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="8" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="P222" s="8"/>
       <c r="Q222" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R222" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="S222" s="8" t="s">
-        <v>965</v>
-      </c>
+      <c r="R222" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S222" s="8"/>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
@@ -18031,54 +18019,56 @@
     </row>
     <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>1117</v>
+        <v>240</v>
       </c>
       <c r="H223" s="8"/>
-      <c r="I223" s="23" t="s">
-        <v>1384</v>
+      <c r="I223" s="8" t="s">
+        <v>1120</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="8" t="s">
-        <v>1120</v>
+        <v>995</v>
       </c>
       <c r="P223" s="8"/>
       <c r="Q223" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R223" s="13" t="s">
-        <v>1121</v>
-      </c>
-      <c r="S223" s="8"/>
+      <c r="R223" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S223" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
@@ -18091,10 +18081,10 @@
     </row>
     <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>22</v>
@@ -18103,44 +18093,42 @@
         <v>22</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>240</v>
+        <v>789</v>
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1123</v>
+        <v>1372</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="8" t="s">
-        <v>998</v>
+        <v>1125</v>
       </c>
       <c r="P224" s="8"/>
       <c r="Q224" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R224" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R224" s="13" t="s">
         <v>1126</v>
       </c>
-      <c r="S224" s="8" t="s">
-        <v>965</v>
-      </c>
+      <c r="S224" s="8"/>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
@@ -18156,7 +18144,7 @@
         <v>1127</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>22</v>
@@ -18171,34 +18159,34 @@
         <v>24</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>792</v>
+        <v>1128</v>
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="8" t="s">
-        <v>1375</v>
+        <v>1129</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="P225" s="8"/>
       <c r="Q225" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="R225" s="13" t="s">
-        <v>1129</v>
+        <v>405</v>
+      </c>
+      <c r="R225" s="8" t="s">
+        <v>1131</v>
       </c>
       <c r="S225" s="8"/>
       <c r="T225" s="6"/>
@@ -18213,10 +18201,10 @@
     </row>
     <row r="226" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>22</v>
@@ -18225,42 +18213,44 @@
         <v>22</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>1131</v>
+        <v>240</v>
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="8" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8" t="s">
-        <v>1133</v>
+        <v>947</v>
       </c>
       <c r="P226" s="8"/>
       <c r="Q226" s="8" t="s">
-        <v>405</v>
+        <v>53</v>
       </c>
       <c r="R226" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="S226" s="8"/>
+        <v>1136</v>
+      </c>
+      <c r="S226" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
@@ -18273,10 +18263,10 @@
     </row>
     <row r="227" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>22</v>
@@ -18285,44 +18275,40 @@
         <v>22</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>240</v>
+        <v>1138</v>
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1136</v>
+        <v>1373</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8" t="s">
-        <v>950</v>
+        <v>1139</v>
       </c>
       <c r="P227" s="8"/>
       <c r="Q227" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R227" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="S227" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="R227" s="8"/>
+      <c r="S227" s="8"/>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
@@ -18338,7 +18324,7 @@
         <v>1140</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>22</v>
@@ -18347,40 +18333,44 @@
         <v>22</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>1141</v>
+        <v>240</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8" t="s">
-        <v>1376</v>
+        <v>1141</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8" t="s">
-        <v>1142</v>
+        <v>999</v>
       </c>
       <c r="P228" s="8"/>
       <c r="Q228" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="R228" s="8"/>
-      <c r="S228" s="8"/>
+        <v>1144</v>
+      </c>
+      <c r="R228" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S228" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
@@ -18393,10 +18383,10 @@
     </row>
     <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>22</v>
@@ -18405,44 +18395,40 @@
         <v>22</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>240</v>
+        <v>1146</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8" t="s">
-        <v>1002</v>
+        <v>1148</v>
       </c>
       <c r="P229" s="8"/>
       <c r="Q229" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="R229" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="S229" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>1149</v>
+      </c>
+      <c r="R229" s="8"/>
+      <c r="S229" s="8"/>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
@@ -18455,10 +18441,10 @@
     </row>
     <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>22</v>
@@ -18467,40 +18453,44 @@
         <v>22</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>1149</v>
+        <v>240</v>
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K230" s="9" t="s">
-        <v>1145</v>
+        <v>290</v>
       </c>
       <c r="L230" s="10" t="s">
-        <v>1146</v>
+        <v>291</v>
       </c>
       <c r="M230" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="P230" s="8"/>
       <c r="Q230" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="R230" s="8"/>
-      <c r="S230" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="R230" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S230" s="8" t="s">
+        <v>962</v>
+      </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
@@ -18512,11 +18502,11 @@
       <c r="AB230" s="6"/>
     </row>
     <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>1005</v>
+      <c r="A231" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>1155</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>22</v>
@@ -18525,44 +18515,44 @@
         <v>22</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J231" s="8" t="s">
-        <v>794</v>
+        <v>24</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>1158</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L231" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="M231" s="8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N231" s="8"/>
-      <c r="O231" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="P231" s="8"/>
-      <c r="Q231" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R231" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="S231" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="L231" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M231" s="22">
+        <v>3</v>
+      </c>
+      <c r="N231" s="22">
+        <v>30</v>
+      </c>
+      <c r="O231" s="8">
+        <v>197</v>
+      </c>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R231" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S231" s="8"/>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
@@ -18575,10 +18565,10 @@
     </row>
     <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>22</v>
@@ -18587,44 +18577,46 @@
         <v>22</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="M232" s="22">
         <v>3</v>
       </c>
       <c r="N232" s="22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O232" s="8">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="P232" s="6"/>
       <c r="Q232" s="6" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="R232" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S232" s="8"/>
+        <v>1168</v>
+      </c>
+      <c r="S232" s="8" t="s">
+        <v>1169</v>
+      </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
@@ -18637,10 +18629,10 @@
     </row>
     <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>22</v>
@@ -18649,26 +18641,26 @@
         <v>22</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="H233" s="6"/>
       <c r="I233" s="6" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="M233" s="22">
         <v>3</v>
@@ -18677,17 +18669,17 @@
         <v>32</v>
       </c>
       <c r="O233" s="8">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="P233" s="6"/>
       <c r="Q233" s="6" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="R233" s="6" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="S233" s="8" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
@@ -18701,10 +18693,10 @@
     </row>
     <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>22</v>
@@ -18713,45 +18705,45 @@
         <v>22</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="M234" s="22">
         <v>3</v>
       </c>
       <c r="N234" s="22">
-        <v>32</v>
-      </c>
-      <c r="O234" s="8">
-        <v>287</v>
+        <v>33</v>
+      </c>
+      <c r="O234" s="8" t="s">
+        <v>1181</v>
       </c>
       <c r="P234" s="6"/>
       <c r="Q234" s="6" t="s">
-        <v>1176</v>
+        <v>843</v>
       </c>
       <c r="R234" s="6" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="S234" s="8" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -18765,10 +18757,10 @@
     </row>
     <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>22</v>
@@ -18777,45 +18769,45 @@
         <v>22</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="M235" s="22">
         <v>3</v>
       </c>
       <c r="N235" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O235" s="8" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6" t="s">
-        <v>846</v>
+        <v>53</v>
       </c>
       <c r="R235" s="6" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="S235" s="8" t="s">
-        <v>1186</v>
+        <v>883</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
@@ -18829,10 +18821,10 @@
     </row>
     <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>22</v>
@@ -18841,45 +18833,45 @@
         <v>22</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1188</v>
+        <v>240</v>
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="M236" s="22">
         <v>3</v>
       </c>
       <c r="N236" s="22">
-        <v>34</v>
-      </c>
-      <c r="O236" s="8" t="s">
-        <v>1192</v>
+        <v>35</v>
+      </c>
+      <c r="O236" s="8">
+        <v>381</v>
       </c>
       <c r="P236" s="6"/>
       <c r="Q236" s="6" t="s">
-        <v>53</v>
+        <v>1195</v>
       </c>
       <c r="R236" s="6" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="S236" s="8" t="s">
-        <v>886</v>
+        <v>962</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -18893,10 +18885,10 @@
     </row>
     <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>22</v>
@@ -18905,7 +18897,7 @@
         <v>22</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>22</v>
@@ -18915,16 +18907,16 @@
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="M237" s="22">
         <v>3</v>
@@ -18933,17 +18925,17 @@
         <v>35</v>
       </c>
       <c r="O237" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P237" s="6"/>
       <c r="Q237" s="6" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="R237" s="6" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="S237" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -18957,10 +18949,10 @@
     </row>
     <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>22</v>
@@ -18969,46 +18961,42 @@
         <v>22</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>240</v>
+        <v>1202</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="M238" s="22">
         <v>3</v>
       </c>
       <c r="N238" s="22">
-        <v>35</v>
-      </c>
-      <c r="O238" s="8">
-        <v>383</v>
+        <v>36</v>
+      </c>
+      <c r="O238" s="8" t="s">
+        <v>1206</v>
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="R238" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="S238" s="8" t="s">
-        <v>965</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="R238" s="6"/>
+      <c r="S238" s="8"/>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
@@ -19021,10 +19009,10 @@
     </row>
     <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1158</v>
+        <v>1209</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>22</v>
@@ -19039,33 +19027,33 @@
         <v>24</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="M239" s="22">
         <v>3</v>
       </c>
       <c r="N239" s="22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O239" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="P239" s="6"/>
       <c r="Q239" s="6" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="R239" s="6"/>
       <c r="S239" s="8"/>
@@ -19081,10 +19069,10 @@
     </row>
     <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>1212</v>
+        <v>1155</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>22</v>
@@ -19099,35 +19087,39 @@
         <v>24</v>
       </c>
       <c r="G240" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K240" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L240" s="9" t="s">
         <v>1205</v>
-      </c>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J240" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K240" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L240" s="9" t="s">
-        <v>1197</v>
       </c>
       <c r="M240" s="22">
         <v>3</v>
       </c>
       <c r="N240" s="22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O240" s="8" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="P240" s="6"/>
       <c r="Q240" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R240" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="R240" s="14" t="s">
+        <v>1217</v>
+      </c>
       <c r="S240" s="8"/>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -19141,10 +19133,10 @@
     </row>
     <row r="241" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>22</v>
@@ -19153,46 +19145,46 @@
         <v>22</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H241" s="6" t="s">
-        <v>1217</v>
-      </c>
+        <v>1220</v>
+      </c>
+      <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>1161</v>
+        <v>1222</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="M241" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N241" s="22">
-        <v>36</v>
-      </c>
-      <c r="O241" s="8" t="s">
-        <v>1219</v>
+        <v>30</v>
+      </c>
+      <c r="O241" s="8">
+        <v>625</v>
       </c>
       <c r="P241" s="6"/>
       <c r="Q241" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="R241" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="S241" s="8"/>
+        <v>1225</v>
+      </c>
+      <c r="R241" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="S241" s="8" t="s">
+        <v>1227</v>
+      </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
@@ -19205,10 +19197,10 @@
     </row>
     <row r="242" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21" t="s">
-        <v>1221</v>
+        <v>1228</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>22</v>
@@ -19217,26 +19209,26 @@
         <v>22</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K242" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L242" s="9" t="s">
         <v>1224</v>
-      </c>
-      <c r="J242" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K242" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="L242" s="9" t="s">
-        <v>1227</v>
       </c>
       <c r="M242" s="22">
         <v>1</v>
@@ -19244,19 +19236,19 @@
       <c r="N242" s="22">
         <v>30</v>
       </c>
-      <c r="O242" s="8">
-        <v>625</v>
-      </c>
-      <c r="P242" s="6"/>
+      <c r="O242" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P242" s="6" t="s">
+        <v>1231</v>
+      </c>
       <c r="Q242" s="6" t="s">
-        <v>1228</v>
+        <v>211</v>
       </c>
       <c r="R242" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="S242" s="8" t="s">
-        <v>1230</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="S242" s="8"/>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
@@ -19269,10 +19261,10 @@
     </row>
     <row r="243" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>22</v>
@@ -19284,23 +19276,23 @@
         <v>23</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L243" s="9" t="s">
         <v>1224</v>
-      </c>
-      <c r="J243" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K243" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="L243" s="9" t="s">
-        <v>1227</v>
       </c>
       <c r="M243" s="22">
         <v>1</v>
@@ -19308,19 +19300,21 @@
       <c r="N243" s="22">
         <v>30</v>
       </c>
-      <c r="O243" s="8" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P243" s="6" t="s">
-        <v>1234</v>
+      <c r="O243" s="8">
+        <v>632</v>
+      </c>
+      <c r="P243" s="22">
+        <v>1</v>
       </c>
       <c r="Q243" s="6" t="s">
         <v>211</v>
       </c>
       <c r="R243" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="S243" s="8"/>
+        <v>1236</v>
+      </c>
+      <c r="S243" s="8" t="s">
+        <v>1237</v>
+      </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
@@ -19333,10 +19327,10 @@
     </row>
     <row r="244" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>22</v>
@@ -19345,48 +19339,44 @@
         <v>22</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="6" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>1226</v>
+        <v>1193</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>1227</v>
+        <v>1194</v>
       </c>
       <c r="M244" s="22">
         <v>1</v>
       </c>
       <c r="N244" s="22">
-        <v>30</v>
-      </c>
-      <c r="O244" s="8">
-        <v>632</v>
-      </c>
-      <c r="P244" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q244" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O244" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P244" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="Q244" s="6"/>
       <c r="R244" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="S244" s="8" t="s">
-        <v>1240</v>
-      </c>
+        <v>1243</v>
+      </c>
+      <c r="S244" s="8"/>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
@@ -19399,10 +19389,10 @@
     </row>
     <row r="245" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="21" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>22</v>
@@ -19411,26 +19401,26 @@
         <v>22</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="M245" s="22">
         <v>1</v>
@@ -19439,14 +19429,16 @@
         <v>32</v>
       </c>
       <c r="O245" s="8" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="Q245" s="6"/>
+        <v>1242</v>
+      </c>
+      <c r="Q245" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="R245" s="6" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="S245" s="8"/>
       <c r="T245" s="6"/>
@@ -19461,10 +19453,10 @@
     </row>
     <row r="246" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="21" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>22</v>
@@ -19473,26 +19465,26 @@
         <v>22</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="M246" s="22">
         <v>1</v>
@@ -19501,18 +19493,20 @@
         <v>32</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q246" s="6" t="s">
         <v>211</v>
       </c>
       <c r="R246" s="6" t="s">
-        <v>1251</v>
-      </c>
-      <c r="S246" s="8"/>
+        <v>1253</v>
+      </c>
+      <c r="S246" s="8" t="s">
+        <v>1254</v>
+      </c>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
@@ -19525,10 +19519,10 @@
     </row>
     <row r="247" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="21" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>22</v>
@@ -19537,26 +19531,26 @@
         <v>22</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="M247" s="22">
         <v>1</v>
@@ -19565,19 +19559,19 @@
         <v>32</v>
       </c>
       <c r="O247" s="8" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="P247" s="6" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q247" s="6" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="R247" s="6" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="S247" s="8" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
@@ -19591,10 +19585,10 @@
     </row>
     <row r="248" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="21" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>22</v>
@@ -19609,41 +19603,41 @@
         <v>22</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>1196</v>
+        <v>1263</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>1197</v>
+        <v>1264</v>
       </c>
       <c r="M248" s="22">
         <v>1</v>
       </c>
       <c r="N248" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O248" s="8" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
       <c r="Q248" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R248" s="6" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="S248" s="8" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
@@ -19657,10 +19651,10 @@
     </row>
     <row r="249" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="21" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>22</v>
@@ -19669,26 +19663,26 @@
         <v>22</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="M249" s="22">
         <v>1</v>
@@ -19697,19 +19691,17 @@
         <v>33</v>
       </c>
       <c r="O249" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="P249" s="6" t="s">
-        <v>1269</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="P249" s="6"/>
       <c r="Q249" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R249" s="6" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="S249" s="8" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -19723,10 +19715,10 @@
     </row>
     <row r="250" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="21" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>22</v>
@@ -19735,26 +19727,26 @@
         <v>22</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="M250" s="22">
         <v>1</v>
@@ -19762,18 +19754,18 @@
       <c r="N250" s="22">
         <v>33</v>
       </c>
-      <c r="O250" s="8" t="s">
-        <v>1274</v>
+      <c r="O250" s="8">
+        <v>723</v>
       </c>
       <c r="P250" s="6"/>
       <c r="Q250" s="6" t="s">
-        <v>125</v>
+        <v>830</v>
       </c>
       <c r="R250" s="6" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="S250" s="8" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
@@ -19787,10 +19779,10 @@
     </row>
     <row r="251" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="21" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>22</v>
@@ -19799,45 +19791,47 @@
         <v>22</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>1259</v>
+        <v>240</v>
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6" t="s">
-        <v>1278</v>
+        <v>1221</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
       <c r="M251" s="22">
         <v>1</v>
       </c>
       <c r="N251" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O251" s="8">
-        <v>723</v>
-      </c>
-      <c r="P251" s="6"/>
+        <v>736</v>
+      </c>
+      <c r="P251" s="22">
+        <v>1</v>
+      </c>
       <c r="Q251" s="6" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="R251" s="6" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="S251" s="8" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
@@ -19851,10 +19845,10 @@
     </row>
     <row r="252" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="21" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>22</v>
@@ -19863,26 +19857,26 @@
         <v>22</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>240</v>
+        <v>1284</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="M252" s="22">
         <v>1</v>
@@ -19890,21 +19884,17 @@
       <c r="N252" s="22">
         <v>34</v>
       </c>
-      <c r="O252" s="8">
-        <v>736</v>
-      </c>
-      <c r="P252" s="22">
-        <v>1</v>
+      <c r="O252" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="P252" s="6" t="s">
+        <v>1242</v>
       </c>
       <c r="Q252" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="R252" s="6" t="s">
-        <v>1284</v>
-      </c>
-      <c r="S252" s="8" t="s">
-        <v>1285</v>
-      </c>
+        <v>1287</v>
+      </c>
+      <c r="R252" s="6"/>
+      <c r="S252" s="8"/>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
@@ -19917,10 +19907,10 @@
     </row>
     <row r="253" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="21" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>22</v>
@@ -19929,44 +19919,46 @@
         <v>22</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>1287</v>
+        <v>240</v>
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="M253" s="22">
         <v>1</v>
       </c>
       <c r="N253" s="22">
-        <v>34</v>
-      </c>
-      <c r="O253" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="P253" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="Q253" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="R253" s="6"/>
-      <c r="S253" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="O253" s="8">
+        <v>761</v>
+      </c>
+      <c r="P253" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="S253" s="8" t="s">
+        <v>1293</v>
+      </c>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
@@ -19979,10 +19971,10 @@
     </row>
     <row r="254" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="21" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>22</v>
@@ -19991,7 +19983,7 @@
         <v>22</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>22</v>
@@ -20001,31 +19993,33 @@
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6" t="s">
-        <v>1292</v>
+        <v>1221</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="M254" s="22">
         <v>1</v>
       </c>
       <c r="N254" s="22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O254" s="8">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="P254" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q254" s="6"/>
-      <c r="R254" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R254" s="14" t="s">
         <v>1295</v>
       </c>
       <c r="S254" s="8" t="s">
@@ -20046,7 +20040,7 @@
         <v>1297</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>22</v>
@@ -20055,26 +20049,26 @@
         <v>22</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>240</v>
+        <v>1298</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6" t="s">
-        <v>1224</v>
+        <v>1299</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="M255" s="22">
         <v>1</v>
@@ -20082,21 +20076,13 @@
       <c r="N255" s="22">
         <v>36</v>
       </c>
-      <c r="O255" s="8">
-        <v>788</v>
-      </c>
-      <c r="P255" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q255" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="R255" s="14" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S255" s="8" t="s">
-        <v>1299</v>
-      </c>
+      <c r="O255" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="8"/>
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
@@ -20109,10 +20095,10 @@
     </row>
     <row r="256" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="21" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>22</v>
@@ -20121,40 +20107,48 @@
         <v>22</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>1301</v>
+        <v>240</v>
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6" t="s">
         <v>1302</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="M256" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N256" s="22">
-        <v>36</v>
-      </c>
-      <c r="O256" s="8" t="s">
-        <v>1303</v>
-      </c>
-      <c r="P256" s="6"/>
-      <c r="Q256" s="6"/>
-      <c r="R256" s="6"/>
-      <c r="S256" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="O256" s="8">
+        <v>54</v>
+      </c>
+      <c r="P256" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q256" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R256" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S256" s="8" t="s">
+        <v>1306</v>
+      </c>
       <c r="T256" s="6"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
@@ -20167,10 +20161,10 @@
     </row>
     <row r="257" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="21" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>22</v>
@@ -20185,42 +20179,40 @@
         <v>22</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>240</v>
+        <v>1308</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6" t="s">
-        <v>1305</v>
+        <v>1221</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K257" s="9" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="M257" s="22">
         <v>2</v>
       </c>
       <c r="N257" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O257" s="8">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="P257" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q257" s="6" t="s">
         <v>125</v>
       </c>
       <c r="R257" s="6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="S257" s="8" t="s">
-        <v>1309</v>
-      </c>
+        <v>1311</v>
+      </c>
+      <c r="S257" s="8"/>
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
@@ -20233,10 +20225,10 @@
     </row>
     <row r="258" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1222</v>
+        <v>788</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>22</v>
@@ -20251,40 +20243,40 @@
         <v>22</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>1311</v>
+        <v>240</v>
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6" t="s">
-        <v>1224</v>
+        <v>1313</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>1225</v>
+        <v>791</v>
       </c>
       <c r="K258" s="9" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M258" s="22">
-        <v>2</v>
+        <v>1315</v>
+      </c>
+      <c r="M258" s="6" t="s">
+        <v>1316</v>
       </c>
       <c r="N258" s="22">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="O258" s="8">
-        <v>106</v>
-      </c>
-      <c r="P258" s="22">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="P258" s="6"/>
       <c r="Q258" s="6" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="R258" s="6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="S258" s="8"/>
+        <v>1317</v>
+      </c>
+      <c r="S258" s="8" t="s">
+        <v>1318</v>
+      </c>
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
@@ -20297,10 +20289,10 @@
     </row>
     <row r="259" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="21" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>791</v>
+        <v>1002</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>22</v>
@@ -20319,35 +20311,35 @@
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L259" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M259" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="J259" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="K259" s="9" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L259" s="9" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M259" s="6" t="s">
-        <v>1319</v>
-      </c>
       <c r="N259" s="22">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O259" s="8">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="P259" s="6"/>
       <c r="Q259" s="6" t="s">
-        <v>53</v>
+        <v>796</v>
       </c>
       <c r="R259" s="6" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="S259" s="8" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="T259" s="6"/>
       <c r="U259" s="6"/>
@@ -20361,10 +20353,10 @@
     </row>
     <row r="260" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="21" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>22</v>
@@ -20373,46 +20365,44 @@
         <v>22</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>240</v>
+        <v>1325</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K260" s="9" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="M260" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N260" s="22">
-        <v>42</v>
-      </c>
-      <c r="O260" s="8">
-        <v>171</v>
+        <v>48</v>
+      </c>
+      <c r="O260" s="8" t="s">
+        <v>1329</v>
       </c>
       <c r="P260" s="6"/>
       <c r="Q260" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="R260" s="6" t="s">
-        <v>1326</v>
-      </c>
-      <c r="S260" s="8" t="s">
-        <v>1321</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="R260" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="S260" s="8"/>
       <c r="T260" s="6"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
@@ -20425,16 +20415,16 @@
     </row>
     <row r="261" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="21" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>23</v>
@@ -20443,36 +20433,36 @@
         <v>24</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K261" s="9" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="M261" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="N261" s="22">
-        <v>48</v>
-      </c>
-      <c r="O261" s="8" t="s">
-        <v>1332</v>
+        <v>49</v>
+      </c>
+      <c r="O261" s="8">
+        <v>7</v>
       </c>
       <c r="P261" s="6"/>
       <c r="Q261" s="6" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="R261" s="14" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="S261" s="8"/>
       <c r="T261" s="6"/>
@@ -20487,56 +20477,56 @@
     </row>
     <row r="262" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="21" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1005</v>
+        <v>1338</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>23</v>
+        <v>897</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>794</v>
+        <v>1341</v>
       </c>
       <c r="K262" s="9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="L262" s="9" t="s">
-        <v>1338</v>
-      </c>
-      <c r="M262" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N262" s="22">
-        <v>49</v>
-      </c>
-      <c r="O262" s="8">
-        <v>7</v>
+        <v>1342</v>
+      </c>
+      <c r="L262" s="8">
+        <v>1902</v>
+      </c>
+      <c r="M262" s="22">
+        <v>1</v>
+      </c>
+      <c r="N262" s="6"/>
+      <c r="O262" s="8" t="s">
+        <v>1343</v>
       </c>
       <c r="P262" s="6"/>
       <c r="Q262" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R262" s="14" t="s">
-        <v>1339</v>
-      </c>
-      <c r="S262" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="R262" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="S262" s="8" t="s">
+        <v>1345</v>
+      </c>
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
@@ -20549,10 +20539,10 @@
     </row>
     <row r="263" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="21" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>22</v>
@@ -20561,23 +20551,23 @@
         <v>22</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="K263" s="9" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="L263" s="8">
         <v>1902</v>
@@ -20587,17 +20577,17 @@
       </c>
       <c r="N263" s="6"/>
       <c r="O263" s="8" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="P263" s="6"/>
       <c r="Q263" s="6" t="s">
         <v>211</v>
       </c>
       <c r="R263" s="6" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="S263" s="8" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="T263" s="6"/>
       <c r="U263" s="6"/>
@@ -20611,10 +20601,10 @@
     </row>
     <row r="264" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="21" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>22</v>
@@ -20623,23 +20613,23 @@
         <v>22</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1350</v>
+        <v>240</v>
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="L264" s="8">
         <v>1902</v>
@@ -20649,17 +20639,17 @@
       </c>
       <c r="N264" s="6"/>
       <c r="O264" s="8" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="P264" s="6"/>
       <c r="Q264" s="6" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="R264" s="6" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="S264" s="8" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="T264" s="6"/>
       <c r="U264" s="6"/>
@@ -20672,57 +20662,25 @@
       <c r="AB264" s="6"/>
     </row>
     <row r="265" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="21" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H265" s="6"/>
-      <c r="I265" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J265" s="6" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K265" s="9" t="s">
-        <v>1345</v>
-      </c>
-      <c r="L265" s="8">
-        <v>1902</v>
-      </c>
-      <c r="M265" s="22">
-        <v>1</v>
-      </c>
-      <c r="N265" s="6"/>
-      <c r="O265" s="8" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P265" s="6"/>
-      <c r="Q265" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="R265" s="6" t="s">
-        <v>1359</v>
-      </c>
-      <c r="S265" s="8" t="s">
-        <v>1360</v>
-      </c>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="8"/>
+      <c r="I265" s="8"/>
+      <c r="J265" s="8"/>
+      <c r="K265" s="9"/>
+      <c r="L265" s="8"/>
+      <c r="M265" s="8"/>
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
+      <c r="P265" s="8"/>
+      <c r="Q265" s="8"/>
+      <c r="R265" s="8"/>
+      <c r="S265" s="8"/>
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
@@ -41614,34 +41572,34 @@
       <c r="AB961" s="6"/>
     </row>
     <row r="962" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="8"/>
-      <c r="B962" s="8"/>
-      <c r="C962" s="8"/>
-      <c r="D962" s="8"/>
-      <c r="E962" s="6"/>
-      <c r="F962" s="6"/>
-      <c r="G962" s="8"/>
-      <c r="H962" s="8"/>
-      <c r="I962" s="8"/>
-      <c r="J962" s="8"/>
-      <c r="K962" s="9"/>
-      <c r="L962" s="8"/>
-      <c r="M962" s="8"/>
-      <c r="N962" s="8"/>
-      <c r="O962" s="8"/>
-      <c r="P962" s="8"/>
-      <c r="Q962" s="8"/>
-      <c r="R962" s="8"/>
-      <c r="S962" s="8"/>
-      <c r="T962" s="6"/>
-      <c r="U962" s="6"/>
-      <c r="V962" s="6"/>
-      <c r="W962" s="6"/>
-      <c r="X962" s="6"/>
-      <c r="Y962" s="6"/>
-      <c r="Z962" s="6"/>
-      <c r="AA962" s="6"/>
-      <c r="AB962" s="6"/>
+      <c r="A962" s="1"/>
+      <c r="B962" s="1"/>
+      <c r="C962" s="1"/>
+      <c r="D962" s="1"/>
+      <c r="E962" s="1"/>
+      <c r="F962" s="1"/>
+      <c r="G962" s="1"/>
+      <c r="H962" s="1"/>
+      <c r="I962" s="1"/>
+      <c r="J962" s="1"/>
+      <c r="K962" s="1"/>
+      <c r="L962" s="1"/>
+      <c r="M962" s="1"/>
+      <c r="N962" s="1"/>
+      <c r="O962" s="1"/>
+      <c r="P962" s="1"/>
+      <c r="Q962" s="1"/>
+      <c r="R962" s="11"/>
+      <c r="S962" s="1"/>
+      <c r="T962" s="1"/>
+      <c r="U962" s="1"/>
+      <c r="V962" s="1"/>
+      <c r="W962" s="1"/>
+      <c r="X962" s="1"/>
+      <c r="Y962" s="1"/>
+      <c r="Z962" s="1"/>
+      <c r="AA962" s="1"/>
+      <c r="AB962" s="1"/>
     </row>
     <row r="963" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
@@ -41973,36 +41931,6 @@
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
     </row>
-    <row r="974" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
-      <c r="G974" s="1"/>
-      <c r="H974" s="1"/>
-      <c r="I974" s="1"/>
-      <c r="J974" s="1"/>
-      <c r="K974" s="1"/>
-      <c r="L974" s="1"/>
-      <c r="M974" s="1"/>
-      <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
-      <c r="P974" s="1"/>
-      <c r="Q974" s="1"/>
-      <c r="R974" s="11"/>
-      <c r="S974" s="1"/>
-      <c r="T974" s="1"/>
-      <c r="U974" s="1"/>
-      <c r="V974" s="1"/>
-      <c r="W974" s="1"/>
-      <c r="X974" s="1"/>
-      <c r="Y974" s="1"/>
-      <c r="Z974" s="1"/>
-      <c r="AA974" s="1"/>
-      <c r="AB974" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:S1"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957F359-BB7A-604A-AA67-B7D332A3EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F04E73-A15F-6D46-B20D-26124269BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4096,9 +4096,6 @@
     <t>266-68</t>
   </si>
   <si>
-    <t>Caffres. Extract from a Letter from Mr Brownlee to John Philip</t>
-  </si>
-  <si>
     <t>[John] Philip; Edward Edwards; Anonymous</t>
   </si>
   <si>
@@ -4178,6 +4175,9 @@
   </si>
   <si>
     <t>1802</t>
+  </si>
+  <si>
+    <t>Caffres</t>
   </si>
 </sst>
 </file>
@@ -4661,8 +4661,8 @@
   <dimension ref="A1:AB973"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I223" sqref="I223"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>1358</v>
+        <v>1385</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>42</v>
@@ -5277,7 +5277,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>42</v>
@@ -5973,11 +5973,11 @@
         <v>24</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>111</v>
@@ -6004,7 +6004,7 @@
         <v>125</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
@@ -6037,13 +6037,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>111</v>
@@ -6061,7 +6061,7 @@
         <v>167</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P23" s="12">
         <v>44198</v>
@@ -6070,7 +6070,7 @@
         <v>131</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>175</v>
@@ -6355,7 +6355,7 @@
         <v>182</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>175</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>175</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>175</v>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>175</v>
@@ -7047,7 +7047,7 @@
         <v>240</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>175</v>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>175</v>
@@ -9151,19 +9151,19 @@
         <v>24</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>437</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>438</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L76" s="13">
         <v>1802</v>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>787</v>
@@ -15290,7 +15290,7 @@
         <v>53</v>
       </c>
       <c r="R178" s="23" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="S178" s="8"/>
       <c r="T178" s="6"/>
@@ -15323,10 +15323,10 @@
         <v>24</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H179" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>871</v>
@@ -15356,7 +15356,7 @@
         <v>53</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="S179" s="8"/>
       <c r="T179" s="6"/>
@@ -17857,7 +17857,7 @@
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="J220" s="8" t="s">
         <v>787</v>
@@ -18099,7 +18099,7 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>787</v>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>787</v>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F04E73-A15F-6D46-B20D-26124269BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD0BEC-9727-4545-9A25-B1D324646D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1387">
   <si>
     <t xml:space="preserve">Creators: Joanne Ruth Davis, Dino Franco Felluga, Adrian S. Wisnicki </t>
   </si>
@@ -4178,6 +4178,9 @@
   </si>
   <si>
     <t>Caffres</t>
+  </si>
+  <si>
+    <t>Anonymous [LMS editors]</t>
   </si>
 </sst>
 </file>
@@ -4660,9 +4663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11711,7 +11714,7 @@
         <v>22</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>367</v>
+        <v>1386</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8" t="s">

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5874DEC-4E5E-AB48-A5A5-B29E10ABDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1E6CB-B6C8-0F46-BD40-F60A004CB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,9 +895,6 @@
     <t>Anonymous; R. Birt</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>The Seventy-Sixth Report of the London Missionary Society</t>
   </si>
   <si>
@@ -925,24 +922,15 @@
     <t>Anononymous [LMS editors]</t>
   </si>
   <si>
-    <t>Appendix III - South India (1) Missionaries in South India</t>
-  </si>
-  <si>
     <t>liv_025068</t>
   </si>
   <si>
-    <t>Appendix IV - India. South Travancore (1) Missionaries in South Travancore</t>
-  </si>
-  <si>
     <t>liv_025069</t>
   </si>
   <si>
     <t>Anonymous; A. Arumeinayagam</t>
   </si>
   <si>
-    <t>Appendix IV - India. South Travancore (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>105-06</t>
   </si>
   <si>
@@ -988,39 +976,24 @@
     <t>liv_025075</t>
   </si>
   <si>
-    <t>Appendix III - South India Eastern and Western Missions (1) Missionaries in Madagascar</t>
-  </si>
-  <si>
     <t>liv_025076</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (1) Missionaries in South Africa</t>
-  </si>
-  <si>
     <t>121-22</t>
   </si>
   <si>
     <t>liv_025077</t>
   </si>
   <si>
-    <t>Appendix VII - West India Mission (1) Missionaries in the West Indies</t>
-  </si>
-  <si>
     <t>liv_025078</t>
   </si>
   <si>
     <t>Anonymous; W.C. Harty</t>
   </si>
   <si>
-    <t>Appendix VII - West India Mission (3) Reports from the Missionaries, Jamaica</t>
-  </si>
-  <si>
     <t>liv_025079</t>
   </si>
   <si>
-    <t>Appendix VIII - South Sea Mission (1.) Missionaries in Polynesia</t>
-  </si>
-  <si>
     <t>140-41</t>
   </si>
   <si>
@@ -1039,9 +1012,6 @@
     <t>Anonymous; Anonymous ["Native Medical Evangelist at Neyoor"]</t>
   </si>
   <si>
-    <t>Appendix IV - India. South Travancore. (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>The Seventy-Seventh Report of the London Missionary Society for the Year ending May 1st, 1871</t>
   </si>
   <si>
@@ -1072,9 +1042,6 @@
     <t>Anononymous [LMS Editors]</t>
   </si>
   <si>
-    <t>Appendix IV - India. South Travancore. Native Ordained Missionaries and Pastors [Sustained by the Society During the Past Year]</t>
-  </si>
-  <si>
     <t>153-55</t>
   </si>
   <si>
@@ -1084,9 +1051,6 @@
     <t>Anonymous; Sadler; Anonymous ["native Bible woman"]</t>
   </si>
   <si>
-    <t>Appendix I - Missionaries in China (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>The Seventy-Eighth Report of the London Missionary Society for the Year ending May 1st, 1872</t>
   </si>
   <si>
@@ -1111,9 +1075,6 @@
     <t>liv_025089</t>
   </si>
   <si>
-    <t>Appendix IV. India. South Travancore. (1) Missionaries in South Travancore</t>
-  </si>
-  <si>
     <t>liv_025092</t>
   </si>
   <si>
@@ -1129,54 +1090,33 @@
     <t>liv_025093</t>
   </si>
   <si>
-    <t>Appendix I - Missionaries in China (1)</t>
-  </si>
-  <si>
     <t>The Seventy-Eighth Report of the London Missionary Society</t>
   </si>
   <si>
     <t>liv_025094</t>
   </si>
   <si>
-    <t>Appendix II - Mission in Bengal and North India (1) Missionaries in Bengal and North India</t>
-  </si>
-  <si>
     <t>liv_025095</t>
   </si>
   <si>
-    <t>Appendix II -Mission in Bengal and North India (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025096</t>
   </si>
   <si>
     <t>Anonymous; "A.H."</t>
   </si>
   <si>
-    <t>Appendix II - Mission in Bengal and North India (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025097</t>
   </si>
   <si>
-    <t>Appendix III - South India Eastern and Western Missions (1) Missionaries in South India</t>
-  </si>
-  <si>
     <t>liv_025098</t>
   </si>
   <si>
     <t>Anonymous; P. Siddhalingappa</t>
   </si>
   <si>
-    <t>Appendix III - South India Eastern and Western Missions (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025099</t>
   </si>
   <si>
-    <t>Appendix IV - India. South Travancore. (1) Missionaries in South Travancore</t>
-  </si>
-  <si>
     <t>liv_025100</t>
   </si>
   <si>
@@ -1186,15 +1126,9 @@
     <t>liv_025101</t>
   </si>
   <si>
-    <t>Appendix IV -India. South Travancore. (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025102</t>
   </si>
   <si>
-    <t>Appendix  IV - India. South Travancore. (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025103</t>
   </si>
   <si>
@@ -1204,33 +1138,21 @@
     <t>liv_025104</t>
   </si>
   <si>
-    <t>Appendix V -Mission in Madagascar. (1) Missionaries in Madagascar</t>
-  </si>
-  <si>
     <t>liv_025105</t>
   </si>
   <si>
     <t>liv_025106</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1871</t>
-  </si>
-  <si>
     <t>122-23</t>
   </si>
   <si>
     <t>liv_025107</t>
   </si>
   <si>
-    <t>Appendix VII - West India Mission (1) missionaries in the West Indies</t>
-  </si>
-  <si>
     <t>liv_025108</t>
   </si>
   <si>
-    <t>Appendix VIII - South Sea Mission (1) Missionaries in Polynesia</t>
-  </si>
-  <si>
     <t>liv_025109</t>
   </si>
   <si>
@@ -1318,9 +1240,6 @@
     <t>liv_025124</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1872</t>
-  </si>
-  <si>
     <t>liv_025125</t>
   </si>
   <si>
@@ -1348,9 +1267,6 @@
     <t>Anonymous; J. Paul</t>
   </si>
   <si>
-    <t>Appendix III - South India (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>The Eightieth Report of the London Missionary Society</t>
   </si>
   <si>
@@ -1372,18 +1288,12 @@
     <t>Anonymous; A.J. Wookey</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (2) Reports of the Missionaries</t>
-  </si>
-  <si>
     <t>107-8</t>
   </si>
   <si>
     <t>liv_025132</t>
   </si>
   <si>
-    <t>Appendix VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1873</t>
-  </si>
-  <si>
     <t>110-111</t>
   </si>
   <si>
@@ -1393,9 +1303,6 @@
     <t>Anonymous; A.P. Thomas</t>
   </si>
   <si>
-    <t>Appendix VII - West India Mission (2) Reports from the Missionaries</t>
-  </si>
-  <si>
     <t>liv_025134</t>
   </si>
   <si>
@@ -3347,6 +3254,99 @@
   </si>
   <si>
     <t>South Africa. Queen's Town District.–Extract of a Letter from the Rev. M. Godman, Khamiesberg, August 23rd, 1873</t>
+  </si>
+  <si>
+    <t>II - Mission in Bengal and North India (1) Missionaries in Bengal and North India</t>
+  </si>
+  <si>
+    <t>II -Mission in Bengal and North India (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>II - Mission in Bengal and North India (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>III - South India Eastern and Western Missions (1) Missionaries in South India</t>
+  </si>
+  <si>
+    <t>III - South India Eastern and Western Missions (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>IV - India. South Travancore. (1) Missionaries in South Travancore</t>
+  </si>
+  <si>
+    <t>IV - India. South Travancore. (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>IV -India. South Travancore. (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IV - India. South Travancore. (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>V -Mission in Madagascar. (1) Missionaries in Madagascar</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (1) Missionaries in South Africa</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1871</t>
+  </si>
+  <si>
+    <t>VII - West India Mission (1) missionaries in the West Indies</t>
+  </si>
+  <si>
+    <t>VIII - South Sea Mission (1) Missionaries in Polynesia</t>
+  </si>
+  <si>
+    <t>I - Missionaries in China (1)</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1872</t>
+  </si>
+  <si>
+    <t>III - South India (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (2) Reports of the Missionaries</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (2) Reports of the Missionaries - Table: Mission in South Africa, to December 1873</t>
+  </si>
+  <si>
+    <t>VII - West India Mission (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>VI - Mission in South Africa (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>III - South India (1) Missionaries in South India</t>
+  </si>
+  <si>
+    <t>IV - India. South Travancore (1) Missionaries in South Travancore</t>
+  </si>
+  <si>
+    <t>IV - India. South Travancore (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>III - South India Eastern and Western Missions (1) Missionaries in Madagascar</t>
+  </si>
+  <si>
+    <t>VII - West India Mission (1) Missionaries in the West Indies</t>
+  </si>
+  <si>
+    <t>VII - West India Mission (3) Reports from the Missionaries, Jamaica</t>
+  </si>
+  <si>
+    <t>VIII - South Sea Mission (1.) Missionaries in Polynesia</t>
+  </si>
+  <si>
+    <t>IV - India. South Travancore. Native Ordained Missionaries and Pastors [Sustained by the Society During the Past Year]</t>
+  </si>
+  <si>
+    <t>I - Missionaries in China (2) Reports from the Missionaries</t>
+  </si>
+  <si>
+    <t>IV. India. South Travancore. (1) Missionaries in South Travancore</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3356,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="m\-d"/>
-    <numFmt numFmtId="168" formatCode="m\,\ d"/>
+    <numFmt numFmtId="166" formatCode="m\,\ d"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -3533,7 +3533,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3555,13 +3555,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3781,9 +3781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3809,23 +3809,23 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+        <v>1048</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -3837,24 +3837,24 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>39</v>
@@ -4339,7 +4339,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>1084</v>
+        <v>1053</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>39</v>
@@ -4964,11 +4964,11 @@
         <v>21</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>96</v>
@@ -5021,13 +5021,13 @@
         <v>21</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1100</v>
+        <v>1069</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>96</v>
@@ -5045,7 +5045,7 @@
         <v>167</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1098</v>
+        <v>1067</v>
       </c>
       <c r="P23" s="12">
         <v>44198</v>
@@ -5090,17 +5090,17 @@
         <v>96</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1080</v>
+        <v>1049</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>1081</v>
+        <v>1050</v>
       </c>
       <c r="M24" s="8">
         <v>15</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="6"/>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="19" t="s">
-        <v>1086</v>
+        <v>1055</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>147</v>
@@ -5306,7 +5306,7 @@
         <v>153</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>147</v>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>147</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>147</v>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>147</v>
@@ -5926,7 +5926,7 @@
         <v>199</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>1101</v>
+        <v>1070</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>147</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>1102</v>
+        <v>1071</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>147</v>
@@ -6650,13 +6650,13 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="L54" s="8">
         <v>1870</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>289</v>
@@ -6697,14 +6697,14 @@
         <v>21</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="K55" s="8">
         <v>1870</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>289</v>
@@ -6742,20 +6742,20 @@
         <v>19</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8" t="s">
-        <v>301</v>
+        <v>1099</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K56" s="8">
         <v>1870</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>289</v>
@@ -6793,20 +6793,20 @@
         <v>19</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>303</v>
+        <v>1100</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K57" s="8">
         <v>1870</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>289</v>
@@ -6850,14 +6850,14 @@
         <v>21</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K58" s="8">
         <v>1870</v>
@@ -6868,7 +6868,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P58" s="8"/>
       <c r="Q58" s="6"/>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>289</v>
@@ -6901,14 +6901,14 @@
         <v>21</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K59" s="8">
         <v>1870</v>
@@ -6919,7 +6919,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P59" s="8"/>
       <c r="Q59" s="6"/>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>289</v>
@@ -6952,14 +6952,14 @@
         <v>21</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K60" s="8">
         <v>1870</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>289</v>
@@ -7003,14 +7003,14 @@
         <v>21</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K61" s="8">
         <v>1870</v>
@@ -7021,7 +7021,7 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="6"/>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>289</v>
@@ -7054,14 +7054,14 @@
         <v>21</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K62" s="8">
         <v>1870</v>
@@ -7072,7 +7072,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P62" s="8"/>
       <c r="Q62" s="6"/>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>289</v>
@@ -7105,14 +7105,14 @@
         <v>21</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8" t="s">
-        <v>306</v>
+        <v>1101</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K63" s="8">
         <v>1870</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>289</v>
@@ -7150,20 +7150,20 @@
         <v>19</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8" t="s">
-        <v>322</v>
+        <v>1102</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K64" s="8">
         <v>1870</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>289</v>
@@ -7201,20 +7201,20 @@
         <v>19</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8" t="s">
-        <v>324</v>
+        <v>1088</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K65" s="8">
         <v>1870</v>
@@ -7225,7 +7225,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="6"/>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>289</v>
@@ -7252,20 +7252,20 @@
         <v>19</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8" t="s">
-        <v>327</v>
+        <v>1103</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K66" s="8">
         <v>1870</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>289</v>
@@ -7309,14 +7309,14 @@
         <v>21</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>330</v>
+        <v>1104</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K67" s="8">
         <v>1870</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>289</v>
@@ -7354,20 +7354,20 @@
         <v>19</v>
       </c>
       <c r="E68" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8" t="s">
-        <v>332</v>
+        <v>1105</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K68" s="8">
         <v>1870</v>
@@ -7378,7 +7378,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="6"/>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>289</v>
@@ -7405,20 +7405,20 @@
         <v>19</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K69" s="8">
         <v>1870</v>
@@ -7429,7 +7429,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="6"/>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>289</v>
@@ -7462,17 +7462,17 @@
         <v>21</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L70" s="8">
         <v>1871</v>
@@ -7480,7 +7480,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="6"/>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>289</v>
@@ -7513,17 +7513,17 @@
         <v>21</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L71" s="8">
         <v>1871</v>
@@ -7531,7 +7531,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="P71" s="8"/>
       <c r="Q71" s="6"/>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>289</v>
@@ -7564,17 +7564,17 @@
         <v>21</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L72" s="8">
         <v>1871</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>289</v>
@@ -7615,17 +7615,17 @@
         <v>21</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L73" s="8">
         <v>1871</v>
@@ -7633,7 +7633,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P73" s="8"/>
       <c r="Q73" s="6"/>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>289</v>
@@ -7660,23 +7660,23 @@
         <v>19</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8" t="s">
-        <v>350</v>
+        <v>1106</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L74" s="8">
         <v>1871</v>
@@ -7684,7 +7684,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="P74" s="8"/>
       <c r="Q74" s="6"/>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>289</v>
@@ -7717,17 +7717,17 @@
         <v>21</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
-        <v>354</v>
+        <v>1107</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L75" s="8">
         <v>1872</v>
@@ -7735,7 +7735,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="6"/>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>289</v>
@@ -7768,19 +7768,19 @@
         <v>21</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>1094</v>
+        <v>1063</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>1103</v>
+        <v>1072</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="L76" s="13">
         <v>1802</v>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="13" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P76" s="8"/>
       <c r="Q76" s="6"/>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>289</v>
@@ -7817,23 +7817,23 @@
         <v>19</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>363</v>
+        <v>1108</v>
       </c>
       <c r="J77" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="L77" s="8">
         <v>1870</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>289</v>
@@ -7874,17 +7874,17 @@
         <v>21</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L78" s="8">
         <v>1870</v>
@@ -7892,7 +7892,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="P78" s="8"/>
       <c r="Q78" s="6"/>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>289</v>
@@ -7919,23 +7919,23 @@
         <v>19</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8" t="s">
-        <v>369</v>
+        <v>1092</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L79" s="8">
         <v>1872</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>289</v>
@@ -7970,23 +7970,23 @@
         <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8" t="s">
-        <v>372</v>
+        <v>1078</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L80" s="8">
         <v>1872</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>289</v>
@@ -8027,17 +8027,17 @@
         <v>21</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8" t="s">
-        <v>374</v>
+        <v>1079</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L81" s="8">
         <v>1872</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>289</v>
@@ -8078,17 +8078,17 @@
         <v>21</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8" t="s">
-        <v>377</v>
+        <v>1080</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L82" s="8">
         <v>1872</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>289</v>
@@ -8123,23 +8123,23 @@
         <v>19</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8" t="s">
-        <v>379</v>
+        <v>1081</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L83" s="8">
         <v>1872</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>289</v>
@@ -8180,17 +8180,17 @@
         <v>21</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8" t="s">
-        <v>382</v>
+        <v>1082</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L84" s="8">
         <v>1872</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>289</v>
@@ -8225,23 +8225,23 @@
         <v>19</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8" t="s">
-        <v>384</v>
+        <v>1083</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L85" s="8">
         <v>1872</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>289</v>
@@ -8286,13 +8286,13 @@
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L86" s="8">
         <v>1872</v>
@@ -8300,7 +8300,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="P86" s="8"/>
       <c r="Q86" s="6"/>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>289</v>
@@ -8333,17 +8333,17 @@
         <v>21</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8" t="s">
-        <v>388</v>
+        <v>1085</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L87" s="8">
         <v>1872</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>289</v>
@@ -8384,17 +8384,17 @@
         <v>21</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8" t="s">
-        <v>390</v>
+        <v>1086</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L88" s="8">
         <v>1872</v>
@@ -8402,7 +8402,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="6"/>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>289</v>
@@ -8435,17 +8435,17 @@
         <v>21</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L89" s="8">
         <v>1872</v>
@@ -8453,7 +8453,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="6"/>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>289</v>
@@ -8480,23 +8480,23 @@
         <v>19</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8" t="s">
-        <v>394</v>
+        <v>1087</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L90" s="8">
         <v>1872</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>289</v>
@@ -8531,23 +8531,23 @@
         <v>19</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8" t="s">
-        <v>324</v>
+        <v>1088</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L91" s="8">
         <v>1872</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>289</v>
@@ -8582,23 +8582,23 @@
         <v>19</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8" t="s">
-        <v>397</v>
+        <v>1089</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L92" s="8">
         <v>1872</v>
@@ -8606,7 +8606,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="P92" s="8"/>
       <c r="Q92" s="6"/>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>289</v>
@@ -8633,23 +8633,23 @@
         <v>19</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8" t="s">
-        <v>400</v>
+        <v>1090</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L93" s="8">
         <v>1872</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>289</v>
@@ -8684,23 +8684,23 @@
         <v>19</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8" t="s">
-        <v>402</v>
+        <v>1091</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L94" s="8">
         <v>1872</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>289</v>
@@ -8735,23 +8735,23 @@
         <v>19</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L95" s="8">
         <v>1872</v>
@@ -8759,7 +8759,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="P95" s="8"/>
       <c r="Q95" s="6"/>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>289</v>
@@ -8786,23 +8786,23 @@
         <v>19</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L96" s="8">
         <v>1872</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>289</v>
@@ -8843,17 +8843,17 @@
         <v>21</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L97" s="8">
         <v>1873</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>289</v>
@@ -8888,23 +8888,23 @@
         <v>19</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8" t="s">
-        <v>369</v>
+        <v>1092</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L98" s="8">
         <v>1873</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>289</v>
@@ -8939,23 +8939,23 @@
         <v>19</v>
       </c>
       <c r="E99" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
-        <v>372</v>
+        <v>1078</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L99" s="8">
         <v>1873</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>289</v>
@@ -8990,23 +8990,23 @@
         <v>19</v>
       </c>
       <c r="E100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8" t="s">
-        <v>379</v>
+        <v>1081</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L100" s="8">
         <v>1873</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>289</v>
@@ -9047,17 +9047,17 @@
         <v>21</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8" t="s">
-        <v>382</v>
+        <v>1082</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L101" s="8">
         <v>1873</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>289</v>
@@ -9092,23 +9092,23 @@
         <v>19</v>
       </c>
       <c r="E102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8" t="s">
-        <v>384</v>
+        <v>1083</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L102" s="8">
         <v>1873</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>289</v>
@@ -9149,17 +9149,17 @@
         <v>21</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L103" s="8">
         <v>1873</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>289</v>
@@ -9200,17 +9200,17 @@
         <v>21</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8" t="s">
-        <v>388</v>
+        <v>1085</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L104" s="8">
         <v>1873</v>
@@ -9218,7 +9218,7 @@
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="P104" s="8"/>
       <c r="Q104" s="6"/>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>289</v>
@@ -9251,17 +9251,17 @@
         <v>21</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L105" s="8">
         <v>1873</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>289</v>
@@ -9302,17 +9302,17 @@
         <v>21</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L106" s="8">
         <v>1873</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>289</v>
@@ -9353,17 +9353,17 @@
         <v>21</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8" t="s">
-        <v>388</v>
+        <v>1085</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L107" s="8">
         <v>1873</v>
@@ -9371,7 +9371,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="P107" s="8"/>
       <c r="Q107" s="6"/>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>289</v>
@@ -9398,23 +9398,23 @@
         <v>19</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8" t="s">
-        <v>394</v>
+        <v>1087</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L108" s="8">
         <v>1873</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>289</v>
@@ -9449,23 +9449,23 @@
         <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8" t="s">
-        <v>324</v>
+        <v>1088</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L109" s="8">
         <v>1873</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>289</v>
@@ -9500,23 +9500,23 @@
         <v>19</v>
       </c>
       <c r="E110" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8" t="s">
-        <v>432</v>
+        <v>1093</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L110" s="8">
         <v>1873</v>
@@ -9524,7 +9524,7 @@
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P110" s="8"/>
       <c r="Q110" s="6"/>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>289</v>
@@ -9551,23 +9551,23 @@
         <v>19</v>
       </c>
       <c r="E111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8" t="s">
-        <v>400</v>
+        <v>1090</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L111" s="8">
         <v>1873</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>289</v>
@@ -9602,23 +9602,23 @@
         <v>19</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8" t="s">
-        <v>402</v>
+        <v>1091</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L112" s="8">
         <v>1873</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>289</v>
@@ -9653,23 +9653,23 @@
         <v>19</v>
       </c>
       <c r="E113" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L113" s="8">
         <v>1873</v>
@@ -9677,7 +9677,7 @@
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="P113" s="8"/>
       <c r="Q113" s="6"/>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>289</v>
@@ -9704,23 +9704,23 @@
         <v>19</v>
       </c>
       <c r="E114" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L114" s="8">
         <v>1873</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>289</v>
@@ -9761,17 +9761,17 @@
         <v>21</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8" t="s">
-        <v>442</v>
+        <v>1094</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="L115" s="8">
         <v>1874</v>
@@ -9779,7 +9779,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="P115" s="8"/>
       <c r="Q115" s="6"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>289</v>
@@ -9812,17 +9812,17 @@
         <v>21</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8" t="s">
-        <v>339</v>
+        <v>1084</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="L116" s="8">
         <v>1874</v>
@@ -9830,7 +9830,7 @@
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="P116" s="8"/>
       <c r="Q116" s="6"/>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>289</v>
@@ -9863,17 +9863,17 @@
         <v>21</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8" t="s">
-        <v>450</v>
+        <v>1095</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="L117" s="8">
         <v>1874</v>
@@ -9881,7 +9881,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="P117" s="8"/>
       <c r="Q117" s="6"/>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>289</v>
@@ -9908,23 +9908,23 @@
         <v>19</v>
       </c>
       <c r="E118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8" t="s">
-        <v>453</v>
+        <v>1096</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="L118" s="8">
         <v>1874</v>
@@ -9932,7 +9932,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="P118" s="8"/>
       <c r="Q118" s="6"/>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>289</v>
@@ -9965,17 +9965,17 @@
         <v>21</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8" t="s">
-        <v>457</v>
+        <v>1097</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="L119" s="8">
         <v>1874</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>289</v>
@@ -10010,23 +10010,23 @@
         <v>19</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="L120" s="8">
         <v>1875</v>
@@ -10034,7 +10034,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="P120" s="8"/>
       <c r="Q120" s="6"/>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>289</v>
@@ -10067,17 +10067,17 @@
         <v>21</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L121" s="8">
         <v>1876</v>
@@ -10085,7 +10085,7 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="P121" s="8"/>
       <c r="Q121" s="6"/>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>289</v>
@@ -10118,17 +10118,17 @@
         <v>21</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L122" s="8">
         <v>1876</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>289</v>
@@ -10175,13 +10175,13 @@
         <v>199</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L123" s="8">
         <v>1876</v>
@@ -10189,7 +10189,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="P123" s="8"/>
       <c r="Q123" s="6"/>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>289</v>
@@ -10222,17 +10222,17 @@
         <v>21</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L124" s="8">
         <v>1876</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>289</v>
@@ -10273,17 +10273,17 @@
         <v>21</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L125" s="8">
         <v>1876</v>
@@ -10291,7 +10291,7 @@
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="P125" s="8"/>
       <c r="Q125" s="6"/>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>289</v>
@@ -10324,17 +10324,17 @@
         <v>21</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L126" s="8">
         <v>1876</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>289</v>
@@ -10369,23 +10369,23 @@
         <v>19</v>
       </c>
       <c r="E127" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L127" s="8">
         <v>1876</v>
@@ -10393,7 +10393,7 @@
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="P127" s="8"/>
       <c r="Q127" s="6"/>
@@ -10408,7 +10408,7 @@
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>289</v>
@@ -10420,23 +10420,23 @@
         <v>19</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="L128" s="8">
         <v>1876</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>289</v>
@@ -10481,13 +10481,13 @@
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L129" s="8">
         <v>1877</v>
@@ -10495,7 +10495,7 @@
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="P129" s="8"/>
       <c r="Q129" s="6"/>
@@ -10510,7 +10510,7 @@
     </row>
     <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>289</v>
@@ -10528,17 +10528,17 @@
         <v>21</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L130" s="8">
         <v>1877</v>
@@ -10546,7 +10546,7 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="P130" s="8"/>
       <c r="Q130" s="6"/>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>289</v>
@@ -10579,17 +10579,17 @@
         <v>21</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L131" s="8">
         <v>1877</v>
@@ -10597,7 +10597,7 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="P131" s="8"/>
       <c r="Q131" s="6"/>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>289</v>
@@ -10630,17 +10630,17 @@
         <v>21</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L132" s="8">
         <v>1877</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>289</v>
@@ -10681,17 +10681,17 @@
         <v>21</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L133" s="8">
         <v>1877</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>289</v>
@@ -10732,17 +10732,17 @@
         <v>21</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L134" s="8">
         <v>1877</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>289</v>
@@ -10783,17 +10783,17 @@
         <v>21</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L135" s="8">
         <v>1877</v>
@@ -10801,7 +10801,7 @@
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="P135" s="8"/>
       <c r="Q135" s="6"/>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>289</v>
@@ -10834,17 +10834,17 @@
         <v>21</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L136" s="8">
         <v>1877</v>
@@ -10867,7 +10867,7 @@
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>289</v>
@@ -10885,17 +10885,17 @@
         <v>21</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L137" s="8">
         <v>1877</v>
@@ -10903,7 +10903,7 @@
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="P137" s="8"/>
       <c r="Q137" s="6"/>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>289</v>
@@ -10936,17 +10936,17 @@
         <v>21</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L138" s="8">
         <v>1877</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>289</v>
@@ -10987,17 +10987,17 @@
         <v>21</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L139" s="8">
         <v>1877</v>
@@ -11005,7 +11005,7 @@
       <c r="M139" s="8"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="P139" s="8"/>
       <c r="Q139" s="6"/>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>289</v>
@@ -11038,17 +11038,17 @@
         <v>21</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="L140" s="8">
         <v>1878</v>
@@ -11056,7 +11056,7 @@
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="P140" s="8"/>
       <c r="Q140" s="6"/>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>289</v>
@@ -11089,17 +11089,17 @@
         <v>21</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="L141" s="8">
         <v>1879</v>
@@ -11122,7 +11122,7 @@
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>18</v>
@@ -11140,31 +11140,31 @@
         <v>21</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="M142" s="8" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="N142" s="8">
         <v>6</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="P142" s="8"/>
       <c r="Q142" s="6"/>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>18</v>
@@ -11197,29 +11197,29 @@
         <v>21</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="N143" s="8">
         <v>11</v>
       </c>
       <c r="O143" s="8" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="P143" s="8"/>
       <c r="Q143" s="6"/>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>18</v>
@@ -11252,29 +11252,29 @@
         <v>21</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="M144" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N144" s="8">
         <v>3</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="P144" s="8"/>
       <c r="Q144" s="6"/>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>18</v>
@@ -11307,23 +11307,23 @@
         <v>21</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N145" s="8">
         <v>3</v>
@@ -11344,7 +11344,7 @@
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>18</v>
@@ -11362,23 +11362,23 @@
         <v>21</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="M146" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N146" s="8">
         <v>4</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>18</v>
@@ -11417,29 +11417,29 @@
         <v>21</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="J147" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="M147" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N147" s="8">
         <v>6</v>
       </c>
       <c r="O147" s="8" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="P147" s="8"/>
       <c r="Q147" s="6"/>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>18</v>
@@ -11475,28 +11475,28 @@
         <v>152</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="M148" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N148" s="8">
         <v>8</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="P148" s="8"/>
       <c r="Q148" s="6"/>
@@ -11511,7 +11511,7 @@
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>18</v>
@@ -11529,31 +11529,31 @@
         <v>21</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N149" s="8">
         <v>12</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="P149" s="8"/>
       <c r="Q149" s="6"/>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>18</v>
@@ -11586,31 +11586,31 @@
         <v>21</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="J150" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="M150" s="8" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="N150" s="8">
         <v>12</v>
       </c>
       <c r="O150" s="8" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="P150" s="8"/>
       <c r="Q150" s="6"/>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>18</v>
@@ -11643,25 +11643,25 @@
         <v>21</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="J151" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N151" s="8">
         <v>2</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>18</v>
@@ -11700,29 +11700,29 @@
         <v>21</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="H152" s="8"/>
       <c r="I152" s="8" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="M152" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N152" s="8">
         <v>2</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="P152" s="8"/>
       <c r="Q152" s="6"/>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>18</v>
@@ -11755,31 +11755,31 @@
         <v>21</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="J153" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N153" s="8">
         <v>5</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="P153" s="8"/>
       <c r="Q153" s="6"/>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>18</v>
@@ -11812,29 +11812,29 @@
         <v>21</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="J154" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N154" s="8">
         <v>5</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="P154" s="8"/>
       <c r="Q154" s="6"/>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>18</v>
@@ -11867,31 +11867,31 @@
         <v>21</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="J155" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N155" s="8">
         <v>6</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="P155" s="8"/>
       <c r="Q155" s="6"/>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>18</v>
@@ -11924,13 +11924,13 @@
         <v>21</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>24</v>
@@ -11942,13 +11942,13 @@
         <v>175</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N156" s="8">
         <v>7</v>
       </c>
       <c r="O156" s="8" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="P156" s="8"/>
       <c r="Q156" s="6"/>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>18</v>
@@ -11981,31 +11981,31 @@
         <v>21</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="J157" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N157" s="8">
         <v>8</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="P157" s="8"/>
       <c r="Q157" s="6"/>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>18</v>
@@ -12038,31 +12038,31 @@
         <v>21</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="J158" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N158" s="8">
         <v>8</v>
       </c>
       <c r="O158" s="8" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="P158" s="8"/>
       <c r="Q158" s="6"/>
@@ -12077,7 +12077,7 @@
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>18</v>
@@ -12095,31 +12095,31 @@
         <v>21</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="J159" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="L159" s="10" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="M159" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N159" s="8">
         <v>9</v>
       </c>
       <c r="O159" s="8" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="P159" s="8"/>
       <c r="Q159" s="6"/>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>18</v>
@@ -12152,31 +12152,31 @@
         <v>21</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="J160" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="L160" s="10" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N160" s="8">
         <v>10</v>
       </c>
       <c r="O160" s="8" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="P160" s="8"/>
       <c r="Q160" s="6"/>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>18</v>
@@ -12209,31 +12209,31 @@
         <v>21</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="J161" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="L161" s="10" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="M161" s="8" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="N161" s="8">
         <v>11</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="P161" s="8"/>
       <c r="Q161" s="6"/>
@@ -12248,7 +12248,7 @@
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>18</v>
@@ -12266,29 +12266,29 @@
         <v>21</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="J162" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="L162" s="10" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="N162" s="8">
         <v>5</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="P162" s="8"/>
       <c r="Q162" s="6"/>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>18</v>
@@ -12321,11 +12321,11 @@
         <v>21</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>24</v>
@@ -12337,13 +12337,13 @@
         <v>196</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="N163" s="8">
         <v>9</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="P163" s="8"/>
       <c r="Q163" s="6"/>
@@ -12358,10 +12358,10 @@
     </row>
     <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>19</v>
@@ -12376,29 +12376,29 @@
         <v>21</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="L164" s="10" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N164" s="8">
         <v>14</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="P164" s="8"/>
       <c r="Q164" s="6"/>
@@ -12413,10 +12413,10 @@
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>19</v>
@@ -12431,29 +12431,29 @@
         <v>19</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="M165" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N165" s="8">
         <v>14</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="P165" s="8"/>
       <c r="Q165" s="6"/>
@@ -12468,10 +12468,10 @@
     </row>
     <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>19</v>
@@ -12486,23 +12486,23 @@
         <v>19</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="H166" s="8"/>
       <c r="I166" s="8" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="L166" s="10" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="M166" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N166" s="8">
         <v>14</v>
@@ -12523,10 +12523,10 @@
     </row>
     <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>19</v>
@@ -12541,23 +12541,23 @@
         <v>19</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="L167" s="10" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="M167" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N167" s="8">
         <v>199</v>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>19</v>
@@ -12596,29 +12596,29 @@
         <v>21</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="L168" s="10" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="M168" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N168" s="8">
         <v>15</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="P168" s="8"/>
       <c r="Q168" s="6"/>
@@ -12633,10 +12633,10 @@
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>19</v>
@@ -12651,29 +12651,29 @@
         <v>19</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="L169" s="10" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="M169" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N169" s="8">
         <v>15</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="P169" s="8"/>
       <c r="Q169" s="6"/>
@@ -12688,10 +12688,10 @@
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>19</v>
@@ -12706,29 +12706,29 @@
         <v>21</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="L170" s="10" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="M170" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N170" s="8">
         <v>20</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="P170" s="8"/>
       <c r="Q170" s="6"/>
@@ -12743,10 +12743,10 @@
     </row>
     <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>19</v>
@@ -12761,23 +12761,23 @@
         <v>21</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="L171" s="10" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N171" s="8">
         <v>20</v>
@@ -12798,10 +12798,10 @@
     </row>
     <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>19</v>
@@ -12816,14 +12816,14 @@
         <v>21</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K172" s="9" t="s">
         <v>286</v>
@@ -12832,7 +12832,7 @@
         <v>287</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N172" s="8">
         <v>201</v>
@@ -12853,10 +12853,10 @@
     </row>
     <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>19</v>
@@ -12871,23 +12871,23 @@
         <v>19</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="L173" s="10" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="M173" s="8" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="N173" s="8">
         <v>202</v>
@@ -12908,10 +12908,10 @@
     </row>
     <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>19</v>
@@ -12930,25 +12930,25 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="M174" s="8" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P174" s="8"/>
       <c r="Q174" s="6"/>
@@ -12963,10 +12963,10 @@
     </row>
     <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>19</v>
@@ -12981,23 +12981,23 @@
         <v>19</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="L175" s="10" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="M175" s="8" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="N175" s="8">
         <v>34</v>
@@ -13018,10 +13018,10 @@
     </row>
     <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>19</v>
@@ -13036,23 +13036,23 @@
         <v>21</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="L176" s="10" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="N176" s="8">
         <v>36</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>19</v>
@@ -13091,31 +13091,31 @@
         <v>21</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="L177" s="10" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="M177" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="N177" s="8">
         <v>44</v>
       </c>
       <c r="O177" s="8" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="P177" s="12">
         <v>44198</v>
@@ -13132,10 +13132,10 @@
     </row>
     <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>21</v>
@@ -13150,23 +13150,23 @@
         <v>21</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="13" t="s">
-        <v>1104</v>
+        <v>1073</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="L178" s="10" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="M178" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="N178" s="8">
         <v>44</v>
@@ -13189,10 +13189,10 @@
     </row>
     <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>21</v>
@@ -13207,25 +13207,25 @@
         <v>21</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1096</v>
+        <v>1065</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="L179" s="10" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="M179" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="N179" s="8">
         <v>46</v>
@@ -13248,10 +13248,10 @@
     </row>
     <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>19</v>
@@ -13266,29 +13266,29 @@
         <v>21</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="L180" s="10" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="N180" s="8">
         <v>47</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="P180" s="12">
         <v>44198</v>
@@ -13305,10 +13305,10 @@
     </row>
     <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>19</v>
@@ -13323,23 +13323,23 @@
         <v>21</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="L181" s="10" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="M181" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N181" s="8">
         <v>48</v>
@@ -13360,10 +13360,10 @@
     </row>
     <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>21</v>
@@ -13378,23 +13378,23 @@
         <v>21</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="L182" s="10" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="M182" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N182" s="8">
         <v>48</v>
@@ -13417,10 +13417,10 @@
     </row>
     <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>19</v>
@@ -13429,20 +13429,20 @@
         <v>19</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K183" s="9" t="s">
         <v>179</v>
@@ -13451,11 +13451,11 @@
         <v>180</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="8" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="P183" s="8"/>
       <c r="Q183" s="6"/>
@@ -13470,10 +13470,10 @@
     </row>
     <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>19</v>
@@ -13482,7 +13482,7 @@
         <v>19</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>19</v>
@@ -13492,23 +13492,23 @@
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="M184" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N184" s="8"/>
       <c r="O184" s="8" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="P184" s="8"/>
       <c r="Q184" s="6"/>
@@ -13523,10 +13523,10 @@
     </row>
     <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>19</v>
@@ -13541,27 +13541,27 @@
         <v>21</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="J185" s="13" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="M185" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N185" s="8"/>
       <c r="O185" s="8" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="P185" s="12">
         <v>44198</v>
@@ -13578,10 +13578,10 @@
     </row>
     <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>19</v>
@@ -13590,7 +13590,7 @@
         <v>19</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>19</v>
@@ -13600,23 +13600,23 @@
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="L186" s="10" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="M186" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N186" s="8"/>
       <c r="O186" s="8" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="P186" s="8"/>
       <c r="Q186" s="6"/>
@@ -13631,10 +13631,10 @@
     </row>
     <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>19</v>
@@ -13653,19 +13653,19 @@
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="M187" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N187" s="8"/>
       <c r="O187" s="8">
@@ -13684,10 +13684,10 @@
     </row>
     <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>19</v>
@@ -13696,20 +13696,20 @@
         <v>19</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K188" s="9" t="s">
         <v>195</v>
@@ -13718,11 +13718,11 @@
         <v>196</v>
       </c>
       <c r="M188" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N188" s="8"/>
       <c r="O188" s="8" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="P188" s="8"/>
       <c r="Q188" s="6"/>
@@ -13737,10 +13737,10 @@
     </row>
     <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>21</v>
@@ -13755,14 +13755,14 @@
         <v>21</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K189" s="9" t="s">
         <v>195</v>
@@ -13771,11 +13771,11 @@
         <v>196</v>
       </c>
       <c r="M189" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N189" s="8"/>
       <c r="O189" s="8" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="P189" s="8"/>
       <c r="Q189" s="6"/>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>19</v>
@@ -13802,7 +13802,7 @@
         <v>19</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>19</v>
@@ -13812,23 +13812,23 @@
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="M190" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N190" s="8"/>
       <c r="O190" s="8" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="P190" s="8"/>
       <c r="Q190" s="6"/>
@@ -13843,10 +13843,10 @@
     </row>
     <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>19</v>
@@ -13855,7 +13855,7 @@
         <v>19</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>19</v>
@@ -13865,23 +13865,23 @@
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="M191" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="N191" s="8"/>
       <c r="O191" s="8" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="P191" s="8"/>
       <c r="Q191" s="6"/>
@@ -13896,10 +13896,10 @@
     </row>
     <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>19</v>
@@ -13914,27 +13914,27 @@
         <v>21</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="L192" s="10" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="M192" s="8" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="8" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="P192" s="12">
         <v>44198</v>
@@ -13951,10 +13951,10 @@
     </row>
     <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>19</v>
@@ -13963,7 +13963,7 @@
         <v>19</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>19</v>
@@ -13973,19 +13973,19 @@
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="L193" s="10" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="M193" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N193" s="8"/>
       <c r="O193" s="16">
@@ -14004,10 +14004,10 @@
     </row>
     <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>19</v>
@@ -14016,7 +14016,7 @@
         <v>19</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>19</v>
@@ -14026,10 +14026,10 @@
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K194" s="9" t="s">
         <v>201</v>
@@ -14038,11 +14038,11 @@
         <v>202</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N194" s="8"/>
       <c r="O194" s="8" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="P194" s="8"/>
       <c r="Q194" s="6"/>
@@ -14057,10 +14057,10 @@
     </row>
     <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>21</v>
@@ -14072,17 +14072,17 @@
         <v>20</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K195" s="9" t="s">
         <v>201</v>
@@ -14091,14 +14091,14 @@
         <v>202</v>
       </c>
       <c r="M195" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="8" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="P195" s="8" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="6"/>
@@ -14112,10 +14112,10 @@
     </row>
     <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>19</v>
@@ -14124,7 +14124,7 @@
         <v>19</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>19</v>
@@ -14134,23 +14134,23 @@
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K196" s="9" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="8" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="P196" s="8"/>
       <c r="Q196" s="6"/>
@@ -14165,10 +14165,10 @@
     </row>
     <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>19</v>
@@ -14177,7 +14177,7 @@
         <v>19</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>19</v>
@@ -14187,23 +14187,23 @@
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="M197" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="8" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="P197" s="8"/>
       <c r="Q197" s="6"/>
@@ -14218,10 +14218,10 @@
     </row>
     <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>19</v>
@@ -14230,7 +14230,7 @@
         <v>19</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>19</v>
@@ -14240,10 +14240,10 @@
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K198" s="9" t="s">
         <v>207</v>
@@ -14252,11 +14252,11 @@
         <v>208</v>
       </c>
       <c r="M198" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="8" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="P198" s="8"/>
       <c r="Q198" s="6"/>
@@ -14271,10 +14271,10 @@
     </row>
     <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>19</v>
@@ -14283,7 +14283,7 @@
         <v>19</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>19</v>
@@ -14293,23 +14293,23 @@
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K199" s="9" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="M199" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="8" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="P199" s="8"/>
       <c r="Q199" s="6"/>
@@ -14324,10 +14324,10 @@
     </row>
     <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>19</v>
@@ -14336,7 +14336,7 @@
         <v>19</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>19</v>
@@ -14346,10 +14346,10 @@
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K200" s="9" t="s">
         <v>212</v>
@@ -14358,11 +14358,11 @@
         <v>213</v>
       </c>
       <c r="M200" s="8" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="8" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="P200" s="8"/>
       <c r="Q200" s="6"/>
@@ -14377,10 +14377,10 @@
     </row>
     <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>19</v>
@@ -14395,23 +14395,23 @@
         <v>21</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="M201" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N201" s="8"/>
       <c r="O201" s="12">
@@ -14432,10 +14432,10 @@
     </row>
     <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>19</v>
@@ -14450,30 +14450,30 @@
         <v>21</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="M202" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="8" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="P202" s="8" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="Q202" s="6"/>
       <c r="R202" s="6"/>
@@ -14487,10 +14487,10 @@
     </row>
     <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>19</v>
@@ -14505,14 +14505,14 @@
         <v>21</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K203" s="9" t="s">
         <v>217</v>
@@ -14521,14 +14521,14 @@
         <v>218</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="P203" s="8" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
@@ -14542,10 +14542,10 @@
     </row>
     <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>19</v>
@@ -14554,7 +14554,7 @@
         <v>19</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>19</v>
@@ -14564,23 +14564,23 @@
       </c>
       <c r="H204" s="8"/>
       <c r="I204" s="8" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="M204" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="P204" s="8"/>
       <c r="Q204" s="6"/>
@@ -14595,10 +14595,10 @@
     </row>
     <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>19</v>
@@ -14607,7 +14607,7 @@
         <v>19</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>19</v>
@@ -14617,23 +14617,23 @@
       </c>
       <c r="H205" s="8"/>
       <c r="I205" s="8" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="P205" s="8"/>
       <c r="Q205" s="6"/>
@@ -14648,10 +14648,10 @@
     </row>
     <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>19</v>
@@ -14660,7 +14660,7 @@
         <v>19</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>19</v>
@@ -14670,23 +14670,23 @@
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="8" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="P206" s="8"/>
       <c r="Q206" s="6"/>
@@ -14701,10 +14701,10 @@
     </row>
     <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>19</v>
@@ -14713,7 +14713,7 @@
         <v>19</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>19</v>
@@ -14723,23 +14723,23 @@
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="P207" s="8"/>
       <c r="Q207" s="6"/>
@@ -14754,10 +14754,10 @@
     </row>
     <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>19</v>
@@ -14772,27 +14772,27 @@
         <v>21</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="P208" s="8"/>
       <c r="Q208" s="6"/>
@@ -14807,10 +14807,10 @@
     </row>
     <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>19</v>
@@ -14825,27 +14825,27 @@
         <v>21</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="J209" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="P209" s="8"/>
       <c r="Q209" s="6"/>
@@ -14860,10 +14860,10 @@
     </row>
     <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>19</v>
@@ -14878,14 +14878,14 @@
         <v>21</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K210" s="9" t="s">
         <v>221</v>
@@ -14894,11 +14894,11 @@
         <v>222</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="P210" s="8"/>
       <c r="Q210" s="6"/>
@@ -14913,10 +14913,10 @@
     </row>
     <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>19</v>
@@ -14935,19 +14935,19 @@
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8">
@@ -14966,10 +14966,10 @@
     </row>
     <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>19</v>
@@ -14988,10 +14988,10 @@
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K212" s="9" t="s">
         <v>234</v>
@@ -15000,7 +15000,7 @@
         <v>235</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8">
@@ -15019,10 +15019,10 @@
     </row>
     <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>19</v>
@@ -15031,7 +15031,7 @@
         <v>19</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>19</v>
@@ -15041,23 +15041,23 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8" t="s">
-        <v>864</v>
+        <v>833</v>
       </c>
       <c r="P213" s="8"/>
       <c r="Q213" s="6"/>
@@ -15072,10 +15072,10 @@
     </row>
     <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>865</v>
+        <v>834</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>19</v>
@@ -15090,23 +15090,23 @@
         <v>21</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8" t="s">
-        <v>867</v>
+        <v>836</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="8">
@@ -15125,10 +15125,10 @@
     </row>
     <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>868</v>
+        <v>837</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>19</v>
@@ -15137,7 +15137,7 @@
         <v>19</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>19</v>
@@ -15147,23 +15147,23 @@
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
       <c r="J215" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="M215" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N215" s="8"/>
       <c r="O215" s="8" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="P215" s="8"/>
       <c r="Q215" s="6"/>
@@ -15178,10 +15178,10 @@
     </row>
     <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>873</v>
+        <v>842</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>19</v>
@@ -15196,27 +15196,27 @@
         <v>21</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>874</v>
+        <v>843</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="8" t="s">
-        <v>876</v>
+        <v>845</v>
       </c>
       <c r="P216" s="8"/>
       <c r="Q216" s="6"/>
@@ -15231,10 +15231,10 @@
     </row>
     <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>877</v>
+        <v>846</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>19</v>
@@ -15249,23 +15249,23 @@
         <v>21</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>878</v>
+        <v>847</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
       <c r="L217" s="10" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="8">
@@ -15284,10 +15284,10 @@
     </row>
     <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>879</v>
+        <v>848</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>19</v>
@@ -15302,27 +15302,27 @@
         <v>21</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>880</v>
+        <v>849</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N218" s="8"/>
       <c r="O218" s="8" t="s">
-        <v>881</v>
+        <v>850</v>
       </c>
       <c r="P218" s="8"/>
       <c r="Q218" s="6"/>
@@ -15337,10 +15337,10 @@
     </row>
     <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>882</v>
+        <v>851</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>19</v>
@@ -15349,7 +15349,7 @@
         <v>19</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>19</v>
@@ -15359,23 +15359,23 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>884</v>
+        <v>853</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="M219" s="8" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="8" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="P219" s="8"/>
       <c r="Q219" s="6"/>
@@ -15390,10 +15390,10 @@
     </row>
     <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>886</v>
+        <v>855</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>21</v>
@@ -15408,23 +15408,23 @@
         <v>21</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>887</v>
+        <v>856</v>
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>888</v>
+        <v>857</v>
       </c>
       <c r="L220" s="10" t="s">
-        <v>889</v>
+        <v>858</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N220" s="8"/>
       <c r="O220" s="12">
@@ -15443,10 +15443,10 @@
     </row>
     <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>891</v>
+        <v>860</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>19</v>
@@ -15455,7 +15455,7 @@
         <v>19</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>19</v>
@@ -15465,23 +15465,23 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8" t="s">
-        <v>892</v>
+        <v>861</v>
       </c>
       <c r="J221" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>894</v>
+        <v>863</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="8" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="P221" s="8"/>
       <c r="Q221" s="6"/>
@@ -15496,10 +15496,10 @@
     </row>
     <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>896</v>
+        <v>865</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>21</v>
@@ -15514,27 +15514,27 @@
         <v>21</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>897</v>
+        <v>866</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>898</v>
+        <v>867</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>899</v>
+        <v>868</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="8" t="s">
-        <v>900</v>
+        <v>869</v>
       </c>
       <c r="P222" s="8"/>
       <c r="Q222" s="6"/>
@@ -15549,10 +15549,10 @@
     </row>
     <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>19</v>
@@ -15561,7 +15561,7 @@
         <v>19</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>19</v>
@@ -15571,23 +15571,23 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="8" t="s">
-        <v>902</v>
+        <v>871</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="8" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="P223" s="8"/>
       <c r="Q223" s="6"/>
@@ -15602,10 +15602,10 @@
     </row>
     <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>905</v>
+        <v>874</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>19</v>
@@ -15620,27 +15620,27 @@
         <v>21</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1092</v>
+        <v>1061</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="8" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="P224" s="8"/>
       <c r="Q224" s="6"/>
@@ -15655,10 +15655,10 @@
     </row>
     <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>19</v>
@@ -15673,27 +15673,27 @@
         <v>21</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="8" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="P225" s="8"/>
       <c r="Q225" s="6"/>
@@ -15708,10 +15708,10 @@
     </row>
     <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>19</v>
@@ -15720,7 +15720,7 @@
         <v>19</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>19</v>
@@ -15730,23 +15730,23 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="8" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>914</v>
+        <v>883</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="P226" s="8"/>
       <c r="Q226" s="6"/>
@@ -15761,10 +15761,10 @@
     </row>
     <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>915</v>
+        <v>884</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>19</v>
@@ -15779,27 +15779,27 @@
         <v>21</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>916</v>
+        <v>885</v>
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1093</v>
+        <v>1062</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>914</v>
+        <v>883</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="P227" s="8"/>
       <c r="Q227" s="6"/>
@@ -15814,10 +15814,10 @@
     </row>
     <row r="228" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>19</v>
@@ -15826,7 +15826,7 @@
         <v>19</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>19</v>
@@ -15836,23 +15836,23 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8" t="s">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>920</v>
+        <v>889</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>921</v>
+        <v>890</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="P228" s="8"/>
       <c r="Q228" s="6"/>
@@ -15867,10 +15867,10 @@
     </row>
     <row r="229" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>19</v>
@@ -15885,27 +15885,27 @@
         <v>21</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8" t="s">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>920</v>
+        <v>889</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>921</v>
+        <v>890</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8" t="s">
-        <v>925</v>
+        <v>894</v>
       </c>
       <c r="P229" s="8"/>
       <c r="Q229" s="6"/>
@@ -15920,10 +15920,10 @@
     </row>
     <row r="230" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>19</v>
@@ -15932,7 +15932,7 @@
         <v>19</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>19</v>
@@ -15942,10 +15942,10 @@
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8" t="s">
-        <v>927</v>
+        <v>896</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K230" s="9" t="s">
         <v>240</v>
@@ -15954,11 +15954,11 @@
         <v>241</v>
       </c>
       <c r="M230" s="8" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="8" t="s">
-        <v>928</v>
+        <v>897</v>
       </c>
       <c r="P230" s="8"/>
       <c r="Q230" s="6"/>
@@ -15973,10 +15973,10 @@
     </row>
     <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>19</v>
@@ -15991,20 +15991,20 @@
         <v>21</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>931</v>
+        <v>900</v>
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="6" t="s">
-        <v>932</v>
+        <v>901</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>934</v>
+        <v>903</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="M231" s="18">
         <v>3</v>
@@ -16028,10 +16028,10 @@
     </row>
     <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17" t="s">
-        <v>936</v>
+        <v>905</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>19</v>
@@ -16040,26 +16040,26 @@
         <v>19</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>937</v>
+        <v>906</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6" t="s">
-        <v>938</v>
+        <v>907</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>939</v>
+        <v>908</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>940</v>
+        <v>909</v>
       </c>
       <c r="M232" s="18">
         <v>3</v>
@@ -16083,10 +16083,10 @@
     </row>
     <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17" t="s">
-        <v>941</v>
+        <v>910</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>19</v>
@@ -16095,26 +16095,26 @@
         <v>19</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>942</v>
+        <v>911</v>
       </c>
       <c r="H233" s="6"/>
       <c r="I233" s="6" t="s">
-        <v>943</v>
+        <v>912</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>939</v>
+        <v>908</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>940</v>
+        <v>909</v>
       </c>
       <c r="M233" s="18">
         <v>3</v>
@@ -16138,10 +16138,10 @@
     </row>
     <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17" t="s">
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>19</v>
@@ -16150,26 +16150,26 @@
         <v>19</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>945</v>
+        <v>914</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6" t="s">
-        <v>946</v>
+        <v>915</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="M234" s="18">
         <v>3</v>
@@ -16178,7 +16178,7 @@
         <v>33</v>
       </c>
       <c r="O234" s="8" t="s">
-        <v>949</v>
+        <v>918</v>
       </c>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
@@ -16193,10 +16193,10 @@
     </row>
     <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17" t="s">
-        <v>950</v>
+        <v>919</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>19</v>
@@ -16205,26 +16205,26 @@
         <v>19</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6" t="s">
-        <v>952</v>
+        <v>921</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>953</v>
+        <v>922</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>954</v>
+        <v>923</v>
       </c>
       <c r="M235" s="18">
         <v>3</v>
@@ -16233,7 +16233,7 @@
         <v>34</v>
       </c>
       <c r="O235" s="8" t="s">
-        <v>955</v>
+        <v>924</v>
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
@@ -16248,10 +16248,10 @@
     </row>
     <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17" t="s">
-        <v>956</v>
+        <v>925</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>19</v>
@@ -16260,7 +16260,7 @@
         <v>19</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>19</v>
@@ -16270,16 +16270,16 @@
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6" t="s">
-        <v>957</v>
+        <v>926</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M236" s="18">
         <v>3</v>
@@ -16303,10 +16303,10 @@
     </row>
     <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>19</v>
@@ -16315,7 +16315,7 @@
         <v>19</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>19</v>
@@ -16325,16 +16325,16 @@
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6" t="s">
-        <v>961</v>
+        <v>930</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M237" s="18">
         <v>3</v>
@@ -16358,10 +16358,10 @@
     </row>
     <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>19</v>
@@ -16376,20 +16376,20 @@
         <v>21</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6" t="s">
-        <v>964</v>
+        <v>933</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="M238" s="18">
         <v>3</v>
@@ -16398,7 +16398,7 @@
         <v>36</v>
       </c>
       <c r="O238" s="8" t="s">
-        <v>967</v>
+        <v>936</v>
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
@@ -16413,10 +16413,10 @@
     </row>
     <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17" t="s">
-        <v>968</v>
+        <v>937</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>19</v>
@@ -16431,20 +16431,20 @@
         <v>21</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M239" s="18">
         <v>3</v>
@@ -16453,7 +16453,7 @@
         <v>35</v>
       </c>
       <c r="O239" s="8" t="s">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
@@ -16468,10 +16468,10 @@
     </row>
     <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17" t="s">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>19</v>
@@ -16486,22 +16486,22 @@
         <v>21</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="M240" s="18">
         <v>3</v>
@@ -16510,7 +16510,7 @@
         <v>36</v>
       </c>
       <c r="O240" s="8" t="s">
-        <v>976</v>
+        <v>945</v>
       </c>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
@@ -16525,10 +16525,10 @@
     </row>
     <row r="241" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17" t="s">
-        <v>977</v>
+        <v>946</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>19</v>
@@ -16537,26 +16537,26 @@
         <v>19</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
       <c r="M241" s="18">
         <v>1</v>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17" t="s">
-        <v>984</v>
+        <v>953</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>19</v>
@@ -16598,20 +16598,20 @@
         <v>21</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
       <c r="M242" s="18">
         <v>1</v>
@@ -16620,10 +16620,10 @@
         <v>30</v>
       </c>
       <c r="O242" s="8" t="s">
-        <v>986</v>
+        <v>955</v>
       </c>
       <c r="P242" s="6" t="s">
-        <v>987</v>
+        <v>956</v>
       </c>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
@@ -16637,10 +16637,10 @@
     </row>
     <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17" t="s">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>19</v>
@@ -16655,20 +16655,20 @@
         <v>19</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>989</v>
+        <v>958</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6" t="s">
-        <v>990</v>
+        <v>959</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
       <c r="M243" s="18">
         <v>1</v>
@@ -16694,10 +16694,10 @@
     </row>
     <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17" t="s">
-        <v>991</v>
+        <v>960</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>19</v>
@@ -16706,26 +16706,26 @@
         <v>19</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="6" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M244" s="18">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>32</v>
       </c>
       <c r="O244" s="8" t="s">
-        <v>994</v>
+        <v>963</v>
       </c>
       <c r="P244" s="6" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
@@ -16751,10 +16751,10 @@
     </row>
     <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17" t="s">
-        <v>996</v>
+        <v>965</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>19</v>
@@ -16763,26 +16763,26 @@
         <v>19</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>997</v>
+        <v>966</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6" t="s">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M245" s="18">
         <v>1</v>
@@ -16791,10 +16791,10 @@
         <v>32</v>
       </c>
       <c r="O245" s="8" t="s">
-        <v>999</v>
+        <v>968</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
@@ -16808,10 +16808,10 @@
     </row>
     <row r="246" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17" t="s">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>19</v>
@@ -16820,26 +16820,26 @@
         <v>19</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M246" s="18">
         <v>1</v>
@@ -16848,10 +16848,10 @@
         <v>32</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
@@ -16865,10 +16865,10 @@
     </row>
     <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>19</v>
@@ -16883,20 +16883,20 @@
         <v>19</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="M247" s="18">
         <v>1</v>
@@ -16905,10 +16905,10 @@
         <v>32</v>
       </c>
       <c r="O247" s="8" t="s">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="P247" s="6" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
@@ -16922,10 +16922,10 @@
     </row>
     <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>19</v>
@@ -16940,20 +16940,20 @@
         <v>19</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="M248" s="18">
         <v>1</v>
@@ -16962,10 +16962,10 @@
         <v>33</v>
       </c>
       <c r="O248" s="8" t="s">
-        <v>1012</v>
+        <v>981</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>1013</v>
+        <v>982</v>
       </c>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
@@ -16979,10 +16979,10 @@
     </row>
     <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17" t="s">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>19</v>
@@ -16991,26 +16991,26 @@
         <v>19</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="M249" s="18">
         <v>1</v>
@@ -17019,7 +17019,7 @@
         <v>33</v>
       </c>
       <c r="O249" s="8" t="s">
-        <v>1017</v>
+        <v>986</v>
       </c>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
@@ -17034,10 +17034,10 @@
     </row>
     <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>19</v>
@@ -17046,26 +17046,26 @@
         <v>19</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6" t="s">
-        <v>1019</v>
+        <v>988</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="M250" s="18">
         <v>1</v>
@@ -17089,10 +17089,10 @@
     </row>
     <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17" t="s">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>19</v>
@@ -17101,7 +17101,7 @@
         <v>19</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>19</v>
@@ -17111,16 +17111,16 @@
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="M251" s="18">
         <v>1</v>
@@ -17146,10 +17146,10 @@
     </row>
     <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>19</v>
@@ -17164,20 +17164,20 @@
         <v>21</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6" t="s">
-        <v>1025</v>
+        <v>994</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="M252" s="18">
         <v>1</v>
@@ -17186,10 +17186,10 @@
         <v>34</v>
       </c>
       <c r="O252" s="8" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="P252" s="6" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
@@ -17203,10 +17203,10 @@
     </row>
     <row r="253" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>19</v>
@@ -17215,7 +17215,7 @@
         <v>19</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>19</v>
@@ -17225,16 +17225,16 @@
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6" t="s">
-        <v>1028</v>
+        <v>997</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="M253" s="18">
         <v>1</v>
@@ -17260,10 +17260,10 @@
     </row>
     <row r="254" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17" t="s">
-        <v>1031</v>
+        <v>1000</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>19</v>
@@ -17272,7 +17272,7 @@
         <v>19</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>19</v>
@@ -17282,16 +17282,16 @@
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="M254" s="18">
         <v>1</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="255" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17" t="s">
-        <v>1032</v>
+        <v>1001</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>19</v>
@@ -17335,20 +17335,20 @@
         <v>21</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="M255" s="18">
         <v>1</v>
@@ -17357,7 +17357,7 @@
         <v>36</v>
       </c>
       <c r="O255" s="8" t="s">
-        <v>1035</v>
+        <v>1004</v>
       </c>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
@@ -17372,10 +17372,10 @@
     </row>
     <row r="256" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="17" t="s">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>19</v>
@@ -17394,16 +17394,16 @@
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6" t="s">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="M256" s="18">
         <v>2</v>
@@ -17429,10 +17429,10 @@
     </row>
     <row r="257" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17" t="s">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>19</v>
@@ -17447,20 +17447,20 @@
         <v>19</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>1041</v>
+        <v>1010</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="K257" s="9" t="s">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
       <c r="M257" s="18">
         <v>2</v>
@@ -17486,10 +17486,10 @@
     </row>
     <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17" t="s">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>19</v>
@@ -17508,19 +17508,19 @@
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6" t="s">
-        <v>1045</v>
+        <v>1014</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K258" s="9" t="s">
-        <v>1046</v>
+        <v>1015</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>1047</v>
+        <v>1016</v>
       </c>
       <c r="M258" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="N258" s="18">
         <v>37</v>
@@ -17541,10 +17541,10 @@
     </row>
     <row r="259" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17" t="s">
-        <v>1049</v>
+        <v>1018</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>19</v>
@@ -17563,19 +17563,19 @@
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K259" s="9" t="s">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>1052</v>
+        <v>1021</v>
       </c>
       <c r="M259" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="N259" s="18">
         <v>42</v>
@@ -17596,10 +17596,10 @@
     </row>
     <row r="260" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17" t="s">
-        <v>1053</v>
+        <v>1022</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>19</v>
@@ -17614,29 +17614,29 @@
         <v>21</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1054</v>
+        <v>1023</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6" t="s">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K260" s="9" t="s">
-        <v>1056</v>
+        <v>1025</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="M260" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="N260" s="18">
         <v>48</v>
       </c>
       <c r="O260" s="8" t="s">
-        <v>1058</v>
+        <v>1027</v>
       </c>
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
@@ -17651,10 +17651,10 @@
     </row>
     <row r="261" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>21</v>
@@ -17669,23 +17669,23 @@
         <v>21</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1060</v>
+        <v>1029</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6" t="s">
-        <v>1061</v>
+        <v>1030</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="K261" s="9" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="M261" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="N261" s="18">
         <v>49</v>
@@ -17706,10 +17706,10 @@
     </row>
     <row r="262" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>19</v>
@@ -17718,23 +17718,23 @@
         <v>19</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
       <c r="K262" s="9" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="L262" s="8">
         <v>1902</v>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="N262" s="6"/>
       <c r="O262" s="8" t="s">
-        <v>1070</v>
+        <v>1039</v>
       </c>
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="263" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>19</v>
@@ -17771,23 +17771,23 @@
         <v>19</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1072</v>
+        <v>1041</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6" t="s">
-        <v>1073</v>
+        <v>1042</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1074</v>
+        <v>1043</v>
       </c>
       <c r="K263" s="9" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="L263" s="8">
         <v>1902</v>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="N263" s="6"/>
       <c r="O263" s="8" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
@@ -17812,10 +17812,10 @@
     </row>
     <row r="264" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>19</v>
@@ -17824,7 +17824,7 @@
         <v>19</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>19</v>
@@ -17834,13 +17834,13 @@
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6" t="s">
-        <v>1077</v>
+        <v>1046</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="L264" s="8">
         <v>1902</v>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="N264" s="6"/>
       <c r="O264" s="8" t="s">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F1E6CB-B6C8-0F46-BD40-F60A004CB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F9B37-B143-3A45-A554-53FA4899A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1108">
   <si>
     <t xml:space="preserve">Creators: Joanne Ruth Davis, Dino Franco Felluga, Adrian S. Wisnicki </t>
   </si>
@@ -3344,9 +3344,6 @@
   </si>
   <si>
     <t>I - Missionaries in China (2) Reports from the Missionaries</t>
-  </si>
-  <si>
-    <t>IV. India. South Travancore. (1) Missionaries in South Travancore</t>
   </si>
 </sst>
 </file>
@@ -3781,9 +3778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:P264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7827,7 +7824,7 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>291</v>
@@ -8337,7 +8334,7 @@
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>356</v>
@@ -9204,7 +9201,7 @@
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>385</v>
@@ -9302,7 +9299,7 @@
         <v>21</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8" t="s">

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD10F4-3A61-9743-B2AE-0919499BD374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D7155-0F12-094E-BF23-7969CCA97C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,9 +2236,6 @@
     <t>Joseph May</t>
   </si>
   <si>
-    <t>West Africa. Sierre Leone District. Extract of a Letter from Rev. Joseph May, Freetown, November 8th, 1873</t>
-  </si>
-  <si>
     <t>48-49</t>
   </si>
   <si>
@@ -2344,9 +2341,6 @@
     <t>Anonymous; Samuel Thomas King</t>
   </si>
   <si>
-    <t>West Africa. Sierre Leone District</t>
-  </si>
-  <si>
     <t>44-45</t>
   </si>
   <si>
@@ -3308,6 +3302,12 @@
   </si>
   <si>
     <t>256-58</t>
+  </si>
+  <si>
+    <t>West Africa. Sierra Leone District. Extract of a Letter from Rev. Joseph May, Freetown, November 8th, 1873</t>
+  </si>
+  <si>
+    <t>West Africa. Sierra Leone District</t>
   </si>
 </sst>
 </file>
@@ -3742,9 +3742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3769,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>37</v>
@@ -4277,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>37</v>
@@ -4877,11 +4877,11 @@
         <v>20</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>92</v>
@@ -4931,13 +4931,13 @@
         <v>20</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>97</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>92</v>
@@ -4955,7 +4955,7 @@
         <v>167</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -4997,17 +4997,17 @@
         <v>92</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M24" s="8">
         <v>15</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>143</v>
@@ -5205,7 +5205,7 @@
         <v>149</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>143</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>143</v>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>143</v>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>143</v>
@@ -5813,7 +5813,7 @@
         <v>195</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>143</v>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>143</v>
@@ -6465,7 +6465,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8" t="s">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>286</v>
@@ -6619,11 +6619,11 @@
         <v>18</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>291</v>
@@ -6669,11 +6669,11 @@
         <v>18</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>291</v>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>291</v>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>291</v>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>291</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>291</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>291</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>291</v>
@@ -7019,11 +7019,11 @@
         <v>18</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>291</v>
@@ -7069,11 +7069,11 @@
         <v>18</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>291</v>
@@ -7119,11 +7119,11 @@
         <v>18</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>291</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>291</v>
@@ -7219,11 +7219,11 @@
         <v>18</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>291</v>
@@ -7269,7 +7269,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>323</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>323</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>323</v>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>323</v>
@@ -7519,11 +7519,11 @@
         <v>18</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>323</v>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>335</v>
@@ -7619,19 +7619,19 @@
         <v>20</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>339</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>340</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L76" s="13">
         <v>1802</v>
@@ -7673,11 +7673,11 @@
         <v>18</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>286</v>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>345</v>
@@ -7773,11 +7773,11 @@
         <v>18</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>348</v>
@@ -7823,11 +7823,11 @@
         <v>18</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>348</v>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>348</v>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>348</v>
@@ -7973,11 +7973,11 @@
         <v>18</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>348</v>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>348</v>
@@ -8073,11 +8073,11 @@
         <v>18</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>348</v>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>348</v>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>348</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>348</v>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>348</v>
@@ -8323,11 +8323,11 @@
         <v>18</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>348</v>
@@ -8373,11 +8373,11 @@
         <v>18</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>348</v>
@@ -8423,11 +8423,11 @@
         <v>18</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>348</v>
@@ -8473,11 +8473,11 @@
         <v>18</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>348</v>
@@ -8523,11 +8523,11 @@
         <v>18</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>348</v>
@@ -8573,7 +8573,7 @@
         <v>18</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8" t="s">
@@ -8623,7 +8623,7 @@
         <v>18</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
@@ -8723,11 +8723,11 @@
         <v>18</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>377</v>
@@ -8773,11 +8773,11 @@
         <v>18</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>377</v>
@@ -8823,11 +8823,11 @@
         <v>18</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>377</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>377</v>
@@ -8923,11 +8923,11 @@
         <v>18</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>377</v>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>377</v>
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>377</v>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>377</v>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>377</v>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>377</v>
@@ -9223,11 +9223,11 @@
         <v>18</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>377</v>
@@ -9273,11 +9273,11 @@
         <v>18</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>377</v>
@@ -9323,11 +9323,11 @@
         <v>18</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>377</v>
@@ -9373,11 +9373,11 @@
         <v>18</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>377</v>
@@ -9423,11 +9423,11 @@
         <v>18</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J112" s="8" t="s">
         <v>377</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8" t="s">
@@ -9523,7 +9523,7 @@
         <v>18</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8" t="s">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>407</v>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>407</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>407</v>
@@ -9723,11 +9723,11 @@
         <v>18</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>407</v>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>407</v>
@@ -9823,7 +9823,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8" t="s">
@@ -10175,7 +10175,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8" t="s">
@@ -10225,7 +10225,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8" t="s">
@@ -11419,7 +11419,7 @@
         <v>20</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>538</v>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="13" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>607</v>
@@ -12951,10 +12951,10 @@
         <v>20</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>669</v>
@@ -13429,7 +13429,7 @@
         <v>20</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8" t="s">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>607</v>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8" t="s">
-        <v>738</v>
+        <v>1094</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>607</v>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>604</v>
@@ -13849,23 +13849,23 @@
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K196" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="L196" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="L196" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>731</v>
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>604</v>
@@ -13901,23 +13901,23 @@
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K197" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="L197" s="10" t="s">
         <v>747</v>
-      </c>
-      <c r="L197" s="10" t="s">
-        <v>748</v>
       </c>
       <c r="M197" s="8" t="s">
         <v>731</v>
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>604</v>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>607</v>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>604</v>
@@ -14005,23 +14005,23 @@
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K199" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="L199" s="10" t="s">
         <v>755</v>
-      </c>
-      <c r="L199" s="10" t="s">
-        <v>756</v>
       </c>
       <c r="M199" s="8" t="s">
         <v>731</v>
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>604</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>607</v>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
@@ -14087,10 +14087,10 @@
     </row>
     <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B201" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>762</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>18</v>
@@ -14105,23 +14105,23 @@
         <v>20</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K201" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="L201" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="L201" s="10" t="s">
+      <c r="M201" s="8" t="s">
         <v>766</v>
-      </c>
-      <c r="M201" s="8" t="s">
-        <v>767</v>
       </c>
       <c r="N201" s="8"/>
       <c r="O201" s="12">
@@ -14139,10 +14139,10 @@
     </row>
     <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>18</v>
@@ -14157,27 +14157,27 @@
         <v>20</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H202" s="8"/>
       <c r="I202" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K202" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="L202" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="L202" s="10" t="s">
+      <c r="M202" s="8" t="s">
         <v>766</v>
-      </c>
-      <c r="M202" s="8" t="s">
-        <v>767</v>
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
@@ -14191,10 +14191,10 @@
     </row>
     <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>18</v>
@@ -14209,11 +14209,11 @@
         <v>20</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H203" s="8"/>
       <c r="I203" s="8" t="s">
-        <v>774</v>
+        <v>1095</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>607</v>
@@ -14225,11 +14225,11 @@
         <v>214</v>
       </c>
       <c r="M203" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
@@ -14243,10 +14243,10 @@
     </row>
     <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>18</v>
@@ -14265,23 +14265,23 @@
       </c>
       <c r="H204" s="8"/>
       <c r="I204" s="8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M204" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
@@ -14295,10 +14295,10 @@
     </row>
     <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>18</v>
@@ -14317,23 +14317,23 @@
       </c>
       <c r="H205" s="8"/>
       <c r="I205" s="8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M205" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N205" s="8"/>
       <c r="O205" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
@@ -14347,10 +14347,10 @@
     </row>
     <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>18</v>
@@ -14369,23 +14369,23 @@
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K206" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M206" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
@@ -14399,10 +14399,10 @@
     </row>
     <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>18</v>
@@ -14421,23 +14421,23 @@
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J207" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M207" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
@@ -14451,10 +14451,10 @@
     </row>
     <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>18</v>
@@ -14469,27 +14469,27 @@
         <v>20</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J208" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M208" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
@@ -14503,10 +14503,10 @@
     </row>
     <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>18</v>
@@ -14521,27 +14521,27 @@
         <v>20</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J209" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M209" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N209" s="8"/>
       <c r="O209" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
@@ -14555,10 +14555,10 @@
     </row>
     <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>18</v>
@@ -14573,11 +14573,11 @@
         <v>20</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J210" s="8" t="s">
         <v>607</v>
@@ -14589,11 +14589,11 @@
         <v>218</v>
       </c>
       <c r="M210" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
@@ -14607,10 +14607,10 @@
     </row>
     <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>18</v>
@@ -14629,19 +14629,19 @@
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="8">
@@ -14659,10 +14659,10 @@
     </row>
     <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>18</v>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J212" s="8" t="s">
         <v>607</v>
@@ -14693,7 +14693,7 @@
         <v>231</v>
       </c>
       <c r="M212" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="8">
@@ -14711,10 +14711,10 @@
     </row>
     <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>18</v>
@@ -14733,23 +14733,23 @@
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J213" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
@@ -14763,10 +14763,10 @@
     </row>
     <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>18</v>
@@ -14781,23 +14781,23 @@
         <v>20</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J214" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="M214" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N214" s="8"/>
       <c r="O214" s="8">
@@ -14815,10 +14815,10 @@
     </row>
     <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>18</v>
@@ -14837,23 +14837,23 @@
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J215" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M215" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N215" s="8"/>
       <c r="O215" s="8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
@@ -14867,10 +14867,10 @@
     </row>
     <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>18</v>
@@ -14885,27 +14885,27 @@
         <v>20</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J216" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L216" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M216" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="8" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
@@ -14919,10 +14919,10 @@
     </row>
     <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>18</v>
@@ -14937,23 +14937,23 @@
         <v>20</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J217" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L217" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M217" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="8">
@@ -14971,10 +14971,10 @@
     </row>
     <row r="218" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>18</v>
@@ -14989,27 +14989,27 @@
         <v>20</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J218" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L218" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M218" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N218" s="8"/>
       <c r="O218" s="8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
@@ -15023,10 +15023,10 @@
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>18</v>
@@ -15045,23 +15045,23 @@
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J219" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L219" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M219" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
@@ -15075,10 +15075,10 @@
     </row>
     <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>20</v>
@@ -15093,23 +15093,23 @@
         <v>20</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H220" s="8"/>
       <c r="I220" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J220" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K220" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="L220" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="M220" s="8" t="s">
         <v>843</v>
-      </c>
-      <c r="L220" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="M220" s="8" t="s">
-        <v>845</v>
       </c>
       <c r="N220" s="8"/>
       <c r="O220" s="12">
@@ -15127,10 +15127,10 @@
     </row>
     <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>18</v>
@@ -15149,23 +15149,23 @@
       </c>
       <c r="H221" s="8"/>
       <c r="I221" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J221" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L221" s="10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="M221" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
@@ -15179,10 +15179,10 @@
     </row>
     <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>20</v>
@@ -15197,7 +15197,7 @@
         <v>20</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H222" s="8"/>
       <c r="I222" s="13" t="s">
@@ -15207,17 +15207,17 @@
         <v>607</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="L222" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M222" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
@@ -15231,10 +15231,10 @@
     </row>
     <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>18</v>
@@ -15253,23 +15253,23 @@
       </c>
       <c r="H223" s="8"/>
       <c r="I223" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J223" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L223" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M223" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
@@ -15283,10 +15283,10 @@
     </row>
     <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>18</v>
@@ -15305,23 +15305,23 @@
       </c>
       <c r="H224" s="8"/>
       <c r="I224" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L224" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M224" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
@@ -15335,10 +15335,10 @@
     </row>
     <row r="225" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>18</v>
@@ -15353,27 +15353,27 @@
         <v>20</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H225" s="8"/>
       <c r="I225" s="8" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J225" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L225" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M225" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
@@ -15387,10 +15387,10 @@
     </row>
     <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>18</v>
@@ -15409,19 +15409,19 @@
       </c>
       <c r="H226" s="8"/>
       <c r="I226" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J226" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L226" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8" t="s">
@@ -15439,10 +15439,10 @@
     </row>
     <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>18</v>
@@ -15457,27 +15457,27 @@
         <v>20</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J227" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L227" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M227" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
@@ -15491,10 +15491,10 @@
     </row>
     <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>18</v>
@@ -15513,23 +15513,23 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J228" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L228" s="10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M228" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
@@ -15543,10 +15543,10 @@
     </row>
     <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>18</v>
@@ -15561,27 +15561,27 @@
         <v>20</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H229" s="8"/>
       <c r="I229" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J229" s="8" t="s">
         <v>607</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L229" s="10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M229" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
@@ -15595,10 +15595,10 @@
     </row>
     <row r="230" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>18</v>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="H230" s="8"/>
       <c r="I230" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J230" s="8" t="s">
         <v>607</v>
@@ -15629,11 +15629,11 @@
         <v>237</v>
       </c>
       <c r="M230" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
@@ -15647,10 +15647,10 @@
     </row>
     <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>18</v>
@@ -15665,20 +15665,20 @@
         <v>20</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H231" s="6"/>
       <c r="I231" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K231" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="J231" s="6" t="s">
+      <c r="L231" s="9" t="s">
         <v>888</v>
-      </c>
-      <c r="K231" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="L231" s="9" t="s">
-        <v>890</v>
       </c>
       <c r="M231" s="18">
         <v>3</v>
@@ -15701,10 +15701,10 @@
     </row>
     <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>18</v>
@@ -15719,20 +15719,20 @@
         <v>18</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H232" s="6"/>
       <c r="I232" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="J232" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K232" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="L232" s="9" t="s">
         <v>893</v>
-      </c>
-      <c r="J232" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="K232" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="L232" s="9" t="s">
-        <v>895</v>
       </c>
       <c r="M232" s="18">
         <v>3</v>
@@ -15755,10 +15755,10 @@
     </row>
     <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>18</v>
@@ -15773,20 +15773,20 @@
         <v>18</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H233" s="6"/>
       <c r="I233" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M233" s="18">
         <v>3</v>
@@ -15809,10 +15809,10 @@
     </row>
     <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>18</v>
@@ -15827,20 +15827,20 @@
         <v>18</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K234" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="L234" s="9" t="s">
         <v>901</v>
-      </c>
-      <c r="J234" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="K234" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="L234" s="9" t="s">
-        <v>903</v>
       </c>
       <c r="M234" s="18">
         <v>3</v>
@@ -15849,7 +15849,7 @@
         <v>33</v>
       </c>
       <c r="O234" s="8" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
@@ -15863,10 +15863,10 @@
     </row>
     <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>18</v>
@@ -15881,20 +15881,20 @@
         <v>18</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H235" s="6"/>
       <c r="I235" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="J235" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="L235" s="9" t="s">
         <v>907</v>
-      </c>
-      <c r="J235" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="K235" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="L235" s="9" t="s">
-        <v>909</v>
       </c>
       <c r="M235" s="18">
         <v>3</v>
@@ -15903,7 +15903,7 @@
         <v>34</v>
       </c>
       <c r="O235" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
@@ -15917,10 +15917,10 @@
     </row>
     <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>18</v>
@@ -15939,16 +15939,16 @@
       </c>
       <c r="H236" s="6"/>
       <c r="I236" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="J236" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K236" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="L236" s="9" t="s">
         <v>912</v>
-      </c>
-      <c r="J236" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="K236" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="L236" s="9" t="s">
-        <v>914</v>
       </c>
       <c r="M236" s="18">
         <v>3</v>
@@ -15971,10 +15971,10 @@
     </row>
     <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>18</v>
@@ -15993,16 +15993,16 @@
       </c>
       <c r="H237" s="6"/>
       <c r="I237" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M237" s="18">
         <v>3</v>
@@ -16025,10 +16025,10 @@
     </row>
     <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>18</v>
@@ -16043,20 +16043,20 @@
         <v>20</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="K238" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="L238" s="9" t="s">
         <v>919</v>
-      </c>
-      <c r="J238" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="K238" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="L238" s="9" t="s">
-        <v>921</v>
       </c>
       <c r="M238" s="18">
         <v>3</v>
@@ -16065,7 +16065,7 @@
         <v>36</v>
       </c>
       <c r="O238" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
@@ -16079,10 +16079,10 @@
     </row>
     <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>18</v>
@@ -16097,20 +16097,20 @@
         <v>20</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H239" s="6"/>
       <c r="I239" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M239" s="18">
         <v>3</v>
@@ -16119,7 +16119,7 @@
         <v>35</v>
       </c>
       <c r="O239" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
@@ -16133,10 +16133,10 @@
     </row>
     <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>18</v>
@@ -16151,22 +16151,22 @@
         <v>20</v>
       </c>
       <c r="G240" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="I240" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="H240" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>930</v>
-      </c>
       <c r="J240" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="M240" s="18">
         <v>3</v>
@@ -16175,7 +16175,7 @@
         <v>36</v>
       </c>
       <c r="O240" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
@@ -16189,10 +16189,10 @@
     </row>
     <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>18</v>
@@ -16207,20 +16207,20 @@
         <v>18</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="J241" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K241" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="J241" s="6" t="s">
+      <c r="L241" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="K241" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="L241" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="M241" s="18">
         <v>1</v>
@@ -16243,10 +16243,10 @@
     </row>
     <row r="242" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>18</v>
@@ -16261,20 +16261,20 @@
         <v>20</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H242" s="6"/>
       <c r="I242" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K242" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="J242" s="6" t="s">
+      <c r="L242" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="K242" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="L242" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="M242" s="18">
         <v>1</v>
@@ -16283,7 +16283,7 @@
         <v>30</v>
       </c>
       <c r="O242" s="8" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
@@ -16297,10 +16297,10 @@
     </row>
     <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>18</v>
@@ -16315,20 +16315,20 @@
         <v>18</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H243" s="6"/>
       <c r="I243" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J243" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="L243" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="K243" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="L243" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="M243" s="18">
         <v>1</v>
@@ -16351,10 +16351,10 @@
     </row>
     <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>18</v>
@@ -16369,20 +16369,20 @@
         <v>18</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H244" s="6"/>
       <c r="I244" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M244" s="18">
         <v>1</v>
@@ -16391,7 +16391,7 @@
         <v>32</v>
       </c>
       <c r="O244" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
@@ -16405,10 +16405,10 @@
     </row>
     <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>18</v>
@@ -16423,20 +16423,20 @@
         <v>18</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H245" s="6"/>
       <c r="I245" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M245" s="18">
         <v>1</v>
@@ -16445,7 +16445,7 @@
         <v>32</v>
       </c>
       <c r="O245" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
@@ -16459,10 +16459,10 @@
     </row>
     <row r="246" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>18</v>
@@ -16477,20 +16477,20 @@
         <v>18</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H246" s="6"/>
       <c r="I246" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M246" s="18">
         <v>1</v>
@@ -16499,7 +16499,7 @@
         <v>32</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
@@ -16513,10 +16513,10 @@
     </row>
     <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>18</v>
@@ -16531,20 +16531,20 @@
         <v>18</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="M247" s="18">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>32</v>
       </c>
       <c r="O247" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
@@ -16567,10 +16567,10 @@
     </row>
     <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>18</v>
@@ -16585,20 +16585,20 @@
         <v>18</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H248" s="6"/>
       <c r="I248" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="L248" s="9" t="s">
         <v>962</v>
-      </c>
-      <c r="J248" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="K248" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="L248" s="9" t="s">
-        <v>964</v>
       </c>
       <c r="M248" s="18">
         <v>1</v>
@@ -16607,7 +16607,7 @@
         <v>33</v>
       </c>
       <c r="O248" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
@@ -16621,10 +16621,10 @@
     </row>
     <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>18</v>
@@ -16639,20 +16639,20 @@
         <v>18</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H249" s="6"/>
       <c r="I249" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="M249" s="18">
         <v>1</v>
@@ -16661,7 +16661,7 @@
         <v>33</v>
       </c>
       <c r="O249" s="8" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
@@ -16675,10 +16675,10 @@
     </row>
     <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>18</v>
@@ -16693,20 +16693,20 @@
         <v>18</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="M250" s="18">
         <v>1</v>
@@ -16729,10 +16729,10 @@
     </row>
     <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>18</v>
@@ -16751,16 +16751,16 @@
       </c>
       <c r="H251" s="6"/>
       <c r="I251" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M251" s="18">
         <v>1</v>
@@ -16783,10 +16783,10 @@
     </row>
     <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>18</v>
@@ -16801,20 +16801,20 @@
         <v>20</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H252" s="6"/>
       <c r="I252" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M252" s="18">
         <v>1</v>
@@ -16823,7 +16823,7 @@
         <v>34</v>
       </c>
       <c r="O252" s="8" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
@@ -16837,10 +16837,10 @@
     </row>
     <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>18</v>
@@ -16859,16 +16859,16 @@
       </c>
       <c r="H253" s="6"/>
       <c r="I253" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="L253" s="9" t="s">
         <v>980</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="K253" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="L253" s="9" t="s">
-        <v>982</v>
       </c>
       <c r="M253" s="18">
         <v>1</v>
@@ -16891,10 +16891,10 @@
     </row>
     <row r="254" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>18</v>
@@ -16913,16 +16913,16 @@
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M254" s="18">
         <v>1</v>
@@ -16945,10 +16945,10 @@
     </row>
     <row r="255" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>18</v>
@@ -16963,20 +16963,20 @@
         <v>20</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H255" s="6"/>
       <c r="I255" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M255" s="18">
         <v>1</v>
@@ -16985,7 +16985,7 @@
         <v>36</v>
       </c>
       <c r="O255" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
@@ -16999,10 +16999,10 @@
     </row>
     <row r="256" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>18</v>
@@ -17021,16 +17021,16 @@
       </c>
       <c r="H256" s="6"/>
       <c r="I256" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="L256" s="9" t="s">
         <v>989</v>
-      </c>
-      <c r="J256" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="K256" s="9" t="s">
-        <v>990</v>
-      </c>
-      <c r="L256" s="9" t="s">
-        <v>991</v>
       </c>
       <c r="M256" s="18">
         <v>2</v>
@@ -17053,10 +17053,10 @@
     </row>
     <row r="257" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>18</v>
@@ -17071,20 +17071,20 @@
         <v>18</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H257" s="6"/>
       <c r="I257" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K257" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="M257" s="18">
         <v>2</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="258" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>604</v>
@@ -17129,19 +17129,19 @@
       </c>
       <c r="H258" s="6"/>
       <c r="I258" s="6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J258" s="6" t="s">
         <v>607</v>
       </c>
       <c r="K258" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="L258" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="M258" s="6" t="s">
         <v>998</v>
-      </c>
-      <c r="L258" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="M258" s="6" t="s">
-        <v>1000</v>
       </c>
       <c r="N258" s="18">
         <v>37</v>
@@ -17161,10 +17161,10 @@
     </row>
     <row r="259" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>18</v>
@@ -17183,19 +17183,19 @@
       </c>
       <c r="H259" s="6"/>
       <c r="I259" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="J259" s="6" t="s">
         <v>607</v>
       </c>
       <c r="K259" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M259" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N259" s="18">
         <v>42</v>
@@ -17215,10 +17215,10 @@
     </row>
     <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>18</v>
@@ -17233,29 +17233,29 @@
         <v>20</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H260" s="6"/>
       <c r="I260" s="6" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J260" s="6" t="s">
         <v>607</v>
       </c>
       <c r="K260" s="9" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M260" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N260" s="18">
         <v>48</v>
       </c>
       <c r="O260" s="8" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
@@ -17269,10 +17269,10 @@
     </row>
     <row r="261" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>20</v>
@@ -17287,23 +17287,23 @@
         <v>20</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H261" s="6"/>
       <c r="I261" s="6" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J261" s="6" t="s">
         <v>607</v>
       </c>
       <c r="K261" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M261" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N261" s="18">
         <v>49</v>
@@ -17323,10 +17323,10 @@
     </row>
     <row r="262" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>18</v>
@@ -17341,17 +17341,17 @@
         <v>18</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H262" s="6"/>
       <c r="I262" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J262" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K262" s="9" t="s">
         <v>1019</v>
-      </c>
-      <c r="J262" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K262" s="9" t="s">
-        <v>1021</v>
       </c>
       <c r="L262" s="8">
         <v>1902</v>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="N262" s="6"/>
       <c r="O262" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
@@ -17375,10 +17375,10 @@
     </row>
     <row r="263" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>18</v>
@@ -17393,17 +17393,17 @@
         <v>18</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H263" s="6"/>
       <c r="I263" s="6" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K263" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="L263" s="8">
         <v>1902</v>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="N263" s="6"/>
       <c r="O263" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
@@ -17427,10 +17427,10 @@
     </row>
     <row r="264" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>18</v>
@@ -17449,13 +17449,13 @@
       </c>
       <c r="H264" s="6"/>
       <c r="I264" s="6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="L264" s="8">
         <v>1902</v>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="N264" s="6"/>
       <c r="O264" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>

--- a/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
+++ b/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/liv_025000-series-metadata-SOAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xlsx/bipoc-voices/liv_025000-series-metadata-SOAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D7155-0F12-094E-BF23-7969CCA97C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA1E29C-BA70-A94F-BB32-4630EAAC1760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3742,9 +3742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I204" sqref="I204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4058,7 +4058,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>41</v>
